--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
     <sheet name="S205014" sheetId="2" r:id="rId2"/>
-    <sheet name="S205000" sheetId="3" r:id="rId3"/>
-    <sheet name="S205009" sheetId="6" r:id="rId4"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
-    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
-    <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="EMV_LOAD_BALANCE_AGENCY_FUNDED" sheetId="16" r:id="rId3"/>
+    <sheet name="EMV_LOAD_BALANCE_AGENCY_NONFUND" sheetId="17" r:id="rId4"/>
+    <sheet name="S205000" sheetId="3" r:id="rId5"/>
+    <sheet name="S205009" sheetId="6" r:id="rId6"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId7"/>
+    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId8"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId9"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId10"/>
+    <sheet name="Institute" sheetId="5" r:id="rId11"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId12"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId14"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId15"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="711">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1398,6 +1400,768 @@
   </si>
   <si>
     <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DETAILS</t>
+  </si>
+  <si>
+    <t>INR [356]:10.00:INR [356],USD [840]:5.00:USD [840]</t>
+  </si>
+  <si>
+    <t>WalletCurrency:Amount:TransactionCurrency, &lt;next values&gt;</t>
+  </si>
+  <si>
+    <t>PAYMENT_MODE</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_VERIFIED</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>ACTIVATION_CODE</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>ADVANCE_RENEWAL_REPORT</t>
+  </si>
+  <si>
+    <t>AGENCY</t>
+  </si>
+  <si>
+    <t>AUTOAGNC001 [AGNC001]</t>
+  </si>
+  <si>
+    <t>AGENCY_ID</t>
+  </si>
+  <si>
+    <t>AUTOAGNC001</t>
+  </si>
+  <si>
+    <t>AGENT_ID</t>
+  </si>
+  <si>
+    <t>AUTOAGNT007 [AGNT007]</t>
+  </si>
+  <si>
+    <t>APPLICATION_TYPE</t>
+  </si>
+  <si>
+    <t>ASSOCIATION</t>
+  </si>
+  <si>
+    <t>MASTERCARD [02]</t>
+  </si>
+  <si>
+    <t>AUTO_RENEWAL_DAYS</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>auto branch [1000]</t>
+  </si>
+  <si>
+    <t>BRANCH_ID</t>
+  </si>
+  <si>
+    <t>AUTOBRNCH001 [BRNCH001]</t>
+  </si>
+  <si>
+    <t>CALENDAR_START_MONTH</t>
+  </si>
+  <si>
+    <t>Mar [03]</t>
+  </si>
+  <si>
+    <t>CARD_PACKID_GENERATION_TEMPLATE</t>
+  </si>
+  <si>
+    <t>AUTOMATION [PAN042]</t>
+  </si>
+  <si>
+    <t>CARD_PRODUCTION</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>CEILING_AMOUNT</t>
+  </si>
+  <si>
+    <t>CEILING_RESPONSE</t>
+  </si>
+  <si>
+    <t>Decline [1]</t>
+  </si>
+  <si>
+    <t>CHIP_TYPE</t>
+  </si>
+  <si>
+    <t>MChip [02]</t>
+  </si>
+  <si>
+    <t>CORPORATE_CLIENT_CODE</t>
+  </si>
+  <si>
+    <t>Automation [12121217222000002]</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>COURIER_AGENCY</t>
+  </si>
+  <si>
+    <t>DTDC [C0000005]</t>
+  </si>
+  <si>
+    <t>CREATE_OPEN_BATCH</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>CURRENCY_CONVERSION_BY</t>
+  </si>
+  <si>
+    <t>CURRENT_ADDRESS_LINE_1</t>
+  </si>
+  <si>
+    <t>Current Address</t>
+  </si>
+  <si>
+    <t>CUSTOMER_TYPE</t>
+  </si>
+  <si>
+    <t>DAILY_AMOUNT</t>
+  </si>
+  <si>
+    <t>DAILY_RESPONSE</t>
+  </si>
+  <si>
+    <t>DELIVERY_MODE</t>
+  </si>
+  <si>
+    <t>Branch [0]</t>
+  </si>
+  <si>
+    <t>DEVICE_CUSTOMER_TYPE</t>
+  </si>
+  <si>
+    <t>DEVICE_ID_GENERATION_TEMPLATE</t>
+  </si>
+  <si>
+    <t>AUTOMATION [PAN019]</t>
+  </si>
+  <si>
+    <t>DEVICE_PLAN_CODE</t>
+  </si>
+  <si>
+    <t>Corp Multicurrency travel card [CMTC01]</t>
+  </si>
+  <si>
+    <t>DEVICE_TYPE</t>
+  </si>
+  <si>
+    <t>DJMP_FEE_TYPE</t>
+  </si>
+  <si>
+    <t>Joining/Issuance Fee [I]</t>
+  </si>
+  <si>
+    <t>DJMP_POST_ISSUANCE_FEE_ON</t>
+  </si>
+  <si>
+    <t>Sale [S]</t>
+  </si>
+  <si>
+    <t>DR_STATUS</t>
+  </si>
+  <si>
+    <t>EMBOSSING_VENDOR</t>
+  </si>
+  <si>
+    <t>AUTOMATION PERS BUREAU [AUTOBU]</t>
+  </si>
+  <si>
+    <t>EMV_ABOVE_ATC_RANGE</t>
+  </si>
+  <si>
+    <t>EMV_BELOW_ATC_RANGE</t>
+  </si>
+  <si>
+    <t>EMV_PLAN_RESPONSE</t>
+  </si>
+  <si>
+    <t>END_POINT_MODE</t>
+  </si>
+  <si>
+    <t>Host [H]</t>
+  </si>
+  <si>
+    <t>EXPIRY_FLAG</t>
+  </si>
+  <si>
+    <t>Variable [V]</t>
+  </si>
+  <si>
+    <t>FEE_TYPE</t>
+  </si>
+  <si>
+    <t>Maintenance [A]</t>
+  </si>
+  <si>
+    <t>FIELD_NAME</t>
+  </si>
+  <si>
+    <t>Maiden Name [MAIDEN_NAME]</t>
+  </si>
+  <si>
+    <t>FILL_EMV_PLAN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FILL_RENEWAL_SECTION</t>
+  </si>
+  <si>
+    <t>FILL_REPLACEMENT_SECTION</t>
+  </si>
+  <si>
+    <t>FLOOR_AMOUNT</t>
+  </si>
+  <si>
+    <t>FLOOR_RESPONSE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>Male [M]</t>
+  </si>
+  <si>
+    <t>INTERCHANGE</t>
+  </si>
+  <si>
+    <t>INTERFACE_NAME</t>
+  </si>
+  <si>
+    <t>CBS1 [CBS1]</t>
+  </si>
+  <si>
+    <t>ISSUER_BIN</t>
+  </si>
+  <si>
+    <t>automation prepaid card [588765]</t>
+  </si>
+  <si>
+    <t>LANGUAGE_PREFERENCE</t>
+  </si>
+  <si>
+    <t>LEGAL_ID</t>
+  </si>
+  <si>
+    <t>MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>MEMBERSHIP_FEE_POSTING</t>
+  </si>
+  <si>
+    <t>Monthly [M]</t>
+  </si>
+  <si>
+    <t>MOBILE_NUMBER</t>
+  </si>
+  <si>
+    <t>PAYMENT_DATE</t>
+  </si>
+  <si>
+    <t>Next Month [8]</t>
+  </si>
+  <si>
+    <t>PICTURE_CODE</t>
+  </si>
+  <si>
+    <t>AUTOMATION PICTURE CODE [AUT]</t>
+  </si>
+  <si>
+    <t>PIN_DATA_TRANSMISSION</t>
+  </si>
+  <si>
+    <t>File [F]</t>
+  </si>
+  <si>
+    <t>PIN_GENERATION_OPTION</t>
+  </si>
+  <si>
+    <t>Random PIN [1]</t>
+  </si>
+  <si>
+    <t>PIN_LENGTH</t>
+  </si>
+  <si>
+    <t>PIN_RETRY_LIMIT</t>
+  </si>
+  <si>
+    <t>PLAN_TYPE</t>
+  </si>
+  <si>
+    <t>PLASTIC_ID</t>
+  </si>
+  <si>
+    <t>AUTOMATION PLASTIC CODE [AUT]</t>
+  </si>
+  <si>
+    <t>PREFERRED_MAILING_ADDRESS</t>
+  </si>
+  <si>
+    <t>Current [C]</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>Multi currency Mastercard [CMCM01]</t>
+  </si>
+  <si>
+    <t>PROGRAM_TYPE</t>
+  </si>
+  <si>
+    <t>Retail Travel Card - Multi Currency [2]</t>
+  </si>
+  <si>
+    <t>PSP_PERIOD</t>
+  </si>
+  <si>
+    <t>PSP_SUPPRESS_IF_NO_ACTIVITY</t>
+  </si>
+  <si>
+    <t>PSPD_BILLING_DAY</t>
+  </si>
+  <si>
+    <t>PSPD_GENERATION_STATUS</t>
+  </si>
+  <si>
+    <t>Active [0]</t>
+  </si>
+  <si>
+    <t>PSPD_PRINT_DAY</t>
+  </si>
+  <si>
+    <t>PSPD_TO_LOT</t>
+  </si>
+  <si>
+    <t>QUANTITY_ORDERED</t>
+  </si>
+  <si>
+    <t>QUANTITY_TO_DISPATCH</t>
+  </si>
+  <si>
+    <t>REFUND_IN_CURRENCY</t>
+  </si>
+  <si>
+    <t>Program [P]</t>
+  </si>
+  <si>
+    <t>RENEWAL_ACTIVATION_MODE</t>
+  </si>
+  <si>
+    <t>REPLACEMENT_DEVICE_TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>REPLACEMENT_NO_OF_DAYS</t>
+  </si>
+  <si>
+    <t>ROUTING_TYPE</t>
+  </si>
+  <si>
+    <t>Device Range Based [D]</t>
+  </si>
+  <si>
+    <t>SELECT_ALL_CAVV</t>
+  </si>
+  <si>
+    <t>SELECT_ALL_CVCCVV</t>
+  </si>
+  <si>
+    <t>SELECT_ALL_PIN_VALIDATION</t>
+  </si>
+  <si>
+    <t>SEQUENTIAL_INDICATOR</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>STAND_IN_AMOUNT</t>
+  </si>
+  <si>
+    <t>STAND_IN_RESPONSE</t>
+  </si>
+  <si>
+    <t>START_MONTH_FOR_YEARLY_LIMITS</t>
+  </si>
+  <si>
+    <t>SUB_APPLICATION_TYPE</t>
+  </si>
+  <si>
+    <t>TABLE_FIRST_RECORD_FIELD</t>
+  </si>
+  <si>
+    <t>BIN [1]</t>
+  </si>
+  <si>
+    <t>TABLE_FIRST_RECORD_FIELD_CARDPACKID_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Program Code [8]</t>
+  </si>
+  <si>
+    <t>TABLE_FIRST_RECORD_LENGTH</t>
+  </si>
+  <si>
+    <t>TABLE_LAST_RECORD_CUSTOM_FIELD_VALUE_1</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>TABLE_LAST_RECORD_CUSTOM_FIELD_VALUE_2</t>
+  </si>
+  <si>
+    <t>TABLE_LAST_RECORD_LENGTH</t>
+  </si>
+  <si>
+    <t>TABLE_SECOND_RECORD_FIELD</t>
+  </si>
+  <si>
+    <t>Sequence number [4]</t>
+  </si>
+  <si>
+    <t>TABLE_SECOND_RECORD_LENGTH</t>
+  </si>
+  <si>
+    <t>TEMPLATE_LENGTH</t>
+  </si>
+  <si>
+    <t>TEMPLATE_TYPE_CARDPACKID</t>
+  </si>
+  <si>
+    <t>Card Pack ID Template [C]</t>
+  </si>
+  <si>
+    <t>TEMPLATE_TYPE_DEVICE</t>
+  </si>
+  <si>
+    <t>Device Template [D]</t>
+  </si>
+  <si>
+    <t>TEMPLATE_TYPE_PRIORITY_PASSID</t>
+  </si>
+  <si>
+    <t>Priority Pass ID [P]</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Mr. [1]</t>
+  </si>
+  <si>
+    <t>TP_ASSIGNED_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>TRANSACTION_CHANNEL</t>
+  </si>
+  <si>
+    <t>All [~]</t>
+  </si>
+  <si>
+    <t>TRANSACTION_LIMIT_PLAN</t>
+  </si>
+  <si>
+    <t>test field [TESTF]</t>
+  </si>
+  <si>
+    <t>TRANSACTION_ORIGIN</t>
+  </si>
+  <si>
+    <t>Both [~]</t>
+  </si>
+  <si>
+    <t>TRANSACTION_SOURCE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>Account Funding [AF]</t>
+  </si>
+  <si>
+    <t>UNPAID_DATE</t>
+  </si>
+  <si>
+    <t>USAGE</t>
+  </si>
+  <si>
+    <t>USER_INSTITUTION_DEFAULT</t>
+  </si>
+  <si>
+    <t>AUTO [121212]</t>
+  </si>
+  <si>
+    <t>VALIDITY_ON_INITIAL_MONTHS</t>
+  </si>
+  <si>
+    <t>VALIDITY_ON_RENEWAL_MONTHS</t>
+  </si>
+  <si>
+    <t>VALIDITY_ON_REPLACEMENT_MONTHS</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>DOCUMENT_1_TYPE</t>
+  </si>
+  <si>
+    <t>CS_SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>Activate Device [108]</t>
+  </si>
+  <si>
+    <t>APPLICANT_PROFESSION</t>
+  </si>
+  <si>
+    <t>Architect [0]</t>
+  </si>
+  <si>
+    <t>MANDATORY_FIELDS</t>
+  </si>
+  <si>
+    <t>APPLICANT_PROF</t>
+  </si>
+  <si>
+    <t>CBS_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>NO_OF_CURRENCY_ALLOWED</t>
+  </si>
+  <si>
+    <t>WALLET_TO_WALLET_TRANSFER_TYPE</t>
+  </si>
+  <si>
+    <t>Direct [D]</t>
+  </si>
+  <si>
+    <t>Reference Currency [R]</t>
+  </si>
+  <si>
+    <t>REFERENCE_CURRENCY</t>
+  </si>
+  <si>
+    <t>CURRENCY_WITH_PRIORITY</t>
+  </si>
+  <si>
+    <t>USD:02,EUR:03</t>
+  </si>
+  <si>
+    <t>Currency:Priority - To send muliple values use comma to separate data - example - USD:02,EUR:03</t>
+  </si>
+  <si>
+    <t>BDR_CORPORATE_CLIENT_CODE</t>
+  </si>
+  <si>
+    <t>Test Auto [12121217222000001]</t>
+  </si>
+  <si>
+    <t>BDR_DEVICE_PROMOTION_PLAN</t>
+  </si>
+  <si>
+    <t>BDR_DUMMY_ACCOUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>BDR_EMBOSSING_LINE_4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>BDR_EMBOSSING_NAME</t>
+  </si>
+  <si>
+    <t>BDR_QUANTITY_REQUESTED</t>
+  </si>
+  <si>
+    <t>BDR_WALLET_PROMOTION_PLAN1</t>
+  </si>
+  <si>
+    <t>CURRENCY_SETUP_SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>Currency Setup [312]</t>
+  </si>
+  <si>
+    <t>HD_CURRENCY_WITH_PRIORITY</t>
+  </si>
+  <si>
+    <t>USD [840]:2 [2],EUR [978]:3 [3]</t>
+  </si>
+  <si>
+    <t>PGM_CALENDER_START_MONTH</t>
+  </si>
+  <si>
+    <t>PGM_KYC_LIMITS_MAX_BAL_WO_KYC</t>
+  </si>
+  <si>
+    <t>PGM_KYC_LIMITS_NO_OF_LOADS_ALLOWED_WO_KYC</t>
+  </si>
+  <si>
+    <t>ND_OTHERINFO_FAX_NO</t>
+  </si>
+  <si>
+    <t>ND_OTHERINFO_STATEMENT_PREFERENCE</t>
+  </si>
+  <si>
+    <t>Email [E]</t>
+  </si>
+  <si>
+    <t>ND_VIP</t>
+  </si>
+  <si>
+    <t>Normal [0]</t>
+  </si>
+  <si>
+    <t>ND_MIDDLE_NAME_2</t>
+  </si>
+  <si>
+    <t>ND_ENCODED_NAME</t>
+  </si>
+  <si>
+    <t>FINSIM_CARD_LENGTH</t>
+  </si>
+  <si>
+    <t>FINSIM_PAD</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FINSIM_PIN_LENGHT</t>
+  </si>
+  <si>
+    <t>FINSIM_VALIDATION_DATA_START</t>
+  </si>
+  <si>
+    <t>ADJUSTMENT_TYPE</t>
+  </si>
+  <si>
+    <t>Miscellaneous Credit [71]</t>
+  </si>
+  <si>
+    <t>MANDATORY_FIELDS_FIELD_NAME</t>
+  </si>
+  <si>
+    <t>DATE_TYPE</t>
+  </si>
+  <si>
+    <t>Transaction Date [T]</t>
+  </si>
+  <si>
+    <t>INITIAL_LOAD_TXN_DETAILS</t>
+  </si>
+  <si>
+    <t>INR [356]:10.00:INR [356]</t>
+  </si>
+  <si>
+    <t>PROGRAM_WISE_BALANCE_SUMMARY</t>
+  </si>
+  <si>
+    <t>Program Wise Balance Summary Report</t>
+  </si>
+  <si>
+    <t>BATCH_NAME</t>
+  </si>
+  <si>
+    <t>Transaction Upload [TRANSACTION_UPLOAD]</t>
+  </si>
+  <si>
+    <t>BATCH_TYPE</t>
+  </si>
+  <si>
+    <t>UPLOAD [U]</t>
+  </si>
+  <si>
+    <t>BATCH_NAME_PRE_CLEARING</t>
+  </si>
+  <si>
+    <t>Pre-clearing</t>
+  </si>
+  <si>
+    <t>BATCH_NAME_PREPAID_EOD</t>
+  </si>
+  <si>
+    <t>EOD-Prepaid</t>
+  </si>
+  <si>
+    <t>PREPAID_PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>ALL_TRANSACTIONS_REPORT</t>
+  </si>
+  <si>
+    <t>All Transactions Report</t>
+  </si>
+  <si>
+    <t>FILE_TYPE_REPORT</t>
+  </si>
+  <si>
+    <t>Excel Format [xlsDump]</t>
+  </si>
+  <si>
+    <t>PROGRAM_TRANSACTION_SUMMARY</t>
+  </si>
+  <si>
+    <t>Authorization Report</t>
+  </si>
+  <si>
+    <t>AUTOAGNC002 [AGNC002]</t>
+  </si>
+  <si>
+    <t>AUTOAGNC002</t>
+  </si>
+  <si>
+    <t>AUTOAGNT008 [AGNT008]</t>
+  </si>
+  <si>
+    <t>AUTOBRNCH002 [BRNCH002]</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +2171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,8 +2195,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,8 +2221,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1530,12 +2336,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1604,6 +2462,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1915,20 +2805,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +3009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +3196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2489,334 +3379,75 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>275</v>
+      <c r="C1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>302</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K2" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="N2" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O2" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>303</v>
+        <v>259</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>123456</v>
-      </c>
-      <c r="K3" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="N3" s="11">
-        <v>123461</v>
-      </c>
-      <c r="O3" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>123456</v>
-      </c>
-      <c r="K4" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="11">
-        <v>123461</v>
-      </c>
-      <c r="O4" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K5" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="N5" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O5" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>123459</v>
-      </c>
-      <c r="K6" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="N6" s="11">
-        <v>123460</v>
-      </c>
-      <c r="O6" s="11">
-        <v>11111111111</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>294</v>
+        <v>263</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2826,24 +3457,715 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8520</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="9">
+        <v>16</v>
+      </c>
+      <c r="V2" s="9">
+        <v>16</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW2" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
+    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K2" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O2" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="N3" s="11">
+        <v>123461</v>
+      </c>
+      <c r="O3" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>123456</v>
+      </c>
+      <c r="K4" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="11">
+        <v>123461</v>
+      </c>
+      <c r="O4" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N5" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O5" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>123459</v>
+      </c>
+      <c r="K6" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6" s="11">
+        <v>123460</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11111111111</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +4185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>390</v>
       </c>
@@ -2883,7 +4205,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>391</v>
       </c>
@@ -2903,7 +4225,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>398</v>
       </c>
@@ -2923,7 +4245,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>392</v>
       </c>
@@ -2943,7 +4265,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>393</v>
       </c>
@@ -2963,7 +4285,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>394</v>
       </c>
@@ -2983,7 +4305,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>395</v>
       </c>
@@ -3008,7 +4330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3016,26 +4338,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +4405,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>318</v>
       </c>
@@ -3125,17 +4448,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3145,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3153,24 +4476,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.21875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.77734375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +4540,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>335</v>
       </c>
@@ -3258,7 +4581,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>341</v>
       </c>
@@ -3304,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3312,20 +4635,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3360,7 +4683,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>346</v>
       </c>
@@ -3412,26 +4735,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+    <sheetView topLeftCell="CI1" workbookViewId="0">
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +5108,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -4112,7 +5435,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -4391,7 +5714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -4670,7 +5993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -4949,7 +6272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -5228,7 +6551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -5509,7 +6832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -5790,7 +7113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -5799,7 +7122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -5808,7 +7131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -5817,502 +7140,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -6323,23 +7646,2985 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" s="2">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B82" s="2">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B84" s="2">
+        <v>25</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B90" s="2">
+        <v>201</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="2">
+        <v>6</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B100" s="2">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B103" s="2">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B121" s="2">
+        <v>411006</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B133" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>666</v>
+      </c>
+      <c r="B139" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>668</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>669</v>
+      </c>
+      <c r="B141">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="B143" s="42">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="B144" s="43" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>674</v>
+      </c>
+      <c r="B145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="B146" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="44" t="s">
+        <v>677</v>
+      </c>
+      <c r="B147" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B148" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="B149" s="45" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="B150" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="B151" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>686</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>688</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>690</v>
+      </c>
+      <c r="B157" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="B158" s="52" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="B159" s="52" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>698</v>
+      </c>
+      <c r="B161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>700</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>701</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>703</v>
+      </c>
+      <c r="B164" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>705</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>686</v>
+      </c>
+      <c r="B166" s="50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C166"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:C166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" s="2">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B82" s="2">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B84" s="2">
+        <v>25</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B90" s="2">
+        <v>201</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="2">
+        <v>6</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" s="2">
+        <v>9999999999</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B100" s="2">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B103" s="2">
+        <v>16</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B121" s="2">
+        <v>411006</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B133" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>666</v>
+      </c>
+      <c r="B139" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>668</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>669</v>
+      </c>
+      <c r="B141">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>670</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="B143" s="42">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="B144" s="43" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>674</v>
+      </c>
+      <c r="B145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="B146" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="44" t="s">
+        <v>677</v>
+      </c>
+      <c r="B147" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B148" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="B149" s="45" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="45" t="s">
+        <v>681</v>
+      </c>
+      <c r="B150" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="B151" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>686</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>688</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>690</v>
+      </c>
+      <c r="B157" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="B158" s="52" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="51" t="s">
+        <v>694</v>
+      </c>
+      <c r="B159" s="52" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>698</v>
+      </c>
+      <c r="B161" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>700</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>701</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>703</v>
+      </c>
+      <c r="B164" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>705</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>686</v>
+      </c>
+      <c r="B166" s="50" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6374,7 +10659,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -6401,7 +10686,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -6432,7 +10717,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -6453,7 +10738,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -6481,7 +10766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R6"/>
   <sheetViews>
@@ -6489,19 +10774,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +10837,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -6603,7 +10888,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -6654,7 +10939,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -6705,7 +10990,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -6756,7 +11041,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -6806,157 +11091,6 @@
         <v>294</v>
       </c>
       <c r="R6" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1888887</v>
-      </c>
-      <c r="H2" s="11">
-        <v>55554</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>266</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6965,16 +11099,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6991,75 +11126,47 @@
         <v>256</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="2">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -7069,18 +11176,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7088,56 +11193,54 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>261</v>
+      <c r="E2" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1888887</v>
+      </c>
+      <c r="H2" s="11">
+        <v>55554</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7147,354 +11250,104 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" s="9">
-        <v>8520</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="9">
-        <v>16</v>
-      </c>
-      <c r="V2" s="9">
-        <v>16</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AN2" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW2" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>386</v>
+      <c r="C1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,32 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
     <sheet name="S205014" sheetId="2" r:id="rId2"/>
-    <sheet name="EMV_LOAD_BALANCE_AGENCY_FUNDED" sheetId="16" r:id="rId3"/>
-    <sheet name="EMV_LOAD_BALANCE_AGENCY_NONFUND" sheetId="17" r:id="rId4"/>
-    <sheet name="S205000" sheetId="3" r:id="rId5"/>
-    <sheet name="S205009" sheetId="6" r:id="rId6"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId7"/>
-    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId8"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId9"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId10"/>
-    <sheet name="Institute" sheetId="5" r:id="rId11"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId12"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId14"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId15"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId16"/>
+    <sheet name="S205000" sheetId="3" r:id="rId3"/>
+    <sheet name="S205009" sheetId="6" r:id="rId4"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
+    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
+    <sheet name="Institute" sheetId="5" r:id="rId9"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="457">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1400,768 +1398,6 @@
   </si>
   <si>
     <t>March/10/2050</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>TRANSACTION_DETAILS</t>
-  </si>
-  <si>
-    <t>INR [356]:10.00:INR [356],USD [840]:5.00:USD [840]</t>
-  </si>
-  <si>
-    <t>WalletCurrency:Amount:TransactionCurrency, &lt;next values&gt;</t>
-  </si>
-  <si>
-    <t>PAYMENT_MODE</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_VERIFIED</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>ACTIVATION_CODE</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>ADVANCE_RENEWAL_REPORT</t>
-  </si>
-  <si>
-    <t>AGENCY</t>
-  </si>
-  <si>
-    <t>AUTOAGNC001 [AGNC001]</t>
-  </si>
-  <si>
-    <t>AGENCY_ID</t>
-  </si>
-  <si>
-    <t>AUTOAGNC001</t>
-  </si>
-  <si>
-    <t>AGENT_ID</t>
-  </si>
-  <si>
-    <t>AUTOAGNT007 [AGNT007]</t>
-  </si>
-  <si>
-    <t>APPLICATION_TYPE</t>
-  </si>
-  <si>
-    <t>ASSOCIATION</t>
-  </si>
-  <si>
-    <t>MASTERCARD [02]</t>
-  </si>
-  <si>
-    <t>AUTO_RENEWAL_DAYS</t>
-  </si>
-  <si>
-    <t>BRANCH</t>
-  </si>
-  <si>
-    <t>auto branch [1000]</t>
-  </si>
-  <si>
-    <t>BRANCH_ID</t>
-  </si>
-  <si>
-    <t>AUTOBRNCH001 [BRNCH001]</t>
-  </si>
-  <si>
-    <t>CALENDAR_START_MONTH</t>
-  </si>
-  <si>
-    <t>Mar [03]</t>
-  </si>
-  <si>
-    <t>CARD_PACKID_GENERATION_TEMPLATE</t>
-  </si>
-  <si>
-    <t>AUTOMATION [PAN042]</t>
-  </si>
-  <si>
-    <t>CARD_PRODUCTION</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>CEILING_AMOUNT</t>
-  </si>
-  <si>
-    <t>CEILING_RESPONSE</t>
-  </si>
-  <si>
-    <t>Decline [1]</t>
-  </si>
-  <si>
-    <t>CHIP_TYPE</t>
-  </si>
-  <si>
-    <t>MChip [02]</t>
-  </si>
-  <si>
-    <t>CORPORATE_CLIENT_CODE</t>
-  </si>
-  <si>
-    <t>Automation [12121217222000002]</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>COURIER_AGENCY</t>
-  </si>
-  <si>
-    <t>DTDC [C0000005]</t>
-  </si>
-  <si>
-    <t>CREATE_OPEN_BATCH</t>
-  </si>
-  <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
-    <t>CURRENCY_CONVERSION_BY</t>
-  </si>
-  <si>
-    <t>CURRENT_ADDRESS_LINE_1</t>
-  </si>
-  <si>
-    <t>Current Address</t>
-  </si>
-  <si>
-    <t>CUSTOMER_TYPE</t>
-  </si>
-  <si>
-    <t>DAILY_AMOUNT</t>
-  </si>
-  <si>
-    <t>DAILY_RESPONSE</t>
-  </si>
-  <si>
-    <t>DELIVERY_MODE</t>
-  </si>
-  <si>
-    <t>Branch [0]</t>
-  </si>
-  <si>
-    <t>DEVICE_CUSTOMER_TYPE</t>
-  </si>
-  <si>
-    <t>DEVICE_ID_GENERATION_TEMPLATE</t>
-  </si>
-  <si>
-    <t>AUTOMATION [PAN019]</t>
-  </si>
-  <si>
-    <t>DEVICE_PLAN_CODE</t>
-  </si>
-  <si>
-    <t>Corp Multicurrency travel card [CMTC01]</t>
-  </si>
-  <si>
-    <t>DEVICE_TYPE</t>
-  </si>
-  <si>
-    <t>DJMP_FEE_TYPE</t>
-  </si>
-  <si>
-    <t>Joining/Issuance Fee [I]</t>
-  </si>
-  <si>
-    <t>DJMP_POST_ISSUANCE_FEE_ON</t>
-  </si>
-  <si>
-    <t>Sale [S]</t>
-  </si>
-  <si>
-    <t>DR_STATUS</t>
-  </si>
-  <si>
-    <t>EMBOSSING_VENDOR</t>
-  </si>
-  <si>
-    <t>AUTOMATION PERS BUREAU [AUTOBU]</t>
-  </si>
-  <si>
-    <t>EMV_ABOVE_ATC_RANGE</t>
-  </si>
-  <si>
-    <t>EMV_BELOW_ATC_RANGE</t>
-  </si>
-  <si>
-    <t>EMV_PLAN_RESPONSE</t>
-  </si>
-  <si>
-    <t>END_POINT_MODE</t>
-  </si>
-  <si>
-    <t>Host [H]</t>
-  </si>
-  <si>
-    <t>EXPIRY_FLAG</t>
-  </si>
-  <si>
-    <t>Variable [V]</t>
-  </si>
-  <si>
-    <t>FEE_TYPE</t>
-  </si>
-  <si>
-    <t>Maintenance [A]</t>
-  </si>
-  <si>
-    <t>FIELD_NAME</t>
-  </si>
-  <si>
-    <t>Maiden Name [MAIDEN_NAME]</t>
-  </si>
-  <si>
-    <t>FILL_EMV_PLAN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>FILL_RENEWAL_SECTION</t>
-  </si>
-  <si>
-    <t>FILL_REPLACEMENT_SECTION</t>
-  </si>
-  <si>
-    <t>FLOOR_AMOUNT</t>
-  </si>
-  <si>
-    <t>FLOOR_RESPONSE</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>Male [M]</t>
-  </si>
-  <si>
-    <t>INTERCHANGE</t>
-  </si>
-  <si>
-    <t>INTERFACE_NAME</t>
-  </si>
-  <si>
-    <t>CBS1 [CBS1]</t>
-  </si>
-  <si>
-    <t>ISSUER_BIN</t>
-  </si>
-  <si>
-    <t>automation prepaid card [588765]</t>
-  </si>
-  <si>
-    <t>LANGUAGE_PREFERENCE</t>
-  </si>
-  <si>
-    <t>LEGAL_ID</t>
-  </si>
-  <si>
-    <t>MARITAL_STATUS</t>
-  </si>
-  <si>
-    <t>MEMBERSHIP_FEE_POSTING</t>
-  </si>
-  <si>
-    <t>Monthly [M]</t>
-  </si>
-  <si>
-    <t>MOBILE_NUMBER</t>
-  </si>
-  <si>
-    <t>PAYMENT_DATE</t>
-  </si>
-  <si>
-    <t>Next Month [8]</t>
-  </si>
-  <si>
-    <t>PICTURE_CODE</t>
-  </si>
-  <si>
-    <t>AUTOMATION PICTURE CODE [AUT]</t>
-  </si>
-  <si>
-    <t>PIN_DATA_TRANSMISSION</t>
-  </si>
-  <si>
-    <t>File [F]</t>
-  </si>
-  <si>
-    <t>PIN_GENERATION_OPTION</t>
-  </si>
-  <si>
-    <t>Random PIN [1]</t>
-  </si>
-  <si>
-    <t>PIN_LENGTH</t>
-  </si>
-  <si>
-    <t>PIN_RETRY_LIMIT</t>
-  </si>
-  <si>
-    <t>PLAN_TYPE</t>
-  </si>
-  <si>
-    <t>PLASTIC_ID</t>
-  </si>
-  <si>
-    <t>AUTOMATION PLASTIC CODE [AUT]</t>
-  </si>
-  <si>
-    <t>PREFERRED_MAILING_ADDRESS</t>
-  </si>
-  <si>
-    <t>Current [C]</t>
-  </si>
-  <si>
-    <t>PRODUCT_TYPE</t>
-  </si>
-  <si>
-    <t>PROGRAM</t>
-  </si>
-  <si>
-    <t>Multi currency Mastercard [CMCM01]</t>
-  </si>
-  <si>
-    <t>PROGRAM_TYPE</t>
-  </si>
-  <si>
-    <t>Retail Travel Card - Multi Currency [2]</t>
-  </si>
-  <si>
-    <t>PSP_PERIOD</t>
-  </si>
-  <si>
-    <t>PSP_SUPPRESS_IF_NO_ACTIVITY</t>
-  </si>
-  <si>
-    <t>PSPD_BILLING_DAY</t>
-  </si>
-  <si>
-    <t>PSPD_GENERATION_STATUS</t>
-  </si>
-  <si>
-    <t>Active [0]</t>
-  </si>
-  <si>
-    <t>PSPD_PRINT_DAY</t>
-  </si>
-  <si>
-    <t>PSPD_TO_LOT</t>
-  </si>
-  <si>
-    <t>QUANTITY_ORDERED</t>
-  </si>
-  <si>
-    <t>QUANTITY_TO_DISPATCH</t>
-  </si>
-  <si>
-    <t>REFUND_IN_CURRENCY</t>
-  </si>
-  <si>
-    <t>Program [P]</t>
-  </si>
-  <si>
-    <t>RENEWAL_ACTIVATION_MODE</t>
-  </si>
-  <si>
-    <t>REPLACEMENT_DEVICE_TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>REPLACEMENT_NO_OF_DAYS</t>
-  </si>
-  <si>
-    <t>ROUTING_TYPE</t>
-  </si>
-  <si>
-    <t>Device Range Based [D]</t>
-  </si>
-  <si>
-    <t>SELECT_ALL_CAVV</t>
-  </si>
-  <si>
-    <t>SELECT_ALL_CVCCVV</t>
-  </si>
-  <si>
-    <t>SELECT_ALL_PIN_VALIDATION</t>
-  </si>
-  <si>
-    <t>SEQUENTIAL_INDICATOR</t>
-  </si>
-  <si>
-    <t>Sequential</t>
-  </si>
-  <si>
-    <t>SERVICE_CODE</t>
-  </si>
-  <si>
-    <t>STAND_IN_AMOUNT</t>
-  </si>
-  <si>
-    <t>STAND_IN_RESPONSE</t>
-  </si>
-  <si>
-    <t>START_MONTH_FOR_YEARLY_LIMITS</t>
-  </si>
-  <si>
-    <t>SUB_APPLICATION_TYPE</t>
-  </si>
-  <si>
-    <t>TABLE_FIRST_RECORD_FIELD</t>
-  </si>
-  <si>
-    <t>BIN [1]</t>
-  </si>
-  <si>
-    <t>TABLE_FIRST_RECORD_FIELD_CARDPACKID_TEMPLATE</t>
-  </si>
-  <si>
-    <t>Program Code [8]</t>
-  </si>
-  <si>
-    <t>TABLE_FIRST_RECORD_LENGTH</t>
-  </si>
-  <si>
-    <t>TABLE_LAST_RECORD_CUSTOM_FIELD_VALUE_1</t>
-  </si>
-  <si>
-    <t>0000000000</t>
-  </si>
-  <si>
-    <t>TABLE_LAST_RECORD_CUSTOM_FIELD_VALUE_2</t>
-  </si>
-  <si>
-    <t>TABLE_LAST_RECORD_LENGTH</t>
-  </si>
-  <si>
-    <t>TABLE_SECOND_RECORD_FIELD</t>
-  </si>
-  <si>
-    <t>Sequence number [4]</t>
-  </si>
-  <si>
-    <t>TABLE_SECOND_RECORD_LENGTH</t>
-  </si>
-  <si>
-    <t>TEMPLATE_LENGTH</t>
-  </si>
-  <si>
-    <t>TEMPLATE_TYPE_CARDPACKID</t>
-  </si>
-  <si>
-    <t>Card Pack ID Template [C]</t>
-  </si>
-  <si>
-    <t>TEMPLATE_TYPE_DEVICE</t>
-  </si>
-  <si>
-    <t>Device Template [D]</t>
-  </si>
-  <si>
-    <t>TEMPLATE_TYPE_PRIORITY_PASSID</t>
-  </si>
-  <si>
-    <t>Priority Pass ID [P]</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>Mr. [1]</t>
-  </si>
-  <si>
-    <t>TP_ASSIGNED_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>TRANSACTION_AMOUNT</t>
-  </si>
-  <si>
-    <t>TRANSACTION_CHANNEL</t>
-  </si>
-  <si>
-    <t>All [~]</t>
-  </si>
-  <si>
-    <t>TRANSACTION_LIMIT_PLAN</t>
-  </si>
-  <si>
-    <t>test field [TESTF]</t>
-  </si>
-  <si>
-    <t>TRANSACTION_ORIGIN</t>
-  </si>
-  <si>
-    <t>Both [~]</t>
-  </si>
-  <si>
-    <t>TRANSACTION_SOURCE</t>
-  </si>
-  <si>
-    <t>TRANSACTION_TYPE</t>
-  </si>
-  <si>
-    <t>Account Funding [AF]</t>
-  </si>
-  <si>
-    <t>UNPAID_DATE</t>
-  </si>
-  <si>
-    <t>USAGE</t>
-  </si>
-  <si>
-    <t>USER_INSTITUTION_DEFAULT</t>
-  </si>
-  <si>
-    <t>AUTO [121212]</t>
-  </si>
-  <si>
-    <t>VALIDITY_ON_INITIAL_MONTHS</t>
-  </si>
-  <si>
-    <t>VALIDITY_ON_RENEWAL_MONTHS</t>
-  </si>
-  <si>
-    <t>VALIDITY_ON_REPLACEMENT_MONTHS</t>
-  </si>
-  <si>
-    <t>POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>DOCUMENT_1_TYPE</t>
-  </si>
-  <si>
-    <t>CS_SERVICE_CODE</t>
-  </si>
-  <si>
-    <t>Activate Device [108]</t>
-  </si>
-  <si>
-    <t>APPLICANT_PROFESSION</t>
-  </si>
-  <si>
-    <t>Architect [0]</t>
-  </si>
-  <si>
-    <t>MANDATORY_FIELDS</t>
-  </si>
-  <si>
-    <t>APPLICANT_PROF</t>
-  </si>
-  <si>
-    <t>CBS_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>NO_OF_CURRENCY_ALLOWED</t>
-  </si>
-  <si>
-    <t>WALLET_TO_WALLET_TRANSFER_TYPE</t>
-  </si>
-  <si>
-    <t>Direct [D]</t>
-  </si>
-  <si>
-    <t>Reference Currency [R]</t>
-  </si>
-  <si>
-    <t>REFERENCE_CURRENCY</t>
-  </si>
-  <si>
-    <t>CURRENCY_WITH_PRIORITY</t>
-  </si>
-  <si>
-    <t>USD:02,EUR:03</t>
-  </si>
-  <si>
-    <t>Currency:Priority - To send muliple values use comma to separate data - example - USD:02,EUR:03</t>
-  </si>
-  <si>
-    <t>BDR_CORPORATE_CLIENT_CODE</t>
-  </si>
-  <si>
-    <t>Test Auto [12121217222000001]</t>
-  </si>
-  <si>
-    <t>BDR_DEVICE_PROMOTION_PLAN</t>
-  </si>
-  <si>
-    <t>BDR_DUMMY_ACCOUNT_NUMBER</t>
-  </si>
-  <si>
-    <t>BDR_EMBOSSING_LINE_4</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>BDR_EMBOSSING_NAME</t>
-  </si>
-  <si>
-    <t>BDR_QUANTITY_REQUESTED</t>
-  </si>
-  <si>
-    <t>BDR_WALLET_PROMOTION_PLAN1</t>
-  </si>
-  <si>
-    <t>CURRENCY_SETUP_SERVICE_CODE</t>
-  </si>
-  <si>
-    <t>Currency Setup [312]</t>
-  </si>
-  <si>
-    <t>HD_CURRENCY_WITH_PRIORITY</t>
-  </si>
-  <si>
-    <t>USD [840]:2 [2],EUR [978]:3 [3]</t>
-  </si>
-  <si>
-    <t>PGM_CALENDER_START_MONTH</t>
-  </si>
-  <si>
-    <t>PGM_KYC_LIMITS_MAX_BAL_WO_KYC</t>
-  </si>
-  <si>
-    <t>PGM_KYC_LIMITS_NO_OF_LOADS_ALLOWED_WO_KYC</t>
-  </si>
-  <si>
-    <t>ND_OTHERINFO_FAX_NO</t>
-  </si>
-  <si>
-    <t>ND_OTHERINFO_STATEMENT_PREFERENCE</t>
-  </si>
-  <si>
-    <t>Email [E]</t>
-  </si>
-  <si>
-    <t>ND_VIP</t>
-  </si>
-  <si>
-    <t>Normal [0]</t>
-  </si>
-  <si>
-    <t>ND_MIDDLE_NAME_2</t>
-  </si>
-  <si>
-    <t>ND_ENCODED_NAME</t>
-  </si>
-  <si>
-    <t>FINSIM_CARD_LENGTH</t>
-  </si>
-  <si>
-    <t>FINSIM_PAD</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>FINSIM_PIN_LENGHT</t>
-  </si>
-  <si>
-    <t>FINSIM_VALIDATION_DATA_START</t>
-  </si>
-  <si>
-    <t>ADJUSTMENT_TYPE</t>
-  </si>
-  <si>
-    <t>Miscellaneous Credit [71]</t>
-  </si>
-  <si>
-    <t>MANDATORY_FIELDS_FIELD_NAME</t>
-  </si>
-  <si>
-    <t>DATE_TYPE</t>
-  </si>
-  <si>
-    <t>Transaction Date [T]</t>
-  </si>
-  <si>
-    <t>INITIAL_LOAD_TXN_DETAILS</t>
-  </si>
-  <si>
-    <t>INR [356]:10.00:INR [356]</t>
-  </si>
-  <si>
-    <t>PROGRAM_WISE_BALANCE_SUMMARY</t>
-  </si>
-  <si>
-    <t>Program Wise Balance Summary Report</t>
-  </si>
-  <si>
-    <t>BATCH_NAME</t>
-  </si>
-  <si>
-    <t>Transaction Upload [TRANSACTION_UPLOAD]</t>
-  </si>
-  <si>
-    <t>BATCH_TYPE</t>
-  </si>
-  <si>
-    <t>UPLOAD [U]</t>
-  </si>
-  <si>
-    <t>BATCH_NAME_PRE_CLEARING</t>
-  </si>
-  <si>
-    <t>Pre-clearing</t>
-  </si>
-  <si>
-    <t>BATCH_NAME_PREPAID_EOD</t>
-  </si>
-  <si>
-    <t>EOD-Prepaid</t>
-  </si>
-  <si>
-    <t>PREPAID_PRODUCT_TYPE</t>
-  </si>
-  <si>
-    <t>ALL_TRANSACTIONS_REPORT</t>
-  </si>
-  <si>
-    <t>All Transactions Report</t>
-  </si>
-  <si>
-    <t>FILE_TYPE_REPORT</t>
-  </si>
-  <si>
-    <t>Excel Format [xlsDump]</t>
-  </si>
-  <si>
-    <t>PROGRAM_TRANSACTION_SUMMARY</t>
-  </si>
-  <si>
-    <t>Authorization Report</t>
-  </si>
-  <si>
-    <t>AUTOAGNC002 [AGNC002]</t>
-  </si>
-  <si>
-    <t>AUTOAGNC002</t>
-  </si>
-  <si>
-    <t>AUTOAGNT008 [AGNT008]</t>
-  </si>
-  <si>
-    <t>AUTOBRNCH002 [BRNCH002]</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +1407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2195,20 +1431,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2221,38 +1445,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2336,64 +1530,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2462,38 +1604,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3379,438 +2489,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" s="9">
-        <v>8520</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="9">
-        <v>16</v>
-      </c>
-      <c r="V2" s="9">
-        <v>16</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AN2" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW2" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4146,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4330,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -4468,7 +3146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -4627,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -7646,2971 +6324,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="C2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B29" s="2">
-        <v>500000</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B41" s="2">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B50" s="2">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1234</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B60" s="2">
-        <v>9999999999</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B77" s="2">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B78" s="2">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B82" s="2">
-        <v>110</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B84" s="2">
-        <v>25</v>
-      </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B90" s="2">
-        <v>201</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B97" s="2">
-        <v>6</v>
-      </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B99" s="2">
-        <v>9999999999</v>
-      </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B100" s="2">
-        <v>10</v>
-      </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B102" s="2">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B103" s="2">
-        <v>16</v>
-      </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B118" s="2">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B119" s="2">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B120" s="2">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B121" s="2">
-        <v>411006</v>
-      </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B126" s="2">
-        <v>5</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B133" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>666</v>
-      </c>
-      <c r="B139" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>668</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>669</v>
-      </c>
-      <c r="B141">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>670</v>
-      </c>
-      <c r="B142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="B143" s="42">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="B144" s="43" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>674</v>
-      </c>
-      <c r="B145" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="B146" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="44" t="s">
-        <v>677</v>
-      </c>
-      <c r="B147" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="B148" s="45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="B149" s="45" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="B150" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="B151" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="B153" s="49" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>686</v>
-      </c>
-      <c r="B155" s="50" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>688</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>690</v>
-      </c>
-      <c r="B157" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="B158" s="52" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="51" t="s">
-        <v>694</v>
-      </c>
-      <c r="B159" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>698</v>
-      </c>
-      <c r="B161" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>700</v>
-      </c>
-      <c r="B162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>701</v>
-      </c>
-      <c r="B163" s="53" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>703</v>
-      </c>
-      <c r="B164" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>705</v>
-      </c>
-      <c r="B165" s="53" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>686</v>
-      </c>
-      <c r="B166" s="50" t="s">
-        <v>687</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C166"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:C166"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="C2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="2">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B29" s="2">
-        <v>500000</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B41" s="2">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B50" s="2">
-        <v>100</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1234</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B60" s="2">
-        <v>9999999999</v>
-      </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B74" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B77" s="2">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B78" s="2">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B82" s="2">
-        <v>110</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B84" s="2">
-        <v>25</v>
-      </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B90" s="2">
-        <v>201</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B97" s="2">
-        <v>6</v>
-      </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B99" s="2">
-        <v>9999999999</v>
-      </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B100" s="2">
-        <v>10</v>
-      </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B102" s="2">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B103" s="2">
-        <v>16</v>
-      </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B118" s="2">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B119" s="2">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B120" s="2">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B121" s="2">
-        <v>411006</v>
-      </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B126" s="2">
-        <v>5</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B133" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>666</v>
-      </c>
-      <c r="B139" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>668</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>669</v>
-      </c>
-      <c r="B141">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>670</v>
-      </c>
-      <c r="B142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="B143" s="42">
-        <v>11111111111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="B144" s="43" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>674</v>
-      </c>
-      <c r="B145" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="B146" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="44" t="s">
-        <v>677</v>
-      </c>
-      <c r="B147" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="B148" s="45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="B149" s="45" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="B150" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="B151" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="48" t="s">
-        <v>640</v>
-      </c>
-      <c r="B153" s="49" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>686</v>
-      </c>
-      <c r="B155" s="50" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>688</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>690</v>
-      </c>
-      <c r="B157" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="B158" s="52" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="51" t="s">
-        <v>694</v>
-      </c>
-      <c r="B159" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>698</v>
-      </c>
-      <c r="B161" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>700</v>
-      </c>
-      <c r="B162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>701</v>
-      </c>
-      <c r="B163" s="53" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>703</v>
-      </c>
-      <c r="B164" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>705</v>
-      </c>
-      <c r="B165" s="53" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>686</v>
-      </c>
-      <c r="B166" s="50" t="s">
-        <v>687</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -10766,7 +6482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R6"/>
   <sheetViews>
@@ -11097,7 +6813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -11174,7 +6890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11248,7 +6964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -11350,4 +7066,436 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8520</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="9">
+        <v>16</v>
+      </c>
+      <c r="V2" s="9">
+        <v>16</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW2" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
+    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="6756" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,19 @@
     <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
     <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
     <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="UserJourney1" sheetId="16" r:id="rId10"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId11"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="468">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1398,6 +1399,39 @@
   </si>
   <si>
     <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>UserIDCreated</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>InstitutionCode</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>adaptiveEcomm</t>
+  </si>
+  <si>
+    <t>issuerSmsProvider</t>
+  </si>
+  <si>
+    <t>mpin</t>
+  </si>
+  <si>
+    <t>TC_UserJourney1</t>
+  </si>
+  <si>
+    <t>http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+  </si>
+  <si>
+    <t>INST</t>
+  </si>
+  <si>
+    <t>Collector [COL]</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1442,6 +1476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1604,6 +1644,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1915,20 +1956,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2489,18 +2530,371 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:61" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH1" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ1" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM1" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN1" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO1" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV1" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW1" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX1" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AY1" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ1" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA1" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="BB1" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD1" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="BE1" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="BF1" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="BG1" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="BH1" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="BI1" s="38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>16</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>1100440052</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>45665456</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="31">
+        <v>1113332</v>
+      </c>
+      <c r="AM2" s="31">
+        <v>23564589</v>
+      </c>
+      <c r="AN2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AS2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU2" s="31">
+        <v>411006</v>
+      </c>
+      <c r="AV2" s="31">
+        <v>124421</v>
+      </c>
+      <c r="AW2" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="AX2" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="AY2" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC2" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE2" s="31">
+        <v>5431267812</v>
+      </c>
+      <c r="BF2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="BG2" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH2" s="31">
+        <v>999</v>
+      </c>
+      <c r="BI2" s="31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2554,7 +2948,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -2607,7 +3001,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -2660,7 +3054,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -2713,7 +3107,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -2766,7 +3160,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -2824,7 +3218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2832,18 +3226,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +3257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>390</v>
       </c>
@@ -2883,7 +3277,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>391</v>
       </c>
@@ -2903,7 +3297,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>398</v>
       </c>
@@ -2923,7 +3317,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>392</v>
       </c>
@@ -2943,7 +3337,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>393</v>
       </c>
@@ -2963,7 +3357,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>394</v>
       </c>
@@ -2983,7 +3377,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>395</v>
       </c>
@@ -3008,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3016,27 +3410,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3083,7 +3477,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>318</v>
       </c>
@@ -3126,17 +3520,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3146,7 +3540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3154,24 +3548,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3612,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>335</v>
       </c>
@@ -3259,7 +3653,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>341</v>
       </c>
@@ -3305,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3313,20 +3707,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3361,7 +3755,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>346</v>
       </c>
@@ -3417,22 +3811,22 @@
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +4180,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -4113,7 +4507,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -4392,7 +4786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -4671,7 +5065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -4950,7 +5344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -5229,7 +5623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -5510,7 +5904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -5791,7 +6185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -5800,7 +6194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -5809,7 +6203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -5818,502 +6212,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -6326,21 +6720,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6375,7 +6769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -6402,7 +6796,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -6433,7 +6827,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -6454,7 +6848,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -6490,19 +6884,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6553,7 +6947,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -6604,7 +6998,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -6655,7 +7049,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -6706,7 +7100,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -6757,7 +7151,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -6819,13 +7213,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6845,7 +7239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -6865,7 +7259,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -6896,12 +7290,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6930,7 +7324,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -6970,12 +7364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6998,7 +7392,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -7021,7 +7415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -7042,7 +7436,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -7074,14 +7468,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7101,7 +7495,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -7121,7 +7515,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -7150,39 +7544,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7343,7 +7737,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>301</v>
       </c>
@@ -7377,7 +7771,9 @@
       <c r="K2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="M2" s="28"/>
       <c r="N2" s="9" t="s">
         <v>230</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12672" windowHeight="6756" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="469">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -933,9 +933,6 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>TC264384_Privilege validation for RuPay Settlement Bin Configurations</t>
   </si>
   <si>
@@ -1164,12 +1161,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>FEMA</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
     <t>English [EN]</t>
   </si>
   <si>
@@ -1179,9 +1170,6 @@
     <t>testuser124421@gmail.com</t>
   </si>
   <si>
-    <t>5431267812</t>
-  </si>
-  <si>
     <t>July/2/2018</t>
   </si>
   <si>
@@ -1191,9 +1179,6 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
@@ -1432,6 +1417,24 @@
   </si>
   <si>
     <t>Collector [COL]</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>ISSUING</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SDN Verification [SDN001]</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1638,7 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -2538,212 +2540,212 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:61" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:61" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="F1" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="P1" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="F1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="R1" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="S1" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q1" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="R1" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA1" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="T1" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="U1" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="V1" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="W1" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="X1" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y1" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AB1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="AB1" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI1" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ1" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK1" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM1" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN1" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO1" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP1" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AR1" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="AS1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV1" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="AS1" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT1" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU1" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV1" s="38" t="s">
+      <c r="AW1" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="AW1" s="38" t="s">
+      <c r="AX1" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AY1" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="AY1" s="38" t="s">
+      <c r="AZ1" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="AZ1" s="38" t="s">
+      <c r="BA1" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="BA1" s="38" t="s">
+      <c r="BB1" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="BB1" s="38" t="s">
+      <c r="BC1" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="BC1" s="38" t="s">
+      <c r="BD1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="BD1" s="38" t="s">
+      <c r="BE1" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BF1" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="BF1" s="38" t="s">
+      <c r="BG1" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="BG1" s="38" t="s">
+      <c r="BH1" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="BH1" s="38" t="s">
+      <c r="BI1" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="BI1" s="38" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:61" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>187</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L2" s="31" t="s">
         <v>230</v>
@@ -2842,19 +2844,19 @@
         <v>124421</v>
       </c>
       <c r="AW2" s="31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AX2" s="31" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AY2" s="31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AZ2" s="31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BC2" s="31" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BD2" s="31" t="s">
         <v>34</v>
@@ -2863,16 +2865,16 @@
         <v>5431267812</v>
       </c>
       <c r="BF2" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BG2" s="31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="BH2" s="31">
         <v>999</v>
       </c>
       <c r="BI2" s="31" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2952,7 @@
     </row>
     <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>201</v>
@@ -3003,7 +3005,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>201</v>
@@ -3056,7 +3058,7 @@
     </row>
     <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>201</v>
@@ -3109,7 +3111,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>201</v>
@@ -3162,7 +3164,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>201</v>
@@ -3229,9 +3231,9 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="31"/>
@@ -3242,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3259,142 +3261,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>321</v>
+        <v>356</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>321</v>
+        <v>356</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>321</v>
+        <v>396</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>321</v>
+      <c r="D7" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>321</v>
+        <v>398</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3435,43 +3437,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>317</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -3479,42 +3481,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>327</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>328</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -3570,84 +3572,84 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -3655,40 +3657,40 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>339</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>340</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3725,69 +3727,69 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>344</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>350</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3831,13 +3833,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3876,10 +3878,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -4068,16 +4070,16 @@
         <v>50</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="CD1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>94</v>
@@ -4125,58 +4127,58 @@
         <v>60</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="CX1" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="CZ1" s="4" t="s">
         <v>193</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="DF1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="DN1" s="4"/>
     </row>
@@ -4185,19 +4187,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -4220,16 +4222,16 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q2" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>246</v>
@@ -4241,13 +4243,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -4271,7 +4273,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -4280,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -4292,7 +4294,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -4301,13 +4303,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -4335,19 +4337,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -4375,10 +4377,10 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR2" s="28"/>
       <c r="BS2" s="9"/>
@@ -4394,7 +4396,7 @@
         <v>195</v>
       </c>
       <c r="BY2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ2" s="9" t="s">
         <v>48</v>
@@ -4406,7 +4408,7 @@
         <v>61</v>
       </c>
       <c r="CC2" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -4415,16 +4417,16 @@
         <v>133</v>
       </c>
       <c r="CH2" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI2" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ2" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ2" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK2" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL2" s="28" t="s">
         <v>91</v>
@@ -4433,16 +4435,16 @@
         <v>138</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO2" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP2" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ2" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR2" s="28" t="s">
         <v>200</v>
@@ -4450,14 +4452,14 @@
       <c r="CS2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CT2" s="35" t="s">
         <v>53</v>
       </c>
       <c r="CU2" s="9">
         <v>100</v>
       </c>
-      <c r="CV2" s="37" t="s">
-        <v>450</v>
+      <c r="CV2" s="36" t="s">
+        <v>445</v>
       </c>
       <c r="CW2" s="9">
         <v>5</v>
@@ -4469,16 +4471,16 @@
         <v>71</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="DB2" s="9">
         <v>6</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="DD2" s="9">
         <v>2</v>
@@ -4490,13 +4492,13 @@
         <v>1</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="DH2" s="9">
         <v>3</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="DJ2" s="9">
         <v>3</v>
@@ -4504,7 +4506,7 @@
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
       <c r="DM2" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4512,19 +4514,19 @@
         <v>140</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4547,16 +4549,16 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>246</v>
@@ -4568,13 +4570,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4598,7 +4600,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4607,7 +4609,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4619,7 +4621,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4628,13 +4630,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>148</v>
@@ -4662,19 +4664,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4702,17 +4704,17 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR3" s="28"/>
       <c r="BS3" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU3" s="9" t="s">
         <v>40</v>
@@ -4725,7 +4727,7 @@
         <v>195</v>
       </c>
       <c r="BY3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ3" s="9" t="s">
         <v>48</v>
@@ -4744,16 +4746,16 @@
         <v>133</v>
       </c>
       <c r="CH3" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI3" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ3" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ3" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK3" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL3" s="28" t="s">
         <v>91</v>
@@ -4762,16 +4764,16 @@
         <v>138</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO3" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP3" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ3" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR3" s="29" t="s">
         <v>200</v>
@@ -4791,19 +4793,19 @@
         <v>150</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4826,16 +4828,16 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>246</v>
@@ -4847,13 +4849,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4877,7 +4879,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4886,7 +4888,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4898,7 +4900,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4907,13 +4909,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>152</v>
@@ -4941,19 +4943,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4981,17 +4983,17 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR4" s="28"/>
       <c r="BS4" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU4" s="9" t="s">
         <v>40</v>
@@ -5004,7 +5006,7 @@
         <v>195</v>
       </c>
       <c r="BY4" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ4" s="9" t="s">
         <v>48</v>
@@ -5023,16 +5025,16 @@
         <v>133</v>
       </c>
       <c r="CH4" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI4" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ4" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ4" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK4" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL4" s="28" t="s">
         <v>91</v>
@@ -5041,16 +5043,16 @@
         <v>138</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO4" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP4" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ4" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR4" s="29" t="s">
         <v>200</v>
@@ -5070,19 +5072,19 @@
         <v>156</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -5105,16 +5107,16 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>246</v>
@@ -5126,13 +5128,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -5156,7 +5158,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -5165,7 +5167,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -5177,7 +5179,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -5186,13 +5188,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>158</v>
@@ -5220,19 +5222,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -5260,17 +5262,17 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR5" s="28"/>
       <c r="BS5" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU5" s="9" t="s">
         <v>40</v>
@@ -5283,7 +5285,7 @@
         <v>195</v>
       </c>
       <c r="BY5" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ5" s="9" t="s">
         <v>48</v>
@@ -5302,16 +5304,16 @@
         <v>133</v>
       </c>
       <c r="CH5" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI5" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ5" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ5" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK5" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL5" s="28" t="s">
         <v>91</v>
@@ -5320,16 +5322,16 @@
         <v>138</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO5" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP5" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ5" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR5" s="29" t="s">
         <v>200</v>
@@ -5349,19 +5351,19 @@
         <v>163</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -5384,16 +5386,16 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>246</v>
@@ -5405,13 +5407,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5435,7 +5437,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5444,7 +5446,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5456,7 +5458,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5465,13 +5467,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>165</v>
@@ -5499,19 +5501,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5539,17 +5541,17 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR6" s="28"/>
       <c r="BS6" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU6" s="9" t="s">
         <v>40</v>
@@ -5562,7 +5564,7 @@
         <v>195</v>
       </c>
       <c r="BY6" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ6" s="9" t="s">
         <v>48</v>
@@ -5581,16 +5583,16 @@
         <v>133</v>
       </c>
       <c r="CH6" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI6" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ6" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ6" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK6" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL6" s="28" t="s">
         <v>91</v>
@@ -5599,16 +5601,16 @@
         <v>138</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO6" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP6" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ6" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR6" s="29" t="s">
         <v>200</v>
@@ -5628,19 +5630,19 @@
         <v>169</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5663,16 +5665,16 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q7" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>246</v>
@@ -5684,13 +5686,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5714,7 +5716,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5723,7 +5725,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5735,7 +5737,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5744,13 +5746,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>171</v>
@@ -5778,19 +5780,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5818,17 +5820,17 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR7" s="28"/>
       <c r="BS7" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU7" s="9" t="s">
         <v>40</v>
@@ -5841,7 +5843,7 @@
         <v>195</v>
       </c>
       <c r="BY7" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ7" s="9" t="s">
         <v>48</v>
@@ -5855,23 +5857,23 @@
       <c r="CC7" s="9"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="CF7" s="28"/>
       <c r="CG7" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH7" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI7" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ7" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ7" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK7" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL7" s="28" t="s">
         <v>91</v>
@@ -5880,16 +5882,16 @@
         <v>138</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO7" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP7" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ7" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR7" s="29" t="s">
         <v>200</v>
@@ -5909,19 +5911,19 @@
         <v>175</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5944,16 +5946,16 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>245</v>
       </c>
       <c r="Q8" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>354</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>355</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>246</v>
@@ -5965,13 +5967,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5995,7 +5997,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -6004,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -6016,7 +6018,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -6025,13 +6027,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>195</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>177</v>
@@ -6059,19 +6061,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -6099,17 +6101,17 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="BU8" s="9" t="s">
         <v>40</v>
@@ -6122,7 +6124,7 @@
         <v>195</v>
       </c>
       <c r="BY8" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ8" s="9" t="s">
         <v>48</v>
@@ -6136,23 +6138,23 @@
       <c r="CC8" s="9"/>
       <c r="CD8" s="9"/>
       <c r="CE8" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="CF8" s="28"/>
       <c r="CG8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH8" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CI8" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ8" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="CJ8" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="CK8" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="CL8" s="28" t="s">
         <v>91</v>
@@ -6161,16 +6163,16 @@
         <v>138</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="CO8" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="CP8" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="CQ8" s="28" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="CR8" s="29" t="s">
         <v>200</v>
@@ -7542,17 +7544,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:BA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -7576,285 +7578,266 @@
     <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>226</v>
+        <v>362</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>229</v>
+        <v>368</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>357</v>
+        <v>463</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>464</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" s="9">
-        <v>8520</v>
+        <v>230</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>465</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>230</v>
-      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
         <v>230</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>231</v>
+      </c>
       <c r="N2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>230</v>
+      <c r="O2" s="9">
+        <v>16</v>
+      </c>
+      <c r="P2" s="9">
+        <v>16</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="9">
-        <v>16</v>
-      </c>
-      <c r="V2" s="9">
-        <v>16</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+        <v>466</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="T2" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="X2" s="9">
+        <v>23564589</v>
+      </c>
       <c r="Y2" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="Z2" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AN2" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>388</v>
+      <c r="AP2" s="9">
+        <v>5431267812</v>
       </c>
       <c r="AQ2" s="9" t="s">
         <v>380</v>
@@ -7862,36 +7845,291 @@
       <c r="AR2" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
+      <c r="AS2" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="AV2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="9">
+        <v>16</v>
+      </c>
+      <c r="P3" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="T3" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="32" t="s">
+      <c r="W3" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="X3" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O4" s="9">
+        <v>16</v>
+      </c>
+      <c r="P4" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="T4" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="X4" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH4" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="AY2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>386</v>
+      <c r="AI4" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="Y2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="Y3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="Y4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -7546,8 +7546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:BA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -16,19 +16,18 @@
     <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
     <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
     <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="UserJourney1" sheetId="16" r:id="rId10"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId11"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="483">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1101,7 +1100,286 @@
     <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>AdminBankName</t>
+    <t>Address Line3</t>
+  </si>
+  <si>
+    <t>Address Line4</t>
+  </si>
+  <si>
+    <t>NewUserId</t>
+  </si>
+  <si>
+    <t>NewUserName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>LanguagePreference</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>Login Allowed From</t>
+  </si>
+  <si>
+    <t>Login Allowed Till</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>UserAccountExpiryDate</t>
+  </si>
+  <si>
+    <t>ConcurrentLoginAllowed</t>
+  </si>
+  <si>
+    <t>MaximumConcurrentUser</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>English [EN]</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>testuser124421@gmail.com</t>
+  </si>
+  <si>
+    <t>July/2/2018</t>
+  </si>
+  <si>
+    <t>Yes [Y]</t>
+  </si>
+  <si>
+    <t>Record Added Successfully.</t>
+  </si>
+  <si>
+    <t>Batch [ROLE000052]</t>
+  </si>
+  <si>
+    <t>TC417600_Additional field for Customer Master Download file</t>
+  </si>
+  <si>
+    <t>TC417601_Additional field for Acount Master Download file</t>
+  </si>
+  <si>
+    <t>TC417604_Additional field for Customer Account Relations Download file</t>
+  </si>
+  <si>
+    <t>TC417605_Additional field for Account Status Audit Download file</t>
+  </si>
+  <si>
+    <t>TC417606_Additional field for Transaction Type Master Download file</t>
+  </si>
+  <si>
+    <t>TC417607_Additional field for Employee Master User Download file</t>
+  </si>
+  <si>
+    <t>CENTAURUS [554466]</t>
+  </si>
+  <si>
+    <t>Prepaid Program [PP01]</t>
+  </si>
+  <si>
+    <t>TC417602_Additional field for Transaction Master Download file</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?1</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?2</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?3</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?4</t>
+  </si>
+  <si>
+    <t>CutOverEffectiveDate</t>
+  </si>
+  <si>
+    <t>DMSIssuerBIN</t>
+  </si>
+  <si>
+    <t>SMSIssuerBIN</t>
+  </si>
+  <si>
+    <t>455854</t>
+  </si>
+  <si>
+    <t>8520</t>
+  </si>
+  <si>
+    <t>ONUS [088150]</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>411006</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>March/1/2018</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>120345</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>1E+12</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>FEMAVG [616161]</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>155074</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>ToLot</t>
+  </si>
+  <si>
+    <t>PrintDay</t>
+  </si>
+  <si>
+    <t>StartMonthForYearlyLimits</t>
+  </si>
+  <si>
+    <t>Field1</t>
+  </si>
+  <si>
+    <t>Length1</t>
+  </si>
+  <si>
+    <t>Field2</t>
+  </si>
+  <si>
+    <t>Length2</t>
+  </si>
+  <si>
+    <t>Field3</t>
+  </si>
+  <si>
+    <t>Length3</t>
+  </si>
+  <si>
+    <t>Field4</t>
+  </si>
+  <si>
+    <t>Length4</t>
+  </si>
+  <si>
+    <t>Field5</t>
+  </si>
+  <si>
+    <t>Length5</t>
+  </si>
+  <si>
+    <t>Field6</t>
+  </si>
+  <si>
+    <t>Length6</t>
+  </si>
+  <si>
+    <t>iPKExpiryDate</t>
+  </si>
+  <si>
+    <t>March/10/2020</t>
+  </si>
+  <si>
+    <t>Cash Withdrawal [04]</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>Custom Code</t>
+  </si>
+  <si>
+    <t>Product Currency</t>
+  </si>
+  <si>
+    <t>Sequence Number</t>
+  </si>
+  <si>
+    <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
   </si>
   <si>
     <t>Reference Currency</t>
@@ -1110,331 +1388,94 @@
     <t>Financial Start Month</t>
   </si>
   <si>
-    <t>Address Line3</t>
-  </si>
-  <si>
-    <t>Address Line4</t>
-  </si>
-  <si>
-    <t>NewUserId</t>
-  </si>
-  <si>
-    <t>NewUserName</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>LanguagePreference</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>Login Allowed From</t>
-  </si>
-  <si>
-    <t>Login Allowed Till</t>
-  </si>
-  <si>
-    <t>EmailId</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>UserAccountExpiryDate</t>
-  </si>
-  <si>
-    <t>ConcurrentLoginAllowed</t>
-  </si>
-  <si>
-    <t>MaximumConcurrentUser</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>English [EN]</t>
-  </si>
-  <si>
-    <t>GMT</t>
-  </si>
-  <si>
-    <t>testuser124421@gmail.com</t>
-  </si>
-  <si>
-    <t>July/2/2018</t>
-  </si>
-  <si>
-    <t>Yes [Y]</t>
-  </si>
-  <si>
-    <t>Record Added Successfully.</t>
-  </si>
-  <si>
-    <t>Batch [ROLE000052]</t>
-  </si>
-  <si>
-    <t>NewUser</t>
-  </si>
-  <si>
-    <t>TC417600_Additional field for Customer Master Download file</t>
-  </si>
-  <si>
-    <t>TC417601_Additional field for Acount Master Download file</t>
-  </si>
-  <si>
-    <t>TC417604_Additional field for Customer Account Relations Download file</t>
-  </si>
-  <si>
-    <t>TC417605_Additional field for Account Status Audit Download file</t>
-  </si>
-  <si>
-    <t>TC417606_Additional field for Transaction Type Master Download file</t>
-  </si>
-  <si>
-    <t>TC417607_Additional field for Employee Master User Download file</t>
-  </si>
-  <si>
-    <t>CENTAURUS [554466]</t>
-  </si>
-  <si>
-    <t>Prepaid Program [PP01]</t>
-  </si>
-  <si>
-    <t>TC417602_Additional field for Transaction Master Download file</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?1</t>
-  </si>
-  <si>
-    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?2</t>
-  </si>
-  <si>
-    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?3</t>
-  </si>
-  <si>
-    <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?4</t>
-  </si>
-  <si>
-    <t>CutOverEffectiveDate</t>
-  </si>
-  <si>
-    <t>DMSIssuerBIN</t>
-  </si>
-  <si>
-    <t>SMSIssuerBIN</t>
-  </si>
-  <si>
-    <t>455854</t>
-  </si>
-  <si>
-    <t>8520</t>
-  </si>
-  <si>
-    <t>ONUS [088150]</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>411006</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>March/1/2018</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>120345</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>1E+12</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>FEMAVG [616161]</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>155074</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>ToLot</t>
-  </si>
-  <si>
-    <t>PrintDay</t>
-  </si>
-  <si>
-    <t>StartMonthForYearlyLimits</t>
-  </si>
-  <si>
-    <t>Field1</t>
-  </si>
-  <si>
-    <t>Length1</t>
-  </si>
-  <si>
-    <t>Field2</t>
-  </si>
-  <si>
-    <t>Length2</t>
-  </si>
-  <si>
-    <t>Field3</t>
-  </si>
-  <si>
-    <t>Length3</t>
-  </si>
-  <si>
-    <t>Field4</t>
-  </si>
-  <si>
-    <t>Length4</t>
-  </si>
-  <si>
-    <t>Field5</t>
-  </si>
-  <si>
-    <t>Length5</t>
-  </si>
-  <si>
-    <t>Field6</t>
-  </si>
-  <si>
-    <t>Length6</t>
-  </si>
-  <si>
-    <t>iPKExpiryDate</t>
-  </si>
-  <si>
-    <t>March/10/2020</t>
-  </si>
-  <si>
-    <t>Cash Withdrawal [04]</t>
-  </si>
-  <si>
-    <t>BIN</t>
-  </si>
-  <si>
-    <t>Custom Code</t>
-  </si>
-  <si>
-    <t>Product Currency</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
-    <t>March/10/2050</t>
-  </si>
-  <si>
-    <t>UserIDCreated</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>InstitutionCode</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>adaptiveEcomm</t>
-  </si>
-  <si>
-    <t>issuerSmsProvider</t>
-  </si>
-  <si>
-    <t>mpin</t>
-  </si>
-  <si>
-    <t>TC_UserJourney1</t>
-  </si>
-  <si>
-    <t>http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>Collector [COL]</t>
-  </si>
-  <si>
-    <t>TCInstituteCreationPR</t>
-  </si>
-  <si>
-    <t>ISSUING</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SDN Verification [SDN001]</t>
-  </si>
-  <si>
-    <t>TCInstituteCreationDC</t>
-  </si>
-  <si>
-    <t>TCInstituteCreationDCPR</t>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>DEBCRE</t>
+  </si>
+  <si>
+    <t>ALLISS</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,12 +1520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,7 +1613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1646,7 +1681,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2532,359 +2566,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:61" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>454</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="W1" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB1" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC1" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD1" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE1" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF1" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH1" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN1" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO1" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP1" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ1" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="AR1" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="AS1" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT1" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU1" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV1" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="AW1" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="AX1" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="AY1" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ1" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="BA1" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB1" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="BC1" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="BE1" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="BF1" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="BG1" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="BH1" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="BI1" s="37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="31">
-        <v>1100440052</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI2" s="31">
-        <v>45665456</v>
-      </c>
-      <c r="AJ2" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL2" s="31">
-        <v>1113332</v>
-      </c>
-      <c r="AM2" s="31">
-        <v>23564589</v>
-      </c>
-      <c r="AN2" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP2" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR2" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU2" s="31">
-        <v>411006</v>
-      </c>
-      <c r="AV2" s="31">
-        <v>124421</v>
-      </c>
-      <c r="AW2" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="AX2" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="AY2" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ2" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="BC2" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="BE2" s="31">
-        <v>5431267812</v>
-      </c>
-      <c r="BF2" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG2" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="BH2" s="31">
-        <v>999</v>
-      </c>
-      <c r="BI2" s="31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3220,7 +2901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3261,142 +2942,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>356</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>356</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>320</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3542,7 +3223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3701,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -4070,16 +3751,16 @@
         <v>50</v>
       </c>
       <c r="CC1" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="CD1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CE1" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>94</v>
@@ -4127,58 +3808,58 @@
         <v>60</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="CX1" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="CZ1" s="4" t="s">
         <v>193</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="DF1" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="DN1" s="4"/>
     </row>
@@ -4190,16 +3871,16 @@
         <v>356</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -4243,13 +3924,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -4273,7 +3954,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -4282,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -4294,7 +3975,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -4303,7 +3984,7 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>195</v>
@@ -4337,19 +4018,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -4377,10 +4058,10 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR2" s="28"/>
       <c r="BS2" s="9"/>
@@ -4408,7 +4089,7 @@
         <v>61</v>
       </c>
       <c r="CC2" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
@@ -4417,16 +4098,16 @@
         <v>133</v>
       </c>
       <c r="CH2" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI2" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ2" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ2" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK2" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL2" s="28" t="s">
         <v>91</v>
@@ -4435,16 +4116,16 @@
         <v>138</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO2" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP2" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ2" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR2" s="28" t="s">
         <v>200</v>
@@ -4459,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="CV2" s="36" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="CW2" s="9">
         <v>5</v>
@@ -4471,16 +4152,16 @@
         <v>71</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="DB2" s="9">
         <v>6</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="DD2" s="9">
         <v>2</v>
@@ -4492,13 +4173,13 @@
         <v>1</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="DH2" s="9">
         <v>3</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="DJ2" s="9">
         <v>3</v>
@@ -4506,7 +4187,7 @@
       <c r="DK2" s="9"/>
       <c r="DL2" s="9"/>
       <c r="DM2" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
@@ -4517,16 +4198,16 @@
         <v>356</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4570,13 +4251,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4600,7 +4281,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4609,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4621,7 +4302,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4630,7 +4311,7 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>195</v>
@@ -4664,19 +4345,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4704,17 +4385,17 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR3" s="28"/>
       <c r="BS3" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU3" s="9" t="s">
         <v>40</v>
@@ -4746,16 +4427,16 @@
         <v>133</v>
       </c>
       <c r="CH3" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI3" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ3" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ3" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK3" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL3" s="28" t="s">
         <v>91</v>
@@ -4764,16 +4445,16 @@
         <v>138</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO3" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP3" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ3" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR3" s="29" t="s">
         <v>200</v>
@@ -4796,16 +4477,16 @@
         <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4849,13 +4530,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4879,7 +4560,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4888,7 +4569,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4900,7 +4581,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4909,7 +4590,7 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>195</v>
@@ -4943,19 +4624,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4983,17 +4664,17 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR4" s="28"/>
       <c r="BS4" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU4" s="9" t="s">
         <v>40</v>
@@ -5025,16 +4706,16 @@
         <v>133</v>
       </c>
       <c r="CH4" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI4" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ4" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ4" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK4" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL4" s="28" t="s">
         <v>91</v>
@@ -5043,16 +4724,16 @@
         <v>138</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO4" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP4" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ4" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR4" s="29" t="s">
         <v>200</v>
@@ -5075,16 +4756,16 @@
         <v>356</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -5128,13 +4809,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -5158,7 +4839,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -5167,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -5179,7 +4860,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -5188,7 +4869,7 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>195</v>
@@ -5222,19 +4903,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -5262,17 +4943,17 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR5" s="28"/>
       <c r="BS5" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU5" s="9" t="s">
         <v>40</v>
@@ -5304,16 +4985,16 @@
         <v>133</v>
       </c>
       <c r="CH5" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI5" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ5" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ5" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK5" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL5" s="28" t="s">
         <v>91</v>
@@ -5322,16 +5003,16 @@
         <v>138</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO5" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP5" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ5" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR5" s="29" t="s">
         <v>200</v>
@@ -5354,16 +5035,16 @@
         <v>356</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -5407,13 +5088,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5437,7 +5118,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5446,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5458,7 +5139,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5467,7 +5148,7 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>195</v>
@@ -5501,19 +5182,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5541,17 +5222,17 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR6" s="28"/>
       <c r="BS6" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU6" s="9" t="s">
         <v>40</v>
@@ -5583,16 +5264,16 @@
         <v>133</v>
       </c>
       <c r="CH6" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI6" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ6" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ6" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK6" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL6" s="28" t="s">
         <v>91</v>
@@ -5601,16 +5282,16 @@
         <v>138</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO6" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP6" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ6" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR6" s="29" t="s">
         <v>200</v>
@@ -5633,16 +5314,16 @@
         <v>356</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5686,13 +5367,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5716,7 +5397,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5725,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5737,7 +5418,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5746,7 +5427,7 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>195</v>
@@ -5780,19 +5461,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5820,17 +5501,17 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR7" s="28"/>
       <c r="BS7" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU7" s="9" t="s">
         <v>40</v>
@@ -5857,23 +5538,23 @@
       <c r="CC7" s="9"/>
       <c r="CD7" s="9"/>
       <c r="CE7" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="CF7" s="28"/>
       <c r="CG7" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH7" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI7" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ7" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ7" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK7" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL7" s="28" t="s">
         <v>91</v>
@@ -5882,16 +5563,16 @@
         <v>138</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO7" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP7" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ7" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR7" s="29" t="s">
         <v>200</v>
@@ -5914,16 +5595,16 @@
         <v>356</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5967,13 +5648,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5997,7 +5678,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -6006,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -6018,7 +5699,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -6027,7 +5708,7 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>195</v>
@@ -6061,19 +5742,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -6101,17 +5782,17 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BR8" s="28"/>
       <c r="BS8" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="BU8" s="9" t="s">
         <v>40</v>
@@ -6138,23 +5819,23 @@
       <c r="CC8" s="9"/>
       <c r="CD8" s="9"/>
       <c r="CE8" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="CF8" s="28"/>
       <c r="CG8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CH8" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CI8" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ8" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="CJ8" s="28" t="s">
-        <v>415</v>
-      </c>
       <c r="CK8" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="CL8" s="28" t="s">
         <v>91</v>
@@ -6163,16 +5844,16 @@
         <v>138</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="CO8" s="28" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="CP8" s="28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="CQ8" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="CR8" s="29" t="s">
         <v>200</v>
@@ -7544,15 +7225,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -7561,24 +7242,36 @@
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5546875" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" customWidth="1"/>
+    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7607,129 +7300,156 @@
         <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AB1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>230</v>
@@ -7740,396 +7460,1610 @@
       <c r="G2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="I2" s="9" t="s">
         <v>230</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>230</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="P2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="9">
         <v>16</v>
       </c>
-      <c r="P2" s="9">
+      <c r="R2" s="9">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="R2" s="9">
+      <c r="S2" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="9">
         <v>1100440052</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="T2" s="9">
+      <c r="Y2" s="9">
         <v>45665456</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AB2" s="9">
         <v>1113332</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AC2" s="9">
         <v>23564589</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="AD2" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AK2" s="9">
         <v>411006</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AL2" s="9">
         <v>124421</v>
       </c>
-      <c r="AH2" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
+      <c r="AM2" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="AN2" s="9" t="s">
         <v>379</v>
       </c>
       <c r="AO2" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AU2" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AQ2" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS2" s="9">
+      <c r="AV2" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX2" s="9">
         <v>999</v>
       </c>
-      <c r="AT2" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AY2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC2" s="9"/>
+    </row>
+    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>448</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="O3" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" s="9">
         <v>16</v>
       </c>
-      <c r="P3" s="9">
+      <c r="R3" s="9">
         <v>16</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="R3" s="9">
+      <c r="S3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="9">
         <v>1100440052</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="T3" s="9">
+      <c r="Y3" s="9">
         <v>45665456</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AB3" s="9">
         <v>1113332</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AC3" s="9">
         <v>23564589</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="AD3" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AK3" s="9">
         <v>411006</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AL3" s="9">
         <v>124421</v>
       </c>
-      <c r="AH3" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
+      <c r="AM3" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="AN3" s="9" t="s">
         <v>379</v>
       </c>
       <c r="AO3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AU3" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AQ3" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS3" s="9">
+      <c r="AV3" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX3" s="9">
         <v>999</v>
       </c>
-      <c r="AT3" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AY3" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+    </row>
+    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>465</v>
+        <v>230</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>448</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="I4" s="9" t="s">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>230</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="O4" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="P4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="9">
         <v>16</v>
       </c>
-      <c r="P4" s="9">
+      <c r="R4" s="9">
         <v>16</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="S4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W4" s="9">
         <v>1100440052</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="T4" s="9">
+      <c r="Y4" s="9">
         <v>45665456</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AB4" s="9">
         <v>1113332</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AC4" s="9">
         <v>23564589</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="AD4" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AK4" s="9">
         <v>411006</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AL4" s="9">
         <v>124421</v>
       </c>
-      <c r="AH4" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
+      <c r="AM4" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="AN4" s="9" t="s">
         <v>379</v>
       </c>
       <c r="AO4" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AU4" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AQ4" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS4" s="9">
+      <c r="AV4" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX4" s="9">
         <v>999</v>
       </c>
-      <c r="AT4" s="9" t="s">
-        <v>382</v>
-      </c>
+      <c r="AY4" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+    </row>
+    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9">
+        <v>16</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="BC5" s="9"/>
+    </row>
+    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>16</v>
+      </c>
+      <c r="R6" s="9">
+        <v>16</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC6" s="9"/>
+    </row>
+    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>16</v>
+      </c>
+      <c r="R7" s="9">
+        <v>16</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA7" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB7" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC7" s="9"/>
+    </row>
+    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>16</v>
+      </c>
+      <c r="R8" s="9">
+        <v>16</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA8" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB8" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC8" s="9"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>16</v>
+      </c>
+      <c r="R9" s="9">
+        <v>16</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W9" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX9" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA9" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+    </row>
+    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>16</v>
+      </c>
+      <c r="R10" s="9">
+        <v>16</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA10" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9">
+        <v>16</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ11" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA11" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB11" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="Y2" r:id="rId2"/>
-    <hyperlink ref="S3" r:id="rId3"/>
-    <hyperlink ref="Y3" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="Y4" r:id="rId6"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AD2" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="AD3" r:id="rId4"/>
+    <hyperlink ref="X5" r:id="rId5"/>
+    <hyperlink ref="AD5" r:id="rId6"/>
+    <hyperlink ref="X6" r:id="rId7"/>
+    <hyperlink ref="AD6" r:id="rId8"/>
+    <hyperlink ref="X4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId10"/>
+    <hyperlink ref="X7" r:id="rId11"/>
+    <hyperlink ref="AD7" r:id="rId12"/>
+    <hyperlink ref="X8" r:id="rId13"/>
+    <hyperlink ref="AD8" r:id="rId14"/>
+    <hyperlink ref="X9" r:id="rId15"/>
+    <hyperlink ref="AD9" r:id="rId16"/>
+    <hyperlink ref="X10" r:id="rId17"/>
+    <hyperlink ref="AD10" r:id="rId18"/>
+    <hyperlink ref="X11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -7227,8 +7227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AX4" sqref="AX4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
     <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="LoyaltyPlan" sheetId="17" r:id="rId15"/>
+    <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="566">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1476,6 +1478,255 @@
   </si>
   <si>
     <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>LoyaltyPlanCode</t>
+  </si>
+  <si>
+    <t>Currency1</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>MaximumPointsEachPeriod</t>
+  </si>
+  <si>
+    <t>PeriodUnit</t>
+  </si>
+  <si>
+    <t>PlanValidityPeriod</t>
+  </si>
+  <si>
+    <t>MinimumPointsRequiredToRedeem</t>
+  </si>
+  <si>
+    <t>GraceDaysForRedemption</t>
+  </si>
+  <si>
+    <t>PointsEarned</t>
+  </si>
+  <si>
+    <t>ValueOfPoints</t>
+  </si>
+  <si>
+    <t>MinimumPointsRequiredToRedeemAutoRedemption</t>
+  </si>
+  <si>
+    <t>AutoRedemptionDate</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>programDeviceRange</t>
+  </si>
+  <si>
+    <t>addressLines2</t>
+  </si>
+  <si>
+    <t>Interchange</t>
+  </si>
+  <si>
+    <t>PINcode</t>
+  </si>
+  <si>
+    <t>PINDesc</t>
+  </si>
+  <si>
+    <t>PINFileType</t>
+  </si>
+  <si>
+    <t>LegalID</t>
+  </si>
+  <si>
+    <t>PromotionPlanDesc</t>
+  </si>
+  <si>
+    <t>transactionDate</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>AdjustmentAmount</t>
+  </si>
+  <si>
+    <t>AdjustmentType</t>
+  </si>
+  <si>
+    <t>promotionCurrency</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>noOfTransactions</t>
+  </si>
+  <si>
+    <t>thresholdAmount</t>
+  </si>
+  <si>
+    <t>LoyaltyBatchSettlementDays</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>pointsEarned</t>
+  </si>
+  <si>
+    <t>AmountSpent</t>
+  </si>
+  <si>
+    <t>PromotionPlanCode</t>
+  </si>
+  <si>
+    <t>TC_Application_Upload_Prepaid</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>AUTO [121212]</t>
+  </si>
+  <si>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>LOYALTYAUTOMATION</t>
+  </si>
+  <si>
+    <t>LoyaltyPlanSetup</t>
+  </si>
+  <si>
+    <t>USD [840]</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>Year [Y]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Day of Month [0]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Auto001</t>
+  </si>
+  <si>
+    <t>4656</t>
+  </si>
+  <si>
+    <t>Miss. [3]</t>
+  </si>
+  <si>
+    <t>ABCDDD</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Male [M]</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>General purpose [GP]</t>
+  </si>
+  <si>
+    <t>RUPAY [06]</t>
+  </si>
+  <si>
+    <t>AUTOEmboss [111]</t>
+  </si>
+  <si>
+    <t>Atul.Upadhyay@mastercard.com</t>
+  </si>
+  <si>
+    <t>MASTERCARD [02]</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>PIN01</t>
+  </si>
+  <si>
+    <t>PIN offset temp</t>
+  </si>
+  <si>
+    <t>PIN File Template [O]</t>
+  </si>
+  <si>
+    <t>KKKJJ12345</t>
+  </si>
+  <si>
+    <t>promotionPlanDescription</t>
+  </si>
+  <si>
+    <t>June/27/2020</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>Miscellaneous Debit [70]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>PROMOTIONPLAN</t>
+  </si>
+  <si>
+    <t>TC1LoyaltyPlanCreation</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1608,12 +1859,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1681,6 +1943,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1992,20 +2273,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2196,7 +2477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2572,12 +2853,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2631,7 +2912,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -2684,7 +2965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -2737,7 +3018,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -2790,7 +3071,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -2843,7 +3124,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -2909,18 +3190,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2940,7 +3221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>380</v>
       </c>
@@ -2960,7 +3241,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>381</v>
       </c>
@@ -2980,7 +3261,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>388</v>
       </c>
@@ -3000,7 +3281,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>382</v>
       </c>
@@ -3020,7 +3301,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>383</v>
       </c>
@@ -3040,7 +3321,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>384</v>
       </c>
@@ -3060,7 +3341,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>385</v>
       </c>
@@ -3093,27 +3374,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3441,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3203,17 +3484,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3231,24 +3512,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3295,7 +3576,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3336,7 +3617,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3390,20 +3671,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3719,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3486,6 +3767,1604 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="DP1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="DQ1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="DR1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="DS1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="DT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="DU1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="DV1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="DW1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="DX1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="DY1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="DZ1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="EA1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="EB1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="EC1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="ED1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="EE1" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="U2" s="11">
+        <v>50</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>1989</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BU2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>546</v>
+      </c>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="CC2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE2" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="CI2" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ2" s="41"/>
+      <c r="CK2" s="41"/>
+      <c r="CL2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="CN2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="CP2" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="CW2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX2" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="CY2" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="CZ2" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="DA2" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="DM2" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="DN2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO2" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="DP2" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="DQ2" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="DR2" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="DS2" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="DT2" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU2" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="DV2" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="DW2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY2" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="EA2" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="EC2" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="ED2" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="EE2" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="DP1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="DQ1" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="DR1" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="DS1" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="DT1" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="DU1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="DV1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="DW1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="DX1" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="DY1" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="DZ1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="EA1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="EB1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="EC1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="ED1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="EE1" s="37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="U2" s="11">
+        <v>50</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>1989</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BU2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV2" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>546</v>
+      </c>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB2" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="CC2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE2" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="CI2" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ2" s="41"/>
+      <c r="CK2" s="41"/>
+      <c r="CL2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="CN2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="CP2" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="CW2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX2" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="CY2" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="CZ2" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="DA2" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="DM2" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="DN2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO2" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="DP2" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="DQ2" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="DR2" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="DS2" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="DT2" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU2" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="DV2" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="DW2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY2" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="EA2" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="EC2" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="ED2" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="EE2" s="44" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
@@ -3494,22 +5373,22 @@
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3863,7 +5742,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -4190,7 +6069,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -4469,7 +6348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -4748,7 +6627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -5027,7 +6906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -5306,7 +7185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -5587,7 +7466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -5868,7 +7747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -5877,7 +7756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -5886,7 +7765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -5895,502 +7774,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -6407,17 +8286,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6452,7 +8331,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -6479,7 +8358,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -6510,7 +8389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -6531,7 +8410,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -6567,19 +8446,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6630,7 +8509,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -6681,7 +8560,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -6732,7 +8611,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -6783,7 +8662,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -6834,7 +8713,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -6896,13 +8775,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6922,7 +8801,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -6942,7 +8821,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -6973,12 +8852,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7007,7 +8886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -7047,12 +8926,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7075,7 +8954,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -7098,7 +8977,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -7119,7 +8998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -7151,14 +9030,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7178,7 +9057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -7198,7 +9077,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -7227,51 +9106,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" customWidth="1"/>
-    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.85546875" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7438,7 +9317,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>447</v>
       </c>
@@ -7599,7 +9478,7 @@
       </c>
       <c r="BC2" s="9"/>
     </row>
-    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>449</v>
       </c>
@@ -7758,7 +9637,7 @@
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
     </row>
-    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>462</v>
       </c>
@@ -7917,7 +9796,7 @@
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
     </row>
-    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>450</v>
       </c>
@@ -8078,7 +9957,7 @@
       </c>
       <c r="BC5" s="9"/>
     </row>
-    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>461</v>
       </c>
@@ -8239,7 +10118,7 @@
       </c>
       <c r="BC6" s="9"/>
     </row>
-    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>463</v>
       </c>
@@ -8400,7 +10279,7 @@
       </c>
       <c r="BC7" s="9"/>
     </row>
-    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>464</v>
       </c>
@@ -8561,7 +10440,7 @@
       </c>
       <c r="BC8" s="9"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>465</v>
       </c>
@@ -8720,7 +10599,7 @@
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
     </row>
-    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>466</v>
       </c>
@@ -8879,7 +10758,7 @@
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>471</v>
       </c>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="572">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1727,6 +1727,24 @@
   </si>
   <si>
     <t>http://ech-10-168-128-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
   </si>
 </sst>
 </file>
@@ -2273,20 +2291,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2853,12 +2871,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +2930,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3124,7 +3142,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3190,18 +3208,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>380</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>381</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>388</v>
       </c>
@@ -3281,7 +3299,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>382</v>
       </c>
@@ -3301,7 +3319,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>383</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>384</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>385</v>
       </c>
@@ -3374,27 +3392,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3459,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3484,17 +3502,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3512,24 +3530,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3617,7 +3635,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3671,20 +3689,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3775,9 +3793,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4184,7 +4202,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>564</v>
       </c>
@@ -4570,13 +4588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4983,7 +5001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>520</v>
       </c>
@@ -5373,22 +5391,22 @@
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5742,7 +5760,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6069,7 +6087,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6348,7 +6366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -6627,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -6906,7 +6924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7185,7 +7203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7466,7 +7484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -7747,7 +7765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -7756,7 +7774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -7765,7 +7783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -7774,502 +7792,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8286,17 +8304,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8358,7 +8376,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8389,7 +8407,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8410,7 +8428,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -8446,19 +8464,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8509,7 +8527,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -8560,7 +8578,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -8611,7 +8629,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -8662,7 +8680,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -8713,7 +8731,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -8775,13 +8793,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8801,7 +8819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -8821,7 +8839,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -8852,12 +8870,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8886,7 +8904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -8926,12 +8944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8954,7 +8972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -8977,7 +8995,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -9030,14 +9048,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9057,7 +9075,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9077,7 +9095,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9104,53 +9122,56 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" customWidth="1"/>
-    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5546875" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" customWidth="1"/>
+    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.88671875" customWidth="1"/>
+    <col min="56" max="56" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9316,8 +9337,20 @@
       <c r="BC1" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>447</v>
       </c>
@@ -9477,8 +9510,12 @@
         <v>460</v>
       </c>
       <c r="BC2" s="9"/>
-    </row>
-    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+    </row>
+    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>449</v>
       </c>
@@ -9636,8 +9673,12 @@
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
-    </row>
-    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+    </row>
+    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>462</v>
       </c>
@@ -9795,8 +9836,12 @@
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
-    </row>
-    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+    </row>
+    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>450</v>
       </c>
@@ -9956,8 +10001,12 @@
         <v>482</v>
       </c>
       <c r="BC5" s="9"/>
-    </row>
-    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+    </row>
+    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>461</v>
       </c>
@@ -10117,8 +10166,12 @@
         <v>460</v>
       </c>
       <c r="BC6" s="9"/>
-    </row>
-    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+    </row>
+    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>463</v>
       </c>
@@ -10278,8 +10331,12 @@
         <v>460</v>
       </c>
       <c r="BC7" s="9"/>
-    </row>
-    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+    </row>
+    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>464</v>
       </c>
@@ -10439,8 +10496,12 @@
         <v>460</v>
       </c>
       <c r="BC8" s="9"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>465</v>
       </c>
@@ -10598,8 +10659,12 @@
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
-    </row>
-    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+    </row>
+    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>466</v>
       </c>
@@ -10757,8 +10822,12 @@
       </c>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>471</v>
       </c>
@@ -10918,6 +10987,183 @@
         <v>460</v>
       </c>
       <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+    </row>
+    <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>16</v>
+      </c>
+      <c r="R12" s="9">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA12" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>121212</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10941,8 +11187,10 @@
     <hyperlink ref="AD10" r:id="rId18"/>
     <hyperlink ref="X11" r:id="rId19"/>
     <hyperlink ref="AD11" r:id="rId20"/>
+    <hyperlink ref="X12" r:id="rId21"/>
+    <hyperlink ref="AD12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -2291,20 +2291,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2871,12 +2871,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3208,18 +3208,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>380</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>381</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>388</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>382</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>383</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>384</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>385</v>
       </c>
@@ -3392,27 +3392,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -3502,17 +3502,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3530,24 +3530,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -3689,20 +3689,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -3793,9 +3793,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>564</v>
       </c>
@@ -4592,9 +4592,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>520</v>
       </c>
@@ -5391,22 +5391,22 @@
       <selection activeCell="CU3" sqref="CU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS9"/>
       <c r="CT9" t="s">
         <v>162</v>
@@ -7774,7 +7774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -7783,7 +7783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -7792,502 +7792,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8304,17 +8304,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -8464,19 +8464,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -8793,13 +8793,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -8870,12 +8870,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -8944,12 +8944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -9048,14 +9048,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -9124,54 +9124,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" customWidth="1"/>
-    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.88671875" customWidth="1"/>
-    <col min="56" max="56" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.85546875" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>447</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
     </row>
-    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>449</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
     </row>
-    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>462</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="BF4" s="9"/>
       <c r="BG4" s="9"/>
     </row>
-    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>450</v>
       </c>
@@ -10006,7 +10006,7 @@
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
     </row>
-    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>461</v>
       </c>
@@ -10171,7 +10171,7 @@
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
     </row>
-    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>463</v>
       </c>
@@ -10336,7 +10336,7 @@
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
     </row>
-    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>464</v>
       </c>
@@ -10501,7 +10501,7 @@
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>465</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
     </row>
-    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>466</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>471</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
     </row>
-    <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>570</v>
       </c>
@@ -11008,7 +11008,7 @@
       <c r="E12" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="9" t="s">
         <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -11035,7 +11035,7 @@
       <c r="N12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P12" s="9" t="s">
@@ -11080,7 +11080,7 @@
       <c r="AC12" s="9">
         <v>23564589</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AD12" s="9" t="s">
         <v>234</v>
       </c>
       <c r="AE12" s="9" t="s">

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="561">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1706,6 +1706,12 @@
   </si>
   <si>
     <t>Program Code</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Activated</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1941,6 +1947,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5346,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="DO3" sqref="DO3:DO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5367,7 +5375,7 @@
     <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5722,8 +5730,11 @@
       <c r="DN1" s="4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DO1" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -6054,8 +6065,11 @@
       <c r="DN2" s="28" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DO2" s="46" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>548</v>
       </c>
@@ -6386,8 +6400,11 @@
       <c r="DN3" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DO3" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -6690,8 +6707,11 @@
       <c r="DN4" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DO4" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>550</v>
       </c>
@@ -6994,8 +7014,11 @@
       <c r="DN5" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="DO5" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
@@ -7298,8 +7321,11 @@
       <c r="DN6" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="DO6" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>551</v>
       </c>
@@ -7602,8 +7628,11 @@
       <c r="DN7" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="DO7" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
@@ -7906,8 +7935,11 @@
       <c r="DN8" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="9" spans="1:118" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="DO8" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:119" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>552</v>
       </c>
@@ -8210,8 +8242,11 @@
       <c r="DN9" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="DO9" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>163</v>
       </c>
@@ -8512,8 +8547,11 @@
       <c r="DL10" s="9"/>
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
-    </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="DO10" s="47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>553</v>
       </c>
@@ -8815,19 +8853,19 @@
       <c r="DM11" s="31"/>
       <c r="DN11" s="7"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.3">

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
     <sheet name="LoyaltyPlan" sheetId="17" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId16"/>
+    <sheet name="AuditReport" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="586">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1745,6 +1746,48 @@
   </si>
   <si>
     <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>PDF Format [pdf]</t>
+  </si>
+  <si>
+    <t>Online [O]</t>
+  </si>
+  <si>
+    <t>TC_validate_Audit_Report</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>ScreenName</t>
+  </si>
+  <si>
+    <t>FileType</t>
+  </si>
+  <si>
+    <t>ReportGenerationMode</t>
+  </si>
+  <si>
+    <t>Audit Report</t>
+  </si>
+  <si>
+    <t>AU01</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1980,6 +2023,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3790,7 +3834,7 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,7 +4633,7 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,12 +5427,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CU3" sqref="CU3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9124,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1:BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="575">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1660,9 +1660,6 @@
     <t>WalletPlanDescription</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -1712,6 +1709,51 @@
   </si>
   <si>
     <t>Activated</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1100440052</t>
+  </si>
+  <si>
+    <t>45665456</t>
+  </si>
+  <si>
+    <t>1113332</t>
+  </si>
+  <si>
+    <t>23564589</t>
+  </si>
+  <si>
+    <t>124421</t>
+  </si>
+  <si>
+    <t>5431267812</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1949,6 +1991,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5356,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
-      <selection activeCell="DO3" sqref="DO3:DO10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5728,10 +5775,10 @@
         <v>413</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5739,7 +5786,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>383</v>
@@ -5929,7 +5976,7 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ2" s="28" t="s">
         <v>390</v>
@@ -5973,7 +6020,7 @@
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
@@ -6042,39 +6089,39 @@
         <v>416</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="DH2" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="DI2" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DJ2" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="DJ2" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="DK2" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="DL2" s="9" t="s">
         <v>418</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="DN2" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO2" s="46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>383</v>
@@ -6264,7 +6311,7 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ3" s="28" t="s">
         <v>390</v>
@@ -6308,7 +6355,7 @@
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
@@ -6398,10 +6445,10 @@
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6409,7 +6456,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>383</v>
@@ -6599,7 +6646,7 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ4" s="28" t="s">
         <v>390</v>
@@ -6641,7 +6688,7 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
@@ -6705,18 +6752,18 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>383</v>
@@ -6906,7 +6953,7 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ5" s="28" t="s">
         <v>390</v>
@@ -6948,7 +6995,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
@@ -7012,10 +7059,10 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
@@ -7023,7 +7070,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>383</v>
@@ -7213,7 +7260,7 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ6" s="28" t="s">
         <v>390</v>
@@ -7255,7 +7302,7 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
@@ -7319,18 +7366,18 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>383</v>
@@ -7520,7 +7567,7 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ7" s="28" t="s">
         <v>390</v>
@@ -7562,7 +7609,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
@@ -7626,10 +7673,10 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -7637,7 +7684,7 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>383</v>
@@ -7827,7 +7874,7 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BQ8" s="28" t="s">
         <v>390</v>
@@ -7869,7 +7916,7 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
@@ -7933,18 +7980,18 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:119" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>543</v>
+        <v>551</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>574</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -8240,18 +8287,18 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>543</v>
+      <c r="B10" s="9" t="s">
+        <v>574</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -8548,15 +8595,15 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>543</v>
+        <v>552</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>574</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -9354,9 +9401,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10186,10 +10234,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10232,7 +10280,7 @@
     <col min="55" max="55" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10398,8 +10446,20 @@
       <c r="BC1" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>419</v>
       </c>
@@ -10448,11 +10508,11 @@
       <c r="P2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="9">
-        <v>16</v>
-      </c>
-      <c r="R2" s="9">
-        <v>16</v>
+      <c r="Q2" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>425</v>
@@ -10466,14 +10526,14 @@
       <c r="V2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="9">
-        <v>1100440052</v>
+      <c r="W2" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y2" s="9">
-        <v>45665456</v>
+      <c r="Y2" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>221</v>
@@ -10481,11 +10541,11 @@
       <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>23564589</v>
+      <c r="AB2" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>222</v>
@@ -10508,11 +10568,11 @@
       <c r="AJ2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK2" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>124421</v>
+      <c r="AK2" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>431</v>
@@ -10534,8 +10594,8 @@
       <c r="AT2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="9">
-        <v>5431267812</v>
+      <c r="AU2" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>362</v>
@@ -10543,8 +10603,8 @@
       <c r="AW2" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX2" s="9">
-        <v>999</v>
+      <c r="AX2" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>364</v>
@@ -10559,8 +10619,12 @@
         <v>432</v>
       </c>
       <c r="BC2" s="9"/>
-    </row>
-    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+    </row>
+    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>421</v>
       </c>
@@ -10609,11 +10673,11 @@
       <c r="P3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="9">
-        <v>16</v>
-      </c>
-      <c r="R3" s="9">
-        <v>16</v>
+      <c r="Q3" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>425</v>
@@ -10627,14 +10691,14 @@
       <c r="V3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W3" s="9">
-        <v>1100440052</v>
+      <c r="W3" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y3" s="9">
-        <v>45665456</v>
+      <c r="Y3" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>221</v>
@@ -10642,11 +10706,11 @@
       <c r="AA3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>23564589</v>
+      <c r="AB3" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>222</v>
@@ -10669,11 +10733,11 @@
       <c r="AJ3" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK3" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>124421</v>
+      <c r="AK3" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM3" s="9" t="s">
         <v>431</v>
@@ -10695,8 +10759,8 @@
       <c r="AT3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU3" s="9">
-        <v>5431267812</v>
+      <c r="AU3" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>362</v>
@@ -10704,8 +10768,8 @@
       <c r="AW3" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX3" s="9">
-        <v>999</v>
+      <c r="AX3" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY3" s="9" t="s">
         <v>364</v>
@@ -10718,8 +10782,12 @@
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
-    </row>
-    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+    </row>
+    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>434</v>
       </c>
@@ -10768,11 +10836,11 @@
       <c r="P4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="9">
-        <v>16</v>
-      </c>
-      <c r="R4" s="9">
-        <v>16</v>
+      <c r="Q4" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>425</v>
@@ -10786,14 +10854,14 @@
       <c r="V4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W4" s="9">
-        <v>1100440052</v>
+      <c r="W4" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y4" s="9">
-        <v>45665456</v>
+      <c r="Y4" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>221</v>
@@ -10801,11 +10869,11 @@
       <c r="AA4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>23564589</v>
+      <c r="AB4" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>222</v>
@@ -10828,11 +10896,11 @@
       <c r="AJ4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK4" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>124421</v>
+      <c r="AK4" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>431</v>
@@ -10854,8 +10922,8 @@
       <c r="AT4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU4" s="9">
-        <v>5431267812</v>
+      <c r="AU4" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>362</v>
@@ -10863,8 +10931,8 @@
       <c r="AW4" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX4" s="9">
-        <v>999</v>
+      <c r="AX4" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>364</v>
@@ -10877,8 +10945,12 @@
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
-    </row>
-    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+    </row>
+    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>422</v>
       </c>
@@ -10927,11 +10999,11 @@
       <c r="P5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="9">
-        <v>16</v>
-      </c>
-      <c r="R5" s="9">
-        <v>16</v>
+      <c r="Q5" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>425</v>
@@ -10945,14 +11017,14 @@
       <c r="V5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W5" s="9">
-        <v>1100440052</v>
+      <c r="W5" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y5" s="9">
-        <v>45665456</v>
+      <c r="Y5" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>221</v>
@@ -10960,11 +11032,11 @@
       <c r="AA5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>23564589</v>
+      <c r="AB5" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>222</v>
@@ -10987,11 +11059,11 @@
       <c r="AJ5" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK5" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>124421</v>
+      <c r="AK5" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>431</v>
@@ -11013,8 +11085,8 @@
       <c r="AT5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="9">
-        <v>5431267812</v>
+      <c r="AU5" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>362</v>
@@ -11022,8 +11094,8 @@
       <c r="AW5" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX5" s="9">
-        <v>999</v>
+      <c r="AX5" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY5" s="9" t="s">
         <v>364</v>
@@ -11038,8 +11110,12 @@
         <v>454</v>
       </c>
       <c r="BC5" s="9"/>
-    </row>
-    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+    </row>
+    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>433</v>
       </c>
@@ -11088,11 +11164,11 @@
       <c r="P6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="9">
-        <v>16</v>
-      </c>
-      <c r="R6" s="9">
-        <v>16</v>
+      <c r="Q6" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>425</v>
@@ -11106,14 +11182,14 @@
       <c r="V6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W6" s="9">
-        <v>1100440052</v>
+      <c r="W6" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y6" s="9">
-        <v>45665456</v>
+      <c r="Y6" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>221</v>
@@ -11121,11 +11197,11 @@
       <c r="AA6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>23564589</v>
+      <c r="AB6" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>222</v>
@@ -11148,11 +11224,11 @@
       <c r="AJ6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK6" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL6" s="9">
-        <v>124421</v>
+      <c r="AK6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>431</v>
@@ -11174,8 +11250,8 @@
       <c r="AT6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU6" s="9">
-        <v>5431267812</v>
+      <c r="AU6" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>362</v>
@@ -11183,8 +11259,8 @@
       <c r="AW6" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX6" s="9">
-        <v>999</v>
+      <c r="AX6" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY6" s="9" t="s">
         <v>364</v>
@@ -11199,8 +11275,12 @@
         <v>432</v>
       </c>
       <c r="BC6" s="9"/>
-    </row>
-    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+    </row>
+    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>435</v>
       </c>
@@ -11249,11 +11329,11 @@
       <c r="P7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="9">
-        <v>16</v>
-      </c>
-      <c r="R7" s="9">
-        <v>16</v>
+      <c r="Q7" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>425</v>
@@ -11267,14 +11347,14 @@
       <c r="V7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W7" s="9">
-        <v>1100440052</v>
+      <c r="W7" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y7" s="9">
-        <v>45665456</v>
+      <c r="Y7" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>221</v>
@@ -11282,11 +11362,11 @@
       <c r="AA7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>23564589</v>
+      <c r="AB7" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>222</v>
@@ -11309,11 +11389,11 @@
       <c r="AJ7" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK7" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>124421</v>
+      <c r="AK7" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM7" s="9" t="s">
         <v>431</v>
@@ -11335,8 +11415,8 @@
       <c r="AT7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU7" s="9">
-        <v>5431267812</v>
+      <c r="AU7" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>362</v>
@@ -11344,8 +11424,8 @@
       <c r="AW7" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX7" s="9">
-        <v>999</v>
+      <c r="AX7" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY7" s="9" t="s">
         <v>364</v>
@@ -11360,8 +11440,12 @@
         <v>432</v>
       </c>
       <c r="BC7" s="9"/>
-    </row>
-    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+    </row>
+    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>436</v>
       </c>
@@ -11410,11 +11494,11 @@
       <c r="P8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="9">
-        <v>16</v>
-      </c>
-      <c r="R8" s="9">
-        <v>16</v>
+      <c r="Q8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>425</v>
@@ -11428,14 +11512,14 @@
       <c r="V8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W8" s="9">
-        <v>1100440052</v>
+      <c r="W8" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y8" s="9">
-        <v>45665456</v>
+      <c r="Y8" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>221</v>
@@ -11443,11 +11527,11 @@
       <c r="AA8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>23564589</v>
+      <c r="AB8" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>222</v>
@@ -11470,11 +11554,11 @@
       <c r="AJ8" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK8" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL8" s="9">
-        <v>124421</v>
+      <c r="AK8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM8" s="9" t="s">
         <v>431</v>
@@ -11496,8 +11580,8 @@
       <c r="AT8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="9">
-        <v>5431267812</v>
+      <c r="AU8" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>362</v>
@@ -11505,8 +11589,8 @@
       <c r="AW8" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX8" s="9">
-        <v>999</v>
+      <c r="AX8" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>364</v>
@@ -11521,8 +11605,12 @@
         <v>432</v>
       </c>
       <c r="BC8" s="9"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>437</v>
       </c>
@@ -11571,11 +11659,11 @@
       <c r="P9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q9" s="9">
-        <v>16</v>
-      </c>
-      <c r="R9" s="9">
-        <v>16</v>
+      <c r="Q9" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>425</v>
@@ -11589,14 +11677,14 @@
       <c r="V9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W9" s="9">
-        <v>1100440052</v>
+      <c r="W9" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y9" s="9">
-        <v>45665456</v>
+      <c r="Y9" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>221</v>
@@ -11604,11 +11692,11 @@
       <c r="AA9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>23564589</v>
+      <c r="AB9" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>222</v>
@@ -11631,11 +11719,11 @@
       <c r="AJ9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK9" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL9" s="9">
-        <v>124421</v>
+      <c r="AK9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM9" s="9" t="s">
         <v>431</v>
@@ -11657,8 +11745,8 @@
       <c r="AT9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU9" s="9">
-        <v>5431267812</v>
+      <c r="AU9" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>362</v>
@@ -11666,8 +11754,8 @@
       <c r="AW9" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX9" s="9">
-        <v>999</v>
+      <c r="AX9" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY9" s="9" t="s">
         <v>364</v>
@@ -11680,167 +11768,175 @@
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
-    </row>
-    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="9">
-        <v>16</v>
-      </c>
-      <c r="R10" s="9">
-        <v>16</v>
-      </c>
-      <c r="S10" s="9" t="s">
+      <c r="Q10" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="S10" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="W10" s="9">
-        <v>1100440052</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="W10" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="X10" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="Y10" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="Z10" s="9" t="s">
+      <c r="Y10" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z10" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AB10" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC10" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD10" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="AE10" s="9" t="s">
+      <c r="AE10" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="AF10" s="9" t="s">
+      <c r="AF10" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="AG10" s="9" t="s">
+      <c r="AG10" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="AH10" s="9" t="s">
+      <c r="AH10" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="AI10" s="9" t="s">
+      <c r="AI10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AJ10" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="AK10" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL10" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AM10" s="9" t="s">
+      <c r="AK10" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL10" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="AM10" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="AN10" s="9" t="s">
+      <c r="AN10" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="AO10" s="9" t="s">
+      <c r="AO10" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AP10" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9" t="s">
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="AT10" s="9" t="s">
+      <c r="AT10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AU10" s="9">
-        <v>5431267812</v>
-      </c>
-      <c r="AV10" s="9" t="s">
+      <c r="AU10" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="AV10" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="AW10" s="9" t="s">
+      <c r="AW10" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="AX10" s="9">
-        <v>999</v>
-      </c>
-      <c r="AY10" s="9" t="s">
+      <c r="AX10" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="AY10" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="AZ10" s="9" t="s">
+      <c r="AZ10" s="48" t="s">
         <v>440</v>
       </c>
-      <c r="BA10" s="9" t="s">
+      <c r="BA10" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>443</v>
       </c>
@@ -11889,11 +11985,11 @@
       <c r="P11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q11" s="9">
-        <v>16</v>
-      </c>
-      <c r="R11" s="9">
-        <v>16</v>
+      <c r="Q11" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>425</v>
@@ -11907,14 +12003,14 @@
       <c r="V11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="W11" s="9">
-        <v>1100440052</v>
+      <c r="W11" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y11" s="9">
-        <v>45665456</v>
+      <c r="Y11" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>221</v>
@@ -11922,11 +12018,11 @@
       <c r="AA11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>23564589</v>
+      <c r="AB11" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>564</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>222</v>
@@ -11949,11 +12045,11 @@
       <c r="AJ11" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AK11" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AL11" s="9">
-        <v>124421</v>
+      <c r="AK11" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="AM11" s="9" t="s">
         <v>431</v>
@@ -11975,8 +12071,8 @@
       <c r="AT11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU11" s="9">
-        <v>5431267812</v>
+      <c r="AU11" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>362</v>
@@ -11984,8 +12080,8 @@
       <c r="AW11" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AX11" s="9">
-        <v>999</v>
+      <c r="AX11" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="AY11" s="9" t="s">
         <v>364</v>
@@ -12000,31 +12096,186 @@
         <v>432</v>
       </c>
       <c r="BC11" s="9"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+      <c r="R12" s="2">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>121212</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1"/>
-    <hyperlink ref="AD2" r:id="rId2"/>
-    <hyperlink ref="X3" r:id="rId3"/>
-    <hyperlink ref="AD3" r:id="rId4"/>
-    <hyperlink ref="X5" r:id="rId5"/>
-    <hyperlink ref="AD5" r:id="rId6"/>
-    <hyperlink ref="X6" r:id="rId7"/>
-    <hyperlink ref="AD6" r:id="rId8"/>
-    <hyperlink ref="X4" r:id="rId9"/>
-    <hyperlink ref="AD4" r:id="rId10"/>
-    <hyperlink ref="X7" r:id="rId11"/>
-    <hyperlink ref="AD7" r:id="rId12"/>
-    <hyperlink ref="X8" r:id="rId13"/>
-    <hyperlink ref="AD8" r:id="rId14"/>
-    <hyperlink ref="X9" r:id="rId15"/>
-    <hyperlink ref="AD9" r:id="rId16"/>
-    <hyperlink ref="X10" r:id="rId17"/>
-    <hyperlink ref="AD10" r:id="rId18"/>
-    <hyperlink ref="X11" r:id="rId19"/>
-    <hyperlink ref="AD11" r:id="rId20"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="574">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1178,9 +1178,6 @@
   </si>
   <si>
     <t>SMSIssuerBIN</t>
-  </si>
-  <si>
-    <t>455854</t>
   </si>
   <si>
     <t>8520</t>
@@ -3822,49 +3819,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -3975,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4014,7 +4011,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4050,7 +4047,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4155,129 +4152,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="DP1" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="DP1" s="37" t="s">
+      <c r="DQ1" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="DQ1" s="37" t="s">
+      <c r="DR1" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="DR1" s="37" t="s">
+      <c r="DS1" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="DS1" s="37" t="s">
+      <c r="DT1" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="DT1" s="37" t="s">
+      <c r="DU1" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="DU1" s="37" t="s">
+      <c r="DV1" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="DV1" s="37" t="s">
+      <c r="DW1" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="DW1" s="37" t="s">
+      <c r="DX1" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="DX1" s="37" t="s">
+      <c r="DY1" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="DY1" s="37" t="s">
+      <c r="DZ1" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="DZ1" s="37" t="s">
+      <c r="EA1" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="EA1" s="37" t="s">
+      <c r="EB1" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="EB1" s="37" t="s">
+      <c r="EC1" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="EC1" s="37" t="s">
+      <c r="ED1" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="ED1" s="37" t="s">
+      <c r="EE1" s="37" t="s">
         <v>490</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" t="s">
         <v>536</v>
       </c>
-      <c r="B2" t="s">
-        <v>537</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="40" t="s">
         <v>508</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>509</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4305,16 +4302,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4335,7 +4332,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -4372,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4384,7 +4381,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -4402,7 +4399,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -4417,7 +4414,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -4432,20 +4429,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4461,10 +4458,10 @@
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -4472,13 +4469,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>341</v>
@@ -4495,22 +4492,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="CY2" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="CZ2" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="CY2" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="CZ2" s="41" t="s">
+      <c r="DA2" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="DA2" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -4532,67 +4529,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="DL2" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DM2" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="DP2" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DQ2" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DR2" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DS2" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="DS2" s="45" t="s">
+      <c r="DT2" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="DU2" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="DT2" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="DU2" s="45" t="s">
+      <c r="DV2" s="44" t="s">
         <v>529</v>
-      </c>
-      <c r="DV2" s="44" t="s">
-        <v>530</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="DY2" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="DZ2" s="45" t="s">
+      <c r="EA2" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="EC2" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="EA2" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="EC2" s="45" t="s">
+      <c r="ED2" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="ED2" s="45" t="s">
+      <c r="EE2" s="44" t="s">
         <v>534</v>
-      </c>
-      <c r="EE2" s="44" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4621,49 +4618,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -4774,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4813,7 +4810,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4849,7 +4846,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4954,129 +4951,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="DP1" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="DP1" s="37" t="s">
+      <c r="DQ1" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="DQ1" s="37" t="s">
+      <c r="DR1" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="DR1" s="37" t="s">
+      <c r="DS1" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="DS1" s="37" t="s">
+      <c r="DT1" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="DT1" s="37" t="s">
+      <c r="DU1" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="DU1" s="37" t="s">
+      <c r="DV1" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="DV1" s="37" t="s">
+      <c r="DW1" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="DW1" s="37" t="s">
+      <c r="DX1" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="DX1" s="37" t="s">
+      <c r="DY1" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="DY1" s="37" t="s">
+      <c r="DZ1" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="DZ1" s="37" t="s">
+      <c r="EA1" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="EA1" s="37" t="s">
+      <c r="EB1" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="EB1" s="37" t="s">
+      <c r="EC1" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="EC1" s="37" t="s">
+      <c r="ED1" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="ED1" s="37" t="s">
+      <c r="EE1" s="37" t="s">
         <v>490</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" t="s">
         <v>492</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="40" t="s">
         <v>508</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>509</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5104,16 +5101,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5134,7 +5131,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5171,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5183,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5201,7 +5198,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -5216,7 +5213,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -5231,20 +5228,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5260,10 +5257,10 @@
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -5271,13 +5268,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>341</v>
@@ -5294,22 +5291,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="CY2" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="CZ2" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="CY2" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="CZ2" s="41" t="s">
+      <c r="DA2" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="DA2" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -5331,67 +5328,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="DL2" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DM2" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="DP2" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DQ2" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DR2" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DS2" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="DS2" s="45" t="s">
+      <c r="DT2" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="DU2" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="DT2" s="45" t="s">
-        <v>390</v>
-      </c>
-      <c r="DU2" s="45" t="s">
+      <c r="DV2" s="44" t="s">
         <v>529</v>
-      </c>
-      <c r="DV2" s="44" t="s">
-        <v>530</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="DY2" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="DZ2" s="45" t="s">
+      <c r="EA2" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="EC2" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="EA2" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="EC2" s="45" t="s">
+      <c r="ED2" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="ED2" s="45" t="s">
+      <c r="EE2" s="44" t="s">
         <v>534</v>
-      </c>
-      <c r="EE2" s="44" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5622,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -5634,10 +5631,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="BT1" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -5703,10 +5700,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -5736,49 +5733,49 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="DB1" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="DG1" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="DM1" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="DN1" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5786,19 +5783,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -5842,13 +5839,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -5872,7 +5869,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -5881,7 +5878,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -5893,7 +5890,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -5902,7 +5899,7 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>183</v>
@@ -5936,19 +5933,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -5976,16 +5973,16 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR2" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT2" s="9" t="s">
         <v>341</v>
@@ -6016,27 +6013,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM2" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="CL2" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM2" s="9" t="s">
+      <c r="CN2" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN2" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO2" s="9" t="s">
         <v>91</v>
@@ -6047,16 +6044,16 @@
         <v>138</v>
       </c>
       <c r="CS2" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT2" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="CU2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="CV2" s="36" t="s">
         <v>397</v>
-      </c>
-      <c r="CU2" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="CV2" s="36" t="s">
-        <v>398</v>
       </c>
       <c r="CW2" s="9" t="s">
         <v>188</v>
@@ -6068,72 +6065,72 @@
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DE2" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="DF2" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="DF2" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="DG2" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="DH2" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="DK2" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="DL2" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="DM2" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="DH2" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="DK2" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="DL2" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="DM2" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="DN2" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO2" s="46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -6177,13 +6174,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -6207,7 +6204,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -6216,7 +6213,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -6228,7 +6225,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -6237,7 +6234,7 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
@@ -6271,19 +6268,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -6311,16 +6308,16 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR3" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT3" s="9" t="s">
         <v>341</v>
@@ -6351,27 +6348,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL3" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM3" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL3" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM3" s="28" t="s">
+      <c r="CN3" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN3" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -6382,7 +6379,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -6406,7 +6403,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -6418,16 +6415,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="DF3" s="31" t="s">
         <v>415</v>
-      </c>
-      <c r="DF3" s="31" t="s">
-        <v>416</v>
       </c>
       <c r="DG3" s="31">
         <v>6</v>
       </c>
       <c r="DH3" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DI3" s="31">
         <v>2</v>
@@ -6439,16 +6436,16 @@
         <v>1</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DM3" s="9">
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6456,19 +6453,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -6512,13 +6509,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -6542,7 +6539,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -6551,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -6563,7 +6560,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -6572,7 +6569,7 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
@@ -6606,19 +6603,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -6646,16 +6643,16 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR4" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT4" s="9" t="s">
         <v>341</v>
@@ -6688,23 +6685,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL4" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM4" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL4" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM4" s="28" t="s">
+      <c r="CN4" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN4" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -6715,7 +6712,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -6752,30 +6749,30 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -6819,13 +6816,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -6849,7 +6846,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -6858,7 +6855,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -6870,7 +6867,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -6879,7 +6876,7 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
@@ -6913,19 +6910,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -6953,16 +6950,16 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR5" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT5" s="9" t="s">
         <v>341</v>
@@ -6995,23 +6992,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL5" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM5" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL5" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM5" s="28" t="s">
+      <c r="CN5" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN5" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -7022,7 +7019,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -7059,10 +7056,10 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
@@ -7070,19 +7067,19 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -7126,13 +7123,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -7156,7 +7153,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -7165,7 +7162,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -7177,7 +7174,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -7186,7 +7183,7 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
@@ -7220,19 +7217,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -7260,16 +7257,16 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR6" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT6" s="9" t="s">
         <v>341</v>
@@ -7302,23 +7299,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL6" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM6" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL6" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM6" s="28" t="s">
+      <c r="CN6" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN6" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -7329,7 +7326,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -7366,30 +7363,30 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -7433,13 +7430,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -7463,7 +7460,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -7472,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -7484,7 +7481,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -7493,7 +7490,7 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
@@ -7527,19 +7524,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -7567,16 +7564,16 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR7" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT7" s="9" t="s">
         <v>341</v>
@@ -7609,23 +7606,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL7" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM7" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL7" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM7" s="28" t="s">
+      <c r="CN7" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN7" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -7636,7 +7633,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -7673,10 +7670,10 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -7684,19 +7681,19 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -7740,13 +7737,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -7770,7 +7767,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -7779,7 +7776,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -7791,7 +7788,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -7800,7 +7797,7 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
@@ -7834,19 +7831,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -7874,16 +7871,16 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BR8" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BT8" s="9" t="s">
         <v>341</v>
@@ -7916,23 +7913,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CL8" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM8" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="CL8" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM8" s="28" t="s">
+      <c r="CN8" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="CN8" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -7943,7 +7940,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -7980,27 +7977,27 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:119" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C9" s="31">
-        <v>455854</v>
+        <v>573</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="D9" s="31">
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -8287,10 +8284,10 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.3">
@@ -8298,16 +8295,16 @@
         <v>163</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C10" s="31">
-        <v>455854</v>
+        <v>573</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="D10" s="31">
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -8595,24 +8592,24 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C11" s="31">
-        <v>455854</v>
+        <v>573</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="D11" s="31">
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -10309,7 +10306,7 @@
         <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>198</v>
@@ -10318,7 +10315,7 @@
         <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>200</v>
@@ -10339,13 +10336,13 @@
         <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>206</v>
@@ -10435,42 +10432,42 @@
         <v>358</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="BD1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>218</v>
@@ -10482,7 +10479,7 @@
         <v>218</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>218</v>
@@ -10509,13 +10506,13 @@
         <v>218</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>218</v>
@@ -10527,13 +10524,13 @@
         <v>218</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>221</v>
@@ -10542,10 +10539,10 @@
         <v>34</v>
       </c>
       <c r="AB2" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>222</v>
@@ -10569,13 +10566,13 @@
         <v>225</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN2" s="9" t="s">
         <v>365</v>
@@ -10595,7 +10592,7 @@
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>362</v>
@@ -10604,19 +10601,19 @@
         <v>363</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="9"/>
@@ -10626,28 +10623,28 @@
     </row>
     <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>218</v>
@@ -10674,13 +10671,13 @@
         <v>218</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>218</v>
@@ -10692,13 +10689,13 @@
         <v>218</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>221</v>
@@ -10707,10 +10704,10 @@
         <v>34</v>
       </c>
       <c r="AB3" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>222</v>
@@ -10734,13 +10731,13 @@
         <v>225</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>365</v>
@@ -10760,7 +10757,7 @@
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>362</v>
@@ -10769,16 +10766,16 @@
         <v>363</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY3" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -10789,31 +10786,31 @@
     </row>
     <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>134</v>
@@ -10837,13 +10834,13 @@
         <v>218</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>218</v>
@@ -10855,13 +10852,13 @@
         <v>218</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>221</v>
@@ -10870,10 +10867,10 @@
         <v>34</v>
       </c>
       <c r="AB4" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>222</v>
@@ -10897,13 +10894,13 @@
         <v>225</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN4" s="9" t="s">
         <v>365</v>
@@ -10923,7 +10920,7 @@
         <v>34</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>362</v>
@@ -10932,16 +10929,16 @@
         <v>363</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -10952,16 +10949,16 @@
     </row>
     <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>218</v>
@@ -10973,7 +10970,7 @@
         <v>218</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>218</v>
@@ -11000,13 +10997,13 @@
         <v>218</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>218</v>
@@ -11018,13 +11015,13 @@
         <v>218</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>221</v>
@@ -11033,10 +11030,10 @@
         <v>34</v>
       </c>
       <c r="AB5" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC5" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>222</v>
@@ -11060,13 +11057,13 @@
         <v>225</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN5" s="9" t="s">
         <v>365</v>
@@ -11086,7 +11083,7 @@
         <v>34</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>362</v>
@@ -11095,19 +11092,19 @@
         <v>363</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY5" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -11117,13 +11114,13 @@
     </row>
     <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>218</v>
@@ -11165,13 +11162,13 @@
         <v>218</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>218</v>
@@ -11183,13 +11180,13 @@
         <v>218</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>221</v>
@@ -11198,10 +11195,10 @@
         <v>34</v>
       </c>
       <c r="AB6" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>222</v>
@@ -11225,13 +11222,13 @@
         <v>225</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN6" s="9" t="s">
         <v>365</v>
@@ -11251,7 +11248,7 @@
         <v>34</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>362</v>
@@ -11260,19 +11257,19 @@
         <v>363</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY6" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9"/>
@@ -11282,10 +11279,10 @@
     </row>
     <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>218</v>
@@ -11294,13 +11291,13 @@
         <v>218</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>218</v>
@@ -11330,13 +11327,13 @@
         <v>218</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>218</v>
@@ -11348,13 +11345,13 @@
         <v>218</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>221</v>
@@ -11363,10 +11360,10 @@
         <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC7" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>222</v>
@@ -11390,13 +11387,13 @@
         <v>225</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN7" s="9" t="s">
         <v>365</v>
@@ -11416,7 +11413,7 @@
         <v>34</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>362</v>
@@ -11425,19 +11422,19 @@
         <v>363</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY7" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -11447,10 +11444,10 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>218</v>
@@ -11495,13 +11492,13 @@
         <v>218</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>218</v>
@@ -11513,13 +11510,13 @@
         <v>218</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>221</v>
@@ -11528,10 +11525,10 @@
         <v>34</v>
       </c>
       <c r="AB8" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC8" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>222</v>
@@ -11555,13 +11552,13 @@
         <v>225</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN8" s="9" t="s">
         <v>365</v>
@@ -11581,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>362</v>
@@ -11590,19 +11587,19 @@
         <v>363</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -11612,28 +11609,28 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>218</v>
@@ -11660,13 +11657,13 @@
         <v>218</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>218</v>
@@ -11678,13 +11675,13 @@
         <v>218</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>221</v>
@@ -11693,10 +11690,10 @@
         <v>34</v>
       </c>
       <c r="AB9" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC9" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>222</v>
@@ -11720,13 +11717,13 @@
         <v>225</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN9" s="9" t="s">
         <v>365</v>
@@ -11746,7 +11743,7 @@
         <v>34</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>362</v>
@@ -11755,16 +11752,16 @@
         <v>363</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY9" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -11775,28 +11772,28 @@
     </row>
     <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>218</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>218</v>
@@ -11823,13 +11820,13 @@
         <v>218</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T10" s="48" t="s">
         <v>218</v>
@@ -11841,13 +11838,13 @@
         <v>218</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X10" s="48" t="s">
         <v>220</v>
       </c>
       <c r="Y10" s="48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z10" s="48" t="s">
         <v>221</v>
@@ -11856,10 +11853,10 @@
         <v>34</v>
       </c>
       <c r="AB10" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC10" s="48" t="s">
         <v>563</v>
-      </c>
-      <c r="AC10" s="48" t="s">
-        <v>564</v>
       </c>
       <c r="AD10" s="50" t="s">
         <v>222</v>
@@ -11883,13 +11880,13 @@
         <v>225</v>
       </c>
       <c r="AK10" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL10" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM10" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN10" s="48" t="s">
         <v>365</v>
@@ -11909,7 +11906,7 @@
         <v>34</v>
       </c>
       <c r="AU10" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV10" s="48" t="s">
         <v>362</v>
@@ -11918,16 +11915,16 @@
         <v>363</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY10" s="48" t="s">
         <v>364</v>
       </c>
       <c r="AZ10" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA10" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB10" s="48"/>
       <c r="BC10" s="48"/>
@@ -11938,10 +11935,10 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>218</v>
@@ -11956,10 +11953,10 @@
         <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>218</v>
@@ -11986,13 +11983,13 @@
         <v>218</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>218</v>
@@ -12004,13 +12001,13 @@
         <v>218</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>221</v>
@@ -12019,10 +12016,10 @@
         <v>34</v>
       </c>
       <c r="AB11" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC11" s="9" t="s">
         <v>563</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>564</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>222</v>
@@ -12046,13 +12043,13 @@
         <v>225</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN11" s="9" t="s">
         <v>365</v>
@@ -12072,7 +12069,7 @@
         <v>34</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>362</v>
@@ -12081,19 +12078,19 @@
         <v>363</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AY11" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="2"/>
@@ -12103,10 +12100,10 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>218</v>
@@ -12121,10 +12118,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>218</v>
@@ -12157,7 +12154,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>218</v>
@@ -12217,7 +12214,7 @@
         <v>124421</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN12" s="2" t="s">
         <v>365</v>
@@ -12252,17 +12249,17 @@
         <v>364</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>218</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="575">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1180,6 +1180,9 @@
     <t>SMSIssuerBIN</t>
   </si>
   <si>
+    <t>455854</t>
+  </si>
+  <si>
     <t>8520</t>
   </si>
   <si>
@@ -1750,7 +1753,7 @@
     <t>ExistingInstitutionCode</t>
   </si>
   <si>
-    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -3819,49 +3822,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -3972,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4011,7 +4014,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4047,7 +4050,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4152,129 +4155,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="DP1" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DQ1" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="DR1" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="DS1" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DT1" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DU1" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="DV1" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="DW1" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="DX1" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="DY1" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="DZ1" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="EA1" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="EB1" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="EC1" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="ED1" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EE1" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4302,16 +4305,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4332,7 +4335,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -4369,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4381,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -4399,7 +4402,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -4414,7 +4417,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -4429,20 +4432,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4458,10 +4461,10 @@
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -4469,13 +4472,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>341</v>
@@ -4492,22 +4495,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CY2" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CZ2" s="41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="DA2" s="41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -4529,67 +4532,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="DP2" s="44" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="DQ2" s="44" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="DR2" s="44" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="DS2" s="45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="DT2" s="45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="DU2" s="45" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="DV2" s="44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="DY2" s="45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="DZ2" s="45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="EA2" s="45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="EB2" s="45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="EC2" s="45" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="ED2" s="45" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EE2" s="44" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4618,49 +4621,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -4771,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4810,7 +4813,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4846,7 +4849,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4951,129 +4954,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="DP1" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="DQ1" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="DR1" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="DS1" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="DT1" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="DU1" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="DV1" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="DW1" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="DX1" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="DY1" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="DZ1" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="EA1" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="EB1" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="EC1" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="ED1" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EE1" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5101,16 +5104,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5131,7 +5134,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5168,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5180,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5198,7 +5201,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -5213,7 +5216,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -5228,20 +5231,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5257,10 +5260,10 @@
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -5268,13 +5271,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>341</v>
@@ -5291,22 +5294,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CY2" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CZ2" s="41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="DA2" s="41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -5328,67 +5331,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="DP2" s="44" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="DQ2" s="44" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="DR2" s="44" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="DS2" s="45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="DT2" s="45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="DU2" s="45" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="DV2" s="44" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="DY2" s="45" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="DZ2" s="45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="EA2" s="45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="EB2" s="45" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="EC2" s="45" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="ED2" s="45" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="EE2" s="44" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5404,7 @@
   <dimension ref="A1:DO177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5622,7 +5625,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -5631,10 +5634,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -5700,10 +5703,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -5733,49 +5736,49 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5783,19 +5786,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -5839,13 +5842,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -5869,7 +5872,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -5878,7 +5881,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -5890,7 +5893,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -5899,7 +5902,7 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>183</v>
@@ -5933,19 +5936,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -5973,16 +5976,16 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR2" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT2" s="9" t="s">
         <v>341</v>
@@ -6013,27 +6016,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL2" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM2" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO2" s="9" t="s">
         <v>91</v>
@@ -6044,16 +6047,16 @@
         <v>138</v>
       </c>
       <c r="CS2" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT2" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="CU2" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CV2" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="CW2" s="9" t="s">
         <v>188</v>
@@ -6065,72 +6068,72 @@
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DE2" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="DF2" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DH2" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="DK2" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="DL2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="DM2" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="DN2" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="DI2" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="DK2" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="DL2" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="DM2" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="DN2" s="28" t="s">
-        <v>553</v>
-      </c>
       <c r="DO2" s="46" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -6174,13 +6177,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -6204,7 +6207,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -6213,7 +6216,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -6225,7 +6228,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -6234,7 +6237,7 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
@@ -6268,19 +6271,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -6308,16 +6311,16 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR3" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT3" s="9" t="s">
         <v>341</v>
@@ -6348,27 +6351,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL3" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM3" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -6379,7 +6382,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -6403,7 +6406,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -6415,16 +6418,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="DF3" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="DG3" s="31">
         <v>6</v>
       </c>
       <c r="DH3" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="DI3" s="31">
         <v>2</v>
@@ -6436,16 +6439,16 @@
         <v>1</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="DM3" s="9">
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6453,19 +6456,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -6509,13 +6512,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -6539,7 +6542,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -6548,7 +6551,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -6560,7 +6563,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -6569,7 +6572,7 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
@@ -6603,19 +6606,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -6643,16 +6646,16 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR4" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT4" s="9" t="s">
         <v>341</v>
@@ -6685,23 +6688,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL4" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM4" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -6712,7 +6715,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -6749,30 +6752,30 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -6816,13 +6819,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -6846,7 +6849,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -6855,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -6867,7 +6870,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -6876,7 +6879,7 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
@@ -6910,19 +6913,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -6950,16 +6953,16 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR5" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT5" s="9" t="s">
         <v>341</v>
@@ -6992,23 +6995,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL5" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM5" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -7019,7 +7022,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -7056,10 +7059,10 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
@@ -7067,19 +7070,19 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -7123,13 +7126,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -7153,7 +7156,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -7162,7 +7165,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -7174,7 +7177,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -7183,7 +7186,7 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
@@ -7217,19 +7220,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -7257,16 +7260,16 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR6" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT6" s="9" t="s">
         <v>341</v>
@@ -7299,23 +7302,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL6" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM6" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -7326,7 +7329,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -7363,30 +7366,30 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -7430,13 +7433,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -7460,7 +7463,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -7469,7 +7472,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -7481,7 +7484,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -7490,7 +7493,7 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
@@ -7524,19 +7527,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -7564,16 +7567,16 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR7" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT7" s="9" t="s">
         <v>341</v>
@@ -7606,23 +7609,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL7" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM7" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -7633,7 +7636,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -7670,10 +7673,10 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -7681,19 +7684,19 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -7737,13 +7740,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -7767,7 +7770,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -7776,7 +7779,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -7788,7 +7791,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -7797,7 +7800,7 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
@@ -7831,19 +7834,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -7871,16 +7874,16 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BR8" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BT8" s="9" t="s">
         <v>341</v>
@@ -7913,23 +7916,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="CM8" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -7940,7 +7943,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -7977,27 +7980,27 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:119" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D9" s="31">
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -8284,10 +8287,10 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.3">
@@ -8295,16 +8298,16 @@
         <v>163</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D10" s="31">
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -8592,24 +8595,24 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="D11" s="31">
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -9397,8 +9400,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+    <hyperlink ref="B3:B11" r:id="rId1" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -10306,7 +10309,7 @@
         <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>198</v>
@@ -10315,7 +10318,7 @@
         <v>199</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>200</v>
@@ -10336,13 +10339,13 @@
         <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>206</v>
@@ -10432,42 +10435,42 @@
         <v>358</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>218</v>
@@ -10479,7 +10482,7 @@
         <v>218</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>218</v>
@@ -10506,13 +10509,13 @@
         <v>218</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>218</v>
@@ -10524,13 +10527,13 @@
         <v>218</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>221</v>
@@ -10539,10 +10542,10 @@
         <v>34</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>222</v>
@@ -10566,13 +10569,13 @@
         <v>225</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN2" s="9" t="s">
         <v>365</v>
@@ -10592,7 +10595,7 @@
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>362</v>
@@ -10601,19 +10604,19 @@
         <v>363</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="9"/>
@@ -10623,28 +10626,28 @@
     </row>
     <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>218</v>
@@ -10671,13 +10674,13 @@
         <v>218</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>218</v>
@@ -10689,13 +10692,13 @@
         <v>218</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>221</v>
@@ -10704,10 +10707,10 @@
         <v>34</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>222</v>
@@ -10731,13 +10734,13 @@
         <v>225</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>365</v>
@@ -10757,7 +10760,7 @@
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>362</v>
@@ -10766,16 +10769,16 @@
         <v>363</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY3" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -10786,31 +10789,31 @@
     </row>
     <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>134</v>
@@ -10834,13 +10837,13 @@
         <v>218</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>218</v>
@@ -10852,13 +10855,13 @@
         <v>218</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>221</v>
@@ -10867,10 +10870,10 @@
         <v>34</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>222</v>
@@ -10894,13 +10897,13 @@
         <v>225</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN4" s="9" t="s">
         <v>365</v>
@@ -10920,7 +10923,7 @@
         <v>34</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>362</v>
@@ -10929,16 +10932,16 @@
         <v>363</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -10949,16 +10952,16 @@
     </row>
     <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>218</v>
@@ -10970,7 +10973,7 @@
         <v>218</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>218</v>
@@ -10997,13 +11000,13 @@
         <v>218</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>218</v>
@@ -11015,13 +11018,13 @@
         <v>218</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>221</v>
@@ -11030,10 +11033,10 @@
         <v>34</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>222</v>
@@ -11057,13 +11060,13 @@
         <v>225</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN5" s="9" t="s">
         <v>365</v>
@@ -11083,7 +11086,7 @@
         <v>34</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>362</v>
@@ -11092,19 +11095,19 @@
         <v>363</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY5" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -11114,13 +11117,13 @@
     </row>
     <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>218</v>
@@ -11162,13 +11165,13 @@
         <v>218</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>218</v>
@@ -11180,13 +11183,13 @@
         <v>218</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>221</v>
@@ -11195,10 +11198,10 @@
         <v>34</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>222</v>
@@ -11222,13 +11225,13 @@
         <v>225</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN6" s="9" t="s">
         <v>365</v>
@@ -11248,7 +11251,7 @@
         <v>34</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>362</v>
@@ -11257,19 +11260,19 @@
         <v>363</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY6" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9"/>
@@ -11279,10 +11282,10 @@
     </row>
     <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>218</v>
@@ -11291,13 +11294,13 @@
         <v>218</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>218</v>
@@ -11327,13 +11330,13 @@
         <v>218</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>218</v>
@@ -11345,13 +11348,13 @@
         <v>218</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>221</v>
@@ -11360,10 +11363,10 @@
         <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>222</v>
@@ -11387,13 +11390,13 @@
         <v>225</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN7" s="9" t="s">
         <v>365</v>
@@ -11413,7 +11416,7 @@
         <v>34</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>362</v>
@@ -11422,19 +11425,19 @@
         <v>363</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY7" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -11444,10 +11447,10 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>218</v>
@@ -11492,13 +11495,13 @@
         <v>218</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>218</v>
@@ -11510,13 +11513,13 @@
         <v>218</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>221</v>
@@ -11525,10 +11528,10 @@
         <v>34</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>222</v>
@@ -11552,13 +11555,13 @@
         <v>225</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN8" s="9" t="s">
         <v>365</v>
@@ -11578,7 +11581,7 @@
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>362</v>
@@ -11587,19 +11590,19 @@
         <v>363</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -11609,28 +11612,28 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>218</v>
@@ -11657,13 +11660,13 @@
         <v>218</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>218</v>
@@ -11675,13 +11678,13 @@
         <v>218</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>221</v>
@@ -11690,10 +11693,10 @@
         <v>34</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>222</v>
@@ -11717,13 +11720,13 @@
         <v>225</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN9" s="9" t="s">
         <v>365</v>
@@ -11743,7 +11746,7 @@
         <v>34</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>362</v>
@@ -11752,16 +11755,16 @@
         <v>363</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY9" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -11772,28 +11775,28 @@
     </row>
     <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>218</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>218</v>
@@ -11820,13 +11823,13 @@
         <v>218</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T10" s="48" t="s">
         <v>218</v>
@@ -11838,13 +11841,13 @@
         <v>218</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X10" s="48" t="s">
         <v>220</v>
       </c>
       <c r="Y10" s="48" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z10" s="48" t="s">
         <v>221</v>
@@ -11853,10 +11856,10 @@
         <v>34</v>
       </c>
       <c r="AB10" s="48" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC10" s="48" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD10" s="50" t="s">
         <v>222</v>
@@ -11880,13 +11883,13 @@
         <v>225</v>
       </c>
       <c r="AK10" s="48" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL10" s="48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM10" s="48" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN10" s="48" t="s">
         <v>365</v>
@@ -11906,7 +11909,7 @@
         <v>34</v>
       </c>
       <c r="AU10" s="48" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV10" s="48" t="s">
         <v>362</v>
@@ -11915,16 +11918,16 @@
         <v>363</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY10" s="48" t="s">
         <v>364</v>
       </c>
       <c r="AZ10" s="48" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA10" s="48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB10" s="48"/>
       <c r="BC10" s="48"/>
@@ -11935,10 +11938,10 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>218</v>
@@ -11953,10 +11956,10 @@
         <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>218</v>
@@ -11983,13 +11986,13 @@
         <v>218</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>218</v>
@@ -12001,13 +12004,13 @@
         <v>218</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>220</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>221</v>
@@ -12016,10 +12019,10 @@
         <v>34</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>222</v>
@@ -12043,13 +12046,13 @@
         <v>225</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN11" s="9" t="s">
         <v>365</v>
@@ -12069,7 +12072,7 @@
         <v>34</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>362</v>
@@ -12078,19 +12081,19 @@
         <v>363</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AY11" s="9" t="s">
         <v>364</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="2"/>
@@ -12100,10 +12103,10 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>218</v>
@@ -12118,10 +12121,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>218</v>
@@ -12154,7 +12157,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>218</v>
@@ -12214,7 +12217,7 @@
         <v>124421</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN12" s="2" t="s">
         <v>365</v>
@@ -12249,17 +12252,17 @@
         <v>364</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>218</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="568">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1594,9 +1594,6 @@
     <t>TC_Application_Upload_Prepaid</t>
   </si>
   <si>
-    <t>http://ech-10-168-128-251.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
-  </si>
-  <si>
     <t>AUTO [121212]</t>
   </si>
   <si>
@@ -1727,6 +1724,15 @@
   </si>
   <si>
     <t>http://ech-10-168-128-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
+  </si>
+  <si>
+    <t>WalletPlanDescription</t>
+  </si>
+  <si>
+    <t>WalletPlancode</t>
   </si>
 </sst>
 </file>
@@ -4186,64 +4192,64 @@
     </row>
     <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
         <v>564</v>
       </c>
-      <c r="B2" t="s">
-        <v>565</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="40" t="s">
         <v>536</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>537</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4271,16 +4277,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4301,7 +4307,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -4338,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4350,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -4368,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -4398,20 +4404,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4438,13 +4444,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>355</v>
@@ -4461,7 +4467,7 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
@@ -4498,40 +4504,40 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="DL2" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DM2" s="12" t="s">
         <v>550</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="DP2" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DQ2" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DR2" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DS2" s="45" t="s">
         <v>555</v>
-      </c>
-      <c r="DS2" s="45" t="s">
-        <v>556</v>
       </c>
       <c r="DT2" s="45" t="s">
         <v>405</v>
       </c>
       <c r="DU2" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="DV2" s="44" t="s">
         <v>557</v>
-      </c>
-      <c r="DV2" s="44" t="s">
-        <v>558</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
@@ -4540,25 +4546,25 @@
         <v>404</v>
       </c>
       <c r="DY2" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="DZ2" s="45" t="s">
+      <c r="EA2" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="EC2" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="EA2" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="EC2" s="45" t="s">
+      <c r="ED2" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="ED2" s="45" t="s">
+      <c r="EE2" s="44" t="s">
         <v>562</v>
-      </c>
-      <c r="EE2" s="44" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4568,15 +4574,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE2"/>
+  <dimension ref="A1:EG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
+      <selection activeCell="DY12" sqref="DY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:137" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4977,72 +4983,78 @@
         <v>517</v>
       </c>
       <c r="ED1" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="EE1" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="EF1" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="EE1" s="37" t="s">
+      <c r="EG1" s="37" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:137" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="M2" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="40" t="s">
         <v>536</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>537</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5070,16 +5082,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5100,7 +5112,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5137,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5149,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5167,7 +5179,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -5197,20 +5209,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5237,13 +5249,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="CP2" s="41" t="s">
         <v>355</v>
@@ -5260,7 +5272,7 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
@@ -5297,40 +5309,40 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="DL2" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DM2" s="12" t="s">
         <v>550</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="DP2" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DQ2" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DR2" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DS2" s="45" t="s">
         <v>555</v>
-      </c>
-      <c r="DS2" s="45" t="s">
-        <v>556</v>
       </c>
       <c r="DT2" s="45" t="s">
         <v>405</v>
       </c>
       <c r="DU2" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="DV2" s="44" t="s">
         <v>557</v>
-      </c>
-      <c r="DV2" s="44" t="s">
-        <v>558</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
@@ -5339,25 +5351,27 @@
         <v>404</v>
       </c>
       <c r="DY2" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="DZ2" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="DZ2" s="45" t="s">
+      <c r="EA2" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="EB2" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="EC2" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="EA2" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="EC2" s="45" t="s">
+      <c r="ED2" s="45"/>
+      <c r="EE2" s="45"/>
+      <c r="EF2" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="ED2" s="45" t="s">
+      <c r="EG2" s="44" t="s">
         <v>562</v>
-      </c>
-      <c r="EE2" s="44" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="563">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -457,9 +457,6 @@
     <t>EMV Card [2]</t>
   </si>
   <si>
-    <t>HDFCVendor02</t>
-  </si>
-  <si>
     <t>MagneticStripProgram</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>Aut011</t>
   </si>
   <si>
-    <t>Aut012</t>
-  </si>
-  <si>
     <t>HDFCVendor01 [Aut011]</t>
   </si>
   <si>
@@ -487,12 +481,6 @@
     <t>Physical NFC Device - Mag Stripe Paypass [3]</t>
   </si>
   <si>
-    <t>Aut013</t>
-  </si>
-  <si>
-    <t>HDFCVendor03</t>
-  </si>
-  <si>
     <t>NFCMagneticProgram</t>
   </si>
   <si>
@@ -505,12 +493,6 @@
     <t>Physical NFC Device - EMV Paypass [4]</t>
   </si>
   <si>
-    <t>Aut014</t>
-  </si>
-  <si>
-    <t>HDFCVendor04</t>
-  </si>
-  <si>
     <t>NFCEmvProgram</t>
   </si>
   <si>
@@ -526,12 +508,6 @@
     <t>Physical NFC Device - Paypass [5]</t>
   </si>
   <si>
-    <t>Aut015</t>
-  </si>
-  <si>
-    <t>HDFCVendor05</t>
-  </si>
-  <si>
     <t>NFCDeviceProgram</t>
   </si>
   <si>
@@ -712,18 +688,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>HDFCVendor02 [Aut012]</t>
-  </si>
-  <si>
-    <t>HDFCVendor03 [Aut013]</t>
-  </si>
-  <si>
-    <t>HDFCVendor04 [Aut014]</t>
-  </si>
-  <si>
-    <t>HDFCVendor05 [Aut015]</t>
-  </si>
-  <si>
     <t>PRIYA</t>
   </si>
   <si>
@@ -1180,9 +1144,6 @@
     <t>SMSIssuerBIN</t>
   </si>
   <si>
-    <t>455854</t>
-  </si>
-  <si>
     <t>8520</t>
   </si>
   <si>
@@ -1195,9 +1156,6 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1228,15 +1186,6 @@
     <t>120345</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
     <t>EndDate</t>
   </si>
   <si>
@@ -1753,7 +1702,22 @@
     <t>ExistingInstitutionCode</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+    <t>HDFCVendor</t>
+  </si>
+  <si>
+    <t>EMBF52</t>
+  </si>
+  <si>
+    <t>INAUTOEmboss</t>
+  </si>
+  <si>
+    <t>VEN52</t>
+  </si>
+  <si>
+    <t>HDFCVendor01 [VEN52]</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2703,7 +2667,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -2903,73 +2867,73 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -2981,10 +2945,10 @@
         <v>11111111111</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N2" s="11">
         <v>123460</v>
@@ -2993,36 +2957,36 @@
         <v>11111111111</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -3034,10 +2998,10 @@
         <v>11111111111</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N3" s="11">
         <v>123461</v>
@@ -3046,36 +3010,36 @@
         <v>11111111111</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -3087,10 +3051,10 @@
         <v>11111111111</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N4" s="11">
         <v>123461</v>
@@ -3099,36 +3063,36 @@
         <v>11111111111</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -3140,10 +3104,10 @@
         <v>11111111111</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N5" s="11">
         <v>123460</v>
@@ -3152,36 +3116,36 @@
         <v>11111111111</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -3193,10 +3157,10 @@
         <v>11111111111</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N6" s="11">
         <v>123460</v>
@@ -3205,10 +3169,10 @@
         <v>11111111111</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3240,13 +3204,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3257,142 +3221,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3433,43 +3397,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -3477,42 +3441,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -3568,84 +3532,84 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -3653,40 +3617,40 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3723,69 +3687,69 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3816,61 +3780,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>130</v>
@@ -3891,10 +3855,10 @@
         <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>75</v>
@@ -3975,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4008,13 +3972,13 @@
         <v>21</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="BO1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4050,7 +4014,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4134,19 +4098,19 @@
         <v>137</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="DI1" s="4" t="s">
         <v>90</v>
@@ -4155,129 +4119,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="DP1" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="DQ1" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="DR1" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="DS1" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="DT1" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="DU1" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="DV1" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="DW1" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="DX1" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="DY1" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="DZ1" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="EA1" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="EB1" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="EC1" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="ED1" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="EE1" s="37" t="s">
         <v>474</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="DP1" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="DQ1" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="DR1" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="DS1" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="DT1" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="DU1" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="DV1" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="DW1" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="DX1" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="DY1" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="DZ1" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="EA1" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="EB1" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="EC1" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="ED1" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4305,16 +4269,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4335,13 +4299,13 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AS2" s="12" t="s">
         <v>119</v>
@@ -4372,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4384,28 +4348,28 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
       </c>
       <c r="BI2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ2" s="12" t="s">
         <v>79</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BL2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="BN2" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="BO2" s="12" t="s">
         <v>30</v>
@@ -4417,7 +4381,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -4432,20 +4396,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4454,17 +4418,17 @@
         <v>134</v>
       </c>
       <c r="CE2" s="12" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="CF2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -4472,16 +4436,16 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="CN2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="CP2" s="41" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CQ2" s="11" t="s">
         <v>48</v>
@@ -4495,22 +4459,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CY2" s="41" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CZ2" s="41" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="DA2" s="41" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -4523,76 +4487,76 @@
       <c r="DF2" s="12"/>
       <c r="DG2" s="12"/>
       <c r="DH2" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="DI2" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="DJ2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="DN2" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="DO2" s="11" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="DP2" s="44" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="DQ2" s="44" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="DR2" s="44" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="DS2" s="45" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="DT2" s="45" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="DU2" s="45" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="DV2" s="44" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="DY2" s="45" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="DZ2" s="45" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="EA2" s="45" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="EB2" s="45" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="EC2" s="45" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="ED2" s="45" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="EE2" s="44" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4615,61 +4579,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>130</v>
@@ -4690,10 +4654,10 @@
         <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>75</v>
@@ -4774,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4807,13 +4771,13 @@
         <v>21</v>
       </c>
       <c r="BN1" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="BO1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4849,7 +4813,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4933,19 +4897,19 @@
         <v>137</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="DI1" s="4" t="s">
         <v>90</v>
@@ -4954,129 +4918,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="DP1" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="DQ1" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="DR1" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="DS1" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="DT1" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="DU1" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="DV1" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="DW1" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="DX1" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="DY1" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="DZ1" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="EA1" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="EB1" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="EC1" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="ED1" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="EE1" s="37" t="s">
         <v>474</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DO1" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="DP1" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="DQ1" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="DR1" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="DS1" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="DT1" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="DU1" s="37" t="s">
-        <v>481</v>
-      </c>
-      <c r="DV1" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="DW1" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="DX1" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="DY1" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="DZ1" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="EA1" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="EB1" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="EC1" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="ED1" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="N2" s="40" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5104,16 +5068,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5134,13 +5098,13 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AS2" s="12" t="s">
         <v>119</v>
@@ -5171,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5183,28 +5147,28 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
       </c>
       <c r="BI2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BJ2" s="12" t="s">
         <v>79</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BL2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="BN2" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="BO2" s="12" t="s">
         <v>30</v>
@@ -5216,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="42" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -5231,20 +5195,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="BX2" s="43"/>
       <c r="BY2" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5253,17 +5217,17 @@
         <v>134</v>
       </c>
       <c r="CE2" s="12" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="CF2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="43" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CI2" s="43" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="CJ2" s="41"/>
       <c r="CK2" s="41"/>
@@ -5271,16 +5235,16 @@
         <v>40</v>
       </c>
       <c r="CM2" s="43" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="CN2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="CP2" s="41" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CQ2" s="11" t="s">
         <v>48</v>
@@ -5294,22 +5258,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="41" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="41" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CY2" s="41" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CZ2" s="41" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="DA2" s="41" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -5322,76 +5286,76 @@
       <c r="DF2" s="12"/>
       <c r="DG2" s="12"/>
       <c r="DH2" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="DI2" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="DJ2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="DN2" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="DO2" s="11" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="DP2" s="44" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="DQ2" s="44" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="DR2" s="44" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="DS2" s="45" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="DT2" s="45" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="DU2" s="45" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="DV2" s="44" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="DW2" s="44" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="45" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="DY2" s="45" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="DZ2" s="45" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="EA2" s="45" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="EB2" s="45" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="EC2" s="45" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="ED2" s="45" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="EE2" s="44" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5368,7 @@
   <dimension ref="A1:DO177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5427,13 +5391,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5472,10 +5436,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -5571,7 +5535,7 @@
         <v>21</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AY1" s="4" t="s">
         <v>22</v>
@@ -5625,7 +5589,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -5634,10 +5598,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -5673,16 +5637,16 @@
         <v>50</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="CJ1" s="4" t="s">
         <v>94</v>
@@ -5703,28 +5667,28 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
       </c>
       <c r="CS1" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="CT1" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>90</v>
@@ -5736,49 +5700,49 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5786,19 +5750,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -5821,34 +5785,34 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U2" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -5863,7 +5827,7 @@
         <v>120</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>119</v>
@@ -5872,16 +5836,16 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>388</v>
+        <v>558</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -5893,7 +5857,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -5902,29 +5866,29 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ2" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
       <c r="AT2" s="28" t="s">
         <v>79</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>149</v>
+        <v>561</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW2" s="29"/>
       <c r="AX2" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY2" s="28" t="s">
         <v>30</v>
@@ -5936,29 +5900,29 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH2" s="28"/>
       <c r="BI2" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BJ2" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK2" s="28" t="s">
         <v>136</v>
@@ -5976,19 +5940,19 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR2" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT2" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU2" s="9"/>
       <c r="BV2" s="9"/>
@@ -5998,13 +5962,13 @@
       </c>
       <c r="BY2" s="9"/>
       <c r="BZ2" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CA2" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB2" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC2" s="9" t="s">
         <v>48</v>
@@ -6016,27 +5980,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL2" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM2" s="9" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO2" s="9" t="s">
         <v>91</v>
@@ -6047,93 +6011,93 @@
         <v>138</v>
       </c>
       <c r="CS2" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT2" s="35" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="CU2" s="9" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CV2" s="36" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="CW2" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX2" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DE2" s="9" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="DF2" s="9" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="DH2" s="9" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="DJ2" s="9" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="DK2" s="35" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="DL2" s="9" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="DN2" s="28" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO2" s="46" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -6156,34 +6120,34 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U3" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -6198,7 +6162,7 @@
         <v>120</v>
       </c>
       <c r="AC3" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>119</v>
@@ -6207,16 +6171,16 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>388</v>
+        <v>558</v>
       </c>
       <c r="AG3" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -6228,7 +6192,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -6237,29 +6201,29 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ3" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
       <c r="AT3" s="28" t="s">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AU3" s="28" t="s">
-        <v>149</v>
+        <v>561</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW3" s="29"/>
       <c r="AX3" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY3" s="28" t="s">
         <v>30</v>
@@ -6271,29 +6235,29 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH3" s="28"/>
       <c r="BI3" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BJ3" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK3" s="28" t="s">
         <v>136</v>
@@ -6311,19 +6275,19 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR3" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9"/>
@@ -6333,13 +6297,13 @@
       </c>
       <c r="BY3" s="9"/>
       <c r="BZ3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CA3" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC3" s="9" t="s">
         <v>48</v>
@@ -6351,27 +6315,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL3" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM3" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -6382,7 +6346,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -6394,10 +6358,10 @@
         <v>120345</v>
       </c>
       <c r="CW3" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX3" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY3" s="31" t="s">
         <v>53</v>
@@ -6406,7 +6370,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -6418,37 +6382,37 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="DF3" s="31" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="DG3" s="31">
         <v>6</v>
       </c>
       <c r="DH3" s="31" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="DI3" s="31">
         <v>2</v>
       </c>
       <c r="DJ3" s="31" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="DK3" s="31">
         <v>1</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="DM3" s="9">
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6456,19 +6420,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -6491,34 +6455,34 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T4" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -6533,7 +6497,7 @@
         <v>120</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>119</v>
@@ -6542,16 +6506,16 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -6563,7 +6527,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -6572,29 +6536,29 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ4" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS4" s="28" t="s">
-        <v>148</v>
+        <v>560</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>142</v>
+        <v>557</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>227</v>
+        <v>561</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW4" s="29"/>
       <c r="AX4" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY4" s="28" t="s">
         <v>30</v>
@@ -6606,29 +6570,29 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH4" s="28"/>
       <c r="BI4" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BJ4" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK4" s="28" t="s">
         <v>136</v>
@@ -6646,19 +6610,19 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR4" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
@@ -6668,13 +6632,13 @@
       </c>
       <c r="BY4" s="9"/>
       <c r="BZ4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CA4" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -6688,23 +6652,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL4" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM4" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -6715,7 +6679,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -6727,10 +6691,10 @@
         <v>120345</v>
       </c>
       <c r="CW4" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX4" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY4" s="31" t="s">
         <v>53</v>
@@ -6752,30 +6716,30 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -6798,34 +6762,34 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T5" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U5" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -6840,7 +6804,7 @@
         <v>120</v>
       </c>
       <c r="AC5" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>119</v>
@@ -6849,16 +6813,16 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -6870,7 +6834,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -6879,29 +6843,29 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ5" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>148</v>
+        <v>560</v>
       </c>
       <c r="AT5" s="28" t="s">
-        <v>142</v>
+        <v>557</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>227</v>
+        <v>561</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW5" s="29"/>
       <c r="AX5" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY5" s="28" t="s">
         <v>30</v>
@@ -6913,29 +6877,29 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH5" s="28"/>
       <c r="BI5" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BJ5" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK5" s="28" t="s">
         <v>136</v>
@@ -6953,19 +6917,19 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR5" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
@@ -6975,13 +6939,13 @@
       </c>
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CA5" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -6995,23 +6959,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL5" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM5" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -7022,7 +6986,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -7034,10 +6998,10 @@
         <v>120345</v>
       </c>
       <c r="CW5" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX5" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY5" s="31" t="s">
         <v>53</v>
@@ -7059,30 +7023,30 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -7101,38 +7065,38 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -7147,7 +7111,7 @@
         <v>120</v>
       </c>
       <c r="AC6" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>119</v>
@@ -7156,16 +7120,16 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -7177,7 +7141,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -7186,29 +7150,29 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ6" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>152</v>
+        <v>560</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>153</v>
+        <v>557</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>228</v>
+        <v>561</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW6" s="29"/>
       <c r="AX6" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY6" s="28" t="s">
         <v>30</v>
@@ -7220,29 +7184,29 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH6" s="28"/>
       <c r="BI6" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BJ6" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK6" s="28" t="s">
         <v>136</v>
@@ -7260,19 +7224,19 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR6" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
@@ -7282,13 +7246,13 @@
       </c>
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="CA6" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB6" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC6" s="9" t="s">
         <v>48</v>
@@ -7302,23 +7266,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL6" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM6" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -7329,7 +7293,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -7341,10 +7305,10 @@
         <v>120345</v>
       </c>
       <c r="CW6" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX6" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY6" s="31" t="s">
         <v>53</v>
@@ -7366,30 +7330,30 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -7408,38 +7372,38 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T7" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U7" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -7454,7 +7418,7 @@
         <v>120</v>
       </c>
       <c r="AC7" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>119</v>
@@ -7463,16 +7427,16 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -7484,7 +7448,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -7493,29 +7457,29 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ7" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>152</v>
+        <v>560</v>
       </c>
       <c r="AT7" s="28" t="s">
-        <v>153</v>
+        <v>557</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>228</v>
+        <v>561</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW7" s="29"/>
       <c r="AX7" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY7" s="28" t="s">
         <v>30</v>
@@ -7527,29 +7491,29 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH7" s="28"/>
       <c r="BI7" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BJ7" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK7" s="28" t="s">
         <v>136</v>
@@ -7567,19 +7531,19 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR7" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
@@ -7589,13 +7553,13 @@
       </c>
       <c r="BY7" s="9"/>
       <c r="BZ7" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="CA7" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB7" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC7" s="9" t="s">
         <v>48</v>
@@ -7609,23 +7573,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL7" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM7" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -7636,7 +7600,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -7648,10 +7612,10 @@
         <v>120345</v>
       </c>
       <c r="CW7" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX7" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY7" s="31" t="s">
         <v>53</v>
@@ -7673,30 +7637,30 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -7715,38 +7679,38 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U8" s="28" t="s">
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -7761,7 +7725,7 @@
         <v>120</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD8" s="9" t="s">
         <v>119</v>
@@ -7770,16 +7734,16 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>401</v>
+        <v>558</v>
       </c>
       <c r="AG8" s="28" t="s">
-        <v>9</v>
+        <v>559</v>
       </c>
       <c r="AH8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -7791,7 +7755,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -7800,29 +7764,29 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AQ8" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>158</v>
+        <v>560</v>
       </c>
       <c r="AT8" s="28" t="s">
-        <v>159</v>
+        <v>557</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>229</v>
+        <v>561</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AW8" s="29"/>
       <c r="AX8" s="28" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY8" s="28" t="s">
         <v>30</v>
@@ -7834,29 +7798,29 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="BH8" s="28"/>
       <c r="BI8" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="BJ8" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK8" s="28" t="s">
         <v>136</v>
@@ -7874,19 +7838,19 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="BR8" s="28" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="BU8" s="9"/>
       <c r="BV8" s="9"/>
@@ -7896,13 +7860,13 @@
       </c>
       <c r="BY8" s="9"/>
       <c r="BZ8" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CA8" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -7916,23 +7880,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="CM8" s="28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -7943,7 +7907,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -7955,10 +7919,10 @@
         <v>120345</v>
       </c>
       <c r="CW8" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX8" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY8" s="31" t="s">
         <v>53</v>
@@ -7980,27 +7944,27 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:119" ht="28.8" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D9" s="31">
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -8022,26 +7986,26 @@
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R9" s="31" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U9" s="31" t="s">
         <v>36</v>
@@ -8068,7 +8032,7 @@
         <v>120</v>
       </c>
       <c r="AC9" s="31" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD9" s="31" t="s">
         <v>119</v>
@@ -8076,11 +8040,11 @@
       <c r="AE9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AF9" s="31">
-        <v>444</v>
-      </c>
-      <c r="AG9" s="31" t="s">
-        <v>9</v>
+      <c r="AF9" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>559</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>10</v>
@@ -8110,26 +8074,26 @@
         <v>12</v>
       </c>
       <c r="AQ9" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR9" s="31">
         <v>2</v>
       </c>
-      <c r="AS9" s="31" t="s">
-        <v>158</v>
+      <c r="AS9" s="28" t="s">
+        <v>560</v>
       </c>
       <c r="AT9" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU9" s="31" t="s">
-        <v>229</v>
+        <v>557</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>561</v>
       </c>
       <c r="AV9" s="31" t="s">
         <v>29</v>
       </c>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY9" s="31" t="s">
         <v>30</v>
@@ -8160,10 +8124,10 @@
       </c>
       <c r="BH9" s="31"/>
       <c r="BI9" s="31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="BJ9" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK9" s="31" t="s">
         <v>136</v>
@@ -8203,10 +8167,10 @@
       </c>
       <c r="BY9" s="31"/>
       <c r="BZ9" s="31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CA9" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB9" s="31">
         <v>2</v>
@@ -8262,10 +8226,10 @@
         <v>120345</v>
       </c>
       <c r="CW9" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX9" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY9" s="31" t="s">
         <v>53</v>
@@ -8287,27 +8251,27 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D10" s="31">
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -8329,26 +8293,26 @@
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U10" s="31" t="s">
         <v>36</v>
@@ -8375,7 +8339,7 @@
         <v>120</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD10" s="31" t="s">
         <v>119</v>
@@ -8383,11 +8347,11 @@
       <c r="AE10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AF10" s="31">
-        <v>555</v>
-      </c>
-      <c r="AG10" s="31" t="s">
-        <v>9</v>
+      <c r="AF10" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG10" s="28" t="s">
+        <v>559</v>
       </c>
       <c r="AH10" s="31" t="s">
         <v>10</v>
@@ -8417,26 +8381,26 @@
         <v>12</v>
       </c>
       <c r="AQ10" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR10" s="31">
         <v>2</v>
       </c>
-      <c r="AS10" s="31" t="s">
-        <v>165</v>
+      <c r="AS10" s="28" t="s">
+        <v>560</v>
       </c>
       <c r="AT10" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU10" s="31" t="s">
-        <v>230</v>
+        <v>557</v>
+      </c>
+      <c r="AU10" s="28" t="s">
+        <v>561</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>29</v>
       </c>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY10" s="31" t="s">
         <v>30</v>
@@ -8467,10 +8431,10 @@
       </c>
       <c r="BH10" s="31"/>
       <c r="BI10" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BJ10" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK10" s="31" t="s">
         <v>136</v>
@@ -8510,10 +8474,10 @@
       </c>
       <c r="BY10" s="31"/>
       <c r="BZ10" s="31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CA10" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB10" s="31">
         <v>2</v>
@@ -8569,10 +8533,10 @@
         <v>120345</v>
       </c>
       <c r="CW10" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX10" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY10" s="31" t="s">
         <v>53</v>
@@ -8595,24 +8559,24 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D11" s="31">
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -8634,26 +8598,26 @@
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R11" s="31" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="U11" s="31" t="s">
         <v>36</v>
@@ -8680,7 +8644,7 @@
         <v>120</v>
       </c>
       <c r="AC11" s="31" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD11" s="31" t="s">
         <v>119</v>
@@ -8688,11 +8652,11 @@
       <c r="AE11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="31">
-        <v>555</v>
-      </c>
-      <c r="AG11" s="31" t="s">
-        <v>9</v>
+      <c r="AF11" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="AG11" s="28" t="s">
+        <v>559</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>10</v>
@@ -8722,26 +8686,26 @@
         <v>12</v>
       </c>
       <c r="AQ11" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AR11" s="31">
         <v>2</v>
       </c>
-      <c r="AS11" s="31" t="s">
-        <v>165</v>
+      <c r="AS11" s="28" t="s">
+        <v>560</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU11" s="31" t="s">
-        <v>230</v>
+        <v>557</v>
+      </c>
+      <c r="AU11" s="28" t="s">
+        <v>561</v>
       </c>
       <c r="AV11" s="31" t="s">
         <v>29</v>
       </c>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AY11" s="31" t="s">
         <v>30</v>
@@ -8772,10 +8736,10 @@
       </c>
       <c r="BH11" s="31"/>
       <c r="BI11" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BJ11" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BK11" s="31" t="s">
         <v>136</v>
@@ -8815,10 +8779,10 @@
       </c>
       <c r="BY11" s="31"/>
       <c r="BZ11" s="31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CA11" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="CB11" s="31">
         <v>2</v>
@@ -8874,10 +8838,10 @@
         <v>120345</v>
       </c>
       <c r="CW11" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="CX11" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="CY11" s="31" t="s">
         <v>53</v>
@@ -9400,8 +9364,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3:B11" r:id="rId1" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -9446,30 +9410,30 @@
         <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>129</v>
@@ -9481,7 +9445,7 @@
         <v>134</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -9490,13 +9454,13 @@
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>129</v>
@@ -9508,26 +9472,26 @@
         <v>134</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>129</v>
@@ -9542,13 +9506,13 @@
     </row>
     <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>129</v>
@@ -9557,7 +9521,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -9596,70 +9560,70 @@
         <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="R1" s="20"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -9671,10 +9635,10 @@
         <v>11111111111</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N2" s="11">
         <v>123460</v>
@@ -9683,34 +9647,34 @@
         <v>11111111111</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
@@ -9722,10 +9686,10 @@
         <v>11111111111</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N3" s="11">
         <v>123461</v>
@@ -9734,34 +9698,34 @@
         <v>11111111111</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -9773,10 +9737,10 @@
         <v>11111111111</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N4" s="11">
         <v>123461</v>
@@ -9785,34 +9749,34 @@
         <v>11111111111</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -9824,10 +9788,10 @@
         <v>11111111111</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N5" s="11">
         <v>123460</v>
@@ -9836,34 +9800,34 @@
         <v>11111111111</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -9875,10 +9839,10 @@
         <v>11111111111</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="N6" s="11">
         <v>123460</v>
@@ -9887,10 +9851,10 @@
         <v>11111111111</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="R6" s="19"/>
     </row>
@@ -9919,56 +9883,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C3" s="11">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -9995,33 +9959,33 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>110</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
@@ -10030,10 +9994,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G2" s="11">
         <v>1888887</v>
@@ -10042,7 +10006,7 @@
         <v>55554</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10069,84 +10033,84 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>253</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2">
         <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -10175,56 +10139,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10288,213 +10252,213 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="AZ1" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>71</v>
@@ -10503,120 +10467,120 @@
         <v>121</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD2" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
       <c r="AS2" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="9"/>
@@ -10626,40 +10590,40 @@
     </row>
     <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>71</v>
@@ -10668,117 +10632,117 @@
         <v>121</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD3" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -10789,40 +10753,40 @@
     </row>
     <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>71</v>
@@ -10831,117 +10795,117 @@
         <v>121</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD4" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -10952,40 +10916,40 @@
     </row>
     <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>71</v>
@@ -10994,120 +10958,120 @@
         <v>121</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD5" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO5" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -11117,40 +11081,40 @@
     </row>
     <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>71</v>
@@ -11159,120 +11123,120 @@
         <v>121</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD6" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9"/>
@@ -11282,40 +11246,40 @@
     </row>
     <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>71</v>
@@ -11324,120 +11288,120 @@
         <v>121</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD7" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -11447,40 +11411,40 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>71</v>
@@ -11489,120 +11453,120 @@
         <v>121</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -11612,40 +11576,40 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>71</v>
@@ -11654,117 +11618,117 @@
         <v>121</v>
       </c>
       <c r="O9" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD9" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -11775,40 +11739,40 @@
     </row>
     <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J10" s="48" t="s">
         <v>134</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M10" s="48" t="s">
         <v>71</v>
@@ -11817,117 +11781,117 @@
         <v>121</v>
       </c>
       <c r="O10" s="49" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V10" s="48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X10" s="48" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y10" s="48" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z10" s="48" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA10" s="48" t="s">
         <v>34</v>
       </c>
       <c r="AB10" s="48" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC10" s="48" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD10" s="50" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE10" s="48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF10" s="48" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG10" s="48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH10" s="48" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI10" s="48" t="s">
         <v>36</v>
       </c>
       <c r="AJ10" s="48" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK10" s="48" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL10" s="48" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM10" s="48" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN10" s="48" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO10" s="48" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP10" s="48" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ10" s="48"/>
       <c r="AR10" s="48"/>
       <c r="AS10" s="48" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT10" s="48" t="s">
         <v>34</v>
       </c>
       <c r="AU10" s="48" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV10" s="48" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW10" s="48" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY10" s="48" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ10" s="48" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA10" s="48" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB10" s="48"/>
       <c r="BC10" s="48"/>
@@ -11938,40 +11902,40 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>71</v>
@@ -11980,120 +11944,120 @@
         <v>121</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="AD11" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP11" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="2"/>
@@ -12103,40 +12067,40 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>134</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>71</v>
@@ -12145,10 +12109,10 @@
         <v>121</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="2">
         <v>16</v>
@@ -12157,28 +12121,28 @@
         <v>16</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="W12" s="2">
         <v>1100440052</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y12" s="2">
         <v>45665456</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>34</v>
@@ -12190,25 +12154,25 @@
         <v>23564589</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AI12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AK12" s="2">
         <v>411006</v>
@@ -12217,21 +12181,21 @@
         <v>124421</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AT12" s="2" t="s">
         <v>34</v>
@@ -12240,35 +12204,35 @@
         <v>5431267812</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AX12" s="2">
         <v>999</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="BG12" s="2">
         <v>121212</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -1717,7 +1717,7 @@
     <t>HDFCVendor01 [VEN52]</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -5878,7 +5878,7 @@
         <v>560</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AU2" s="28" t="s">
         <v>561</v>
@@ -9365,7 +9365,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
+    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="564">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1621,103 +1621,106 @@
     <t>3</t>
   </si>
   <si>
+    <t>552200</t>
+  </si>
+  <si>
+    <t>TC264319_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264321_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>iPKExpiryDate</t>
+  </si>
+  <si>
+    <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1100440052</t>
+  </si>
+  <si>
+    <t>45665456</t>
+  </si>
+  <si>
+    <t>1113332</t>
+  </si>
+  <si>
+    <t>23564589</t>
+  </si>
+  <si>
+    <t>124421</t>
+  </si>
+  <si>
+    <t>5431267812</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>HDFCVendor</t>
+  </si>
+  <si>
+    <t>EMBF52</t>
+  </si>
+  <si>
+    <t>INAUTOEmboss</t>
+  </si>
+  <si>
+    <t>VEN52</t>
+  </si>
+  <si>
+    <t>HDFCVendor01 [VEN52]</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+  </si>
+  <si>
+    <t>455854</t>
+  </si>
+  <si>
     <t>TC264306_Embossing File Generation_VISA</t>
   </si>
   <si>
-    <t>552200</t>
-  </si>
-  <si>
     <t>TC264315_Embossing File Generation_VISA</t>
   </si>
   <si>
     <t>TC264318_Embossing File Generation_VISA</t>
-  </si>
-  <si>
-    <t>TC264319_Embossing File Generation_VISA</t>
-  </si>
-  <si>
-    <t>TC264321_Embossing File Generation_VISA</t>
-  </si>
-  <si>
-    <t>iPKExpiryDate</t>
-  </si>
-  <si>
-    <t>March/10/2050</t>
-  </si>
-  <si>
-    <t>Sequence number</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Program Code</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Activated</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
-    <t>45665456</t>
-  </si>
-  <si>
-    <t>1113332</t>
-  </si>
-  <si>
-    <t>23564589</t>
-  </si>
-  <si>
-    <t>124421</t>
-  </si>
-  <si>
-    <t>5431267812</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>TCEditInstitute</t>
-  </si>
-  <si>
-    <t>WIBMO [002]</t>
-  </si>
-  <si>
-    <t>ASC_Vendor</t>
-  </si>
-  <si>
-    <t>MPIN</t>
-  </si>
-  <si>
-    <t>SmsProvider</t>
-  </si>
-  <si>
-    <t>ExistingInstitutionCode</t>
-  </si>
-  <si>
-    <t>HDFCVendor</t>
-  </si>
-  <si>
-    <t>EMBF52</t>
-  </si>
-  <si>
-    <t>INAUTOEmboss</t>
-  </si>
-  <si>
-    <t>VEN52</t>
-  </si>
-  <si>
-    <t>HDFCVendor01 [VEN52]</t>
-  </si>
-  <si>
-    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
 </sst>
 </file>
@@ -5367,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5739,10 +5742,10 @@
         <v>396</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5750,10 +5753,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>371</v>
@@ -5836,10 +5839,10 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>10</v>
@@ -5875,13 +5878,13 @@
         <v>329</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>29</v>
@@ -6056,13 +6059,13 @@
         <v>528</v>
       </c>
       <c r="DH2" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="DJ2" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="DK2" s="35" t="s">
         <v>528</v>
@@ -6074,21 +6077,21 @@
         <v>529</v>
       </c>
       <c r="DN2" s="28" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO2" s="46" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>371</v>
@@ -6171,10 +6174,10 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG3" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH3" s="28" t="s">
         <v>10</v>
@@ -6210,13 +6213,13 @@
         <v>329</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT3" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU3" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
@@ -6319,7 +6322,7 @@
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
@@ -6409,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6420,10 +6423,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>371</v>
@@ -6506,10 +6509,10 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>10</v>
@@ -6545,13 +6548,13 @@
         <v>329</v>
       </c>
       <c r="AS4" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
@@ -6716,21 +6719,21 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>371</v>
@@ -6813,10 +6816,10 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>10</v>
@@ -6852,13 +6855,13 @@
         <v>329</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT5" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
@@ -6959,7 +6962,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
@@ -7023,10 +7026,10 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
@@ -7034,10 +7037,10 @@
         <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>371</v>
@@ -7120,10 +7123,10 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH6" s="28" t="s">
         <v>10</v>
@@ -7159,13 +7162,13 @@
         <v>329</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
@@ -7330,21 +7333,21 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>371</v>
@@ -7427,10 +7430,10 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>10</v>
@@ -7466,13 +7469,13 @@
         <v>329</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT7" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
@@ -7573,7 +7576,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
@@ -7637,10 +7640,10 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -7648,10 +7651,10 @@
         <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>371</v>
@@ -7734,10 +7737,10 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG8" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH8" s="28" t="s">
         <v>10</v>
@@ -7773,13 +7776,13 @@
         <v>329</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT8" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
@@ -7944,24 +7947,24 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" s="31">
-        <v>8520</v>
+        <v>560</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>477</v>
@@ -8041,10 +8044,10 @@
         <v>36</v>
       </c>
       <c r="AF9" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG9" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>10</v>
@@ -8080,13 +8083,13 @@
         <v>2</v>
       </c>
       <c r="AS9" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT9" s="31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU9" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV9" s="31" t="s">
         <v>29</v>
@@ -8251,10 +8254,10 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
@@ -8262,13 +8265,13 @@
         <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D10" s="31">
-        <v>8520</v>
+        <v>560</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>477</v>
@@ -8348,10 +8351,10 @@
         <v>36</v>
       </c>
       <c r="AF10" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG10" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH10" s="31" t="s">
         <v>10</v>
@@ -8387,13 +8390,13 @@
         <v>2</v>
       </c>
       <c r="AS10" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT10" s="31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU10" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>29</v>
@@ -8559,21 +8562,21 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" s="31">
-        <v>8520</v>
+        <v>560</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>477</v>
@@ -8653,10 +8656,10 @@
         <v>36</v>
       </c>
       <c r="AF11" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG11" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>10</v>
@@ -8692,13 +8695,13 @@
         <v>2</v>
       </c>
       <c r="AS11" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AU11" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AV11" s="31" t="s">
         <v>29</v>
@@ -9364,8 +9367,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B11" r:id="rId2" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -9376,9 +9379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10200,8 +10201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BG12"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10244,7 +10245,7 @@
     <col min="55" max="55" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10411,16 +10412,16 @@
         <v>413</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -10473,10 +10474,10 @@
         <v>210</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>408</v>
@@ -10491,13 +10492,13 @@
         <v>210</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>213</v>
@@ -10506,10 +10507,10 @@
         <v>34</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>214</v>
@@ -10536,7 +10537,7 @@
         <v>377</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>414</v>
@@ -10559,7 +10560,7 @@
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>350</v>
@@ -10568,7 +10569,7 @@
         <v>351</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>352</v>
@@ -10638,10 +10639,10 @@
         <v>210</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>408</v>
@@ -10656,13 +10657,13 @@
         <v>210</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>213</v>
@@ -10671,10 +10672,10 @@
         <v>34</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>214</v>
@@ -10701,7 +10702,7 @@
         <v>377</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM3" s="9" t="s">
         <v>414</v>
@@ -10724,7 +10725,7 @@
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>350</v>
@@ -10733,7 +10734,7 @@
         <v>351</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY3" s="9" t="s">
         <v>352</v>
@@ -10801,10 +10802,10 @@
         <v>210</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>408</v>
@@ -10819,13 +10820,13 @@
         <v>210</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>213</v>
@@ -10834,10 +10835,10 @@
         <v>34</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>214</v>
@@ -10864,7 +10865,7 @@
         <v>377</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>414</v>
@@ -10887,7 +10888,7 @@
         <v>34</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>350</v>
@@ -10896,7 +10897,7 @@
         <v>351</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>352</v>
@@ -10964,10 +10965,10 @@
         <v>210</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>408</v>
@@ -10982,13 +10983,13 @@
         <v>210</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>213</v>
@@ -10997,10 +10998,10 @@
         <v>34</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>214</v>
@@ -11027,7 +11028,7 @@
         <v>377</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>414</v>
@@ -11050,7 +11051,7 @@
         <v>34</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>350</v>
@@ -11059,7 +11060,7 @@
         <v>351</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY5" s="9" t="s">
         <v>352</v>
@@ -11129,10 +11130,10 @@
         <v>210</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>408</v>
@@ -11147,13 +11148,13 @@
         <v>210</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>213</v>
@@ -11162,10 +11163,10 @@
         <v>34</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>214</v>
@@ -11192,7 +11193,7 @@
         <v>377</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>414</v>
@@ -11215,7 +11216,7 @@
         <v>34</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>350</v>
@@ -11224,7 +11225,7 @@
         <v>351</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY6" s="9" t="s">
         <v>352</v>
@@ -11294,10 +11295,10 @@
         <v>210</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>408</v>
@@ -11312,13 +11313,13 @@
         <v>210</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>213</v>
@@ -11327,10 +11328,10 @@
         <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>214</v>
@@ -11357,7 +11358,7 @@
         <v>377</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM7" s="9" t="s">
         <v>414</v>
@@ -11380,7 +11381,7 @@
         <v>34</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>350</v>
@@ -11389,7 +11390,7 @@
         <v>351</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY7" s="9" t="s">
         <v>352</v>
@@ -11459,10 +11460,10 @@
         <v>210</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>408</v>
@@ -11477,13 +11478,13 @@
         <v>210</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>213</v>
@@ -11492,10 +11493,10 @@
         <v>34</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>214</v>
@@ -11522,7 +11523,7 @@
         <v>377</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM8" s="9" t="s">
         <v>414</v>
@@ -11545,7 +11546,7 @@
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>350</v>
@@ -11554,7 +11555,7 @@
         <v>351</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>352</v>
@@ -11624,10 +11625,10 @@
         <v>210</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>408</v>
@@ -11642,13 +11643,13 @@
         <v>210</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>213</v>
@@ -11657,10 +11658,10 @@
         <v>34</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>214</v>
@@ -11687,7 +11688,7 @@
         <v>377</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM9" s="9" t="s">
         <v>414</v>
@@ -11710,7 +11711,7 @@
         <v>34</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>350</v>
@@ -11719,7 +11720,7 @@
         <v>351</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY9" s="9" t="s">
         <v>352</v>
@@ -11787,10 +11788,10 @@
         <v>210</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S10" s="48" t="s">
         <v>408</v>
@@ -11805,13 +11806,13 @@
         <v>210</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X10" s="48" t="s">
         <v>212</v>
       </c>
       <c r="Y10" s="48" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z10" s="48" t="s">
         <v>213</v>
@@ -11820,10 +11821,10 @@
         <v>34</v>
       </c>
       <c r="AB10" s="48" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC10" s="48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD10" s="50" t="s">
         <v>214</v>
@@ -11850,7 +11851,7 @@
         <v>377</v>
       </c>
       <c r="AL10" s="48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM10" s="48" t="s">
         <v>414</v>
@@ -11873,7 +11874,7 @@
         <v>34</v>
       </c>
       <c r="AU10" s="48" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV10" s="48" t="s">
         <v>350</v>
@@ -11882,7 +11883,7 @@
         <v>351</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY10" s="48" t="s">
         <v>352</v>
@@ -11950,10 +11951,10 @@
         <v>210</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>408</v>
@@ -11968,13 +11969,13 @@
         <v>210</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>213</v>
@@ -11983,10 +11984,10 @@
         <v>34</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>214</v>
@@ -12013,7 +12014,7 @@
         <v>377</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM11" s="9" t="s">
         <v>414</v>
@@ -12036,7 +12037,7 @@
         <v>34</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>350</v>
@@ -12045,7 +12046,7 @@
         <v>351</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AY11" s="9" t="s">
         <v>352</v>
@@ -12067,7 +12068,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>436</v>
@@ -12226,7 +12227,7 @@
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>210</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
     <sheet name="LoyaltyPlan" sheetId="17" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId16"/>
+    <sheet name="AuditReport" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="600">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1726,13 +1727,109 @@
     <t>http://ech-10-168-128-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
   </si>
   <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>PDF Format [pdf]</t>
+  </si>
+  <si>
+    <t>Online [O]</t>
+  </si>
+  <si>
+    <t>TC_validate_Audit_Report</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>ScreenName</t>
+  </si>
+  <si>
+    <t>FileType</t>
+  </si>
+  <si>
+    <t>ReportGenerationMode</t>
+  </si>
+  <si>
+    <t>Audit Report</t>
+  </si>
+  <si>
+    <t>AU01</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>WalletPlanDescription</t>
+  </si>
+  <si>
+    <t>WalletPlancode</t>
+  </si>
+  <si>
+    <t>creditLimit</t>
+  </si>
+  <si>
+    <t>maxCreditLimit</t>
+  </si>
+  <si>
+    <t>cashLimitType</t>
+  </si>
+  <si>
+    <t>cashLimitAmount</t>
+  </si>
+  <si>
+    <t>cashLimitReset</t>
+  </si>
+  <si>
+    <t>addOnLimitReset</t>
+  </si>
+  <si>
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
   </si>
   <si>
-    <t>WalletPlanDescription</t>
-  </si>
-  <si>
-    <t>WalletPlancode</t>
+    <t>TC_Application_Upload_Credit</t>
+  </si>
+  <si>
+    <t>554466</t>
+  </si>
+  <si>
+    <t>Credit[C}</t>
+  </si>
+  <si>
+    <t>10-2028</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Payment [1]</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1968,6 +2065,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3778,7 +3877,7 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,15 +4673,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EG2"/>
+  <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
-      <selection activeCell="DY12" sqref="DY12"/>
+    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+      <selection activeCell="DV6" sqref="DV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4983,24 +5087,42 @@
         <v>517</v>
       </c>
       <c r="ED1" s="37" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="EE1" s="37" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="EF1" s="37" t="s">
         <v>518</v>
       </c>
       <c r="EG1" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="EH1" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="EI1" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="EJ1" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="EK1" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="EL1" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="EM1" s="37" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:137" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>521</v>
@@ -5370,12 +5492,515 @@
       <c r="EF2" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="EG2" s="44" t="s">
+      <c r="EG2" s="45"/>
+      <c r="EH2" s="45"/>
+      <c r="EI2" s="45"/>
+      <c r="EJ2" s="45"/>
+      <c r="EK2" s="45"/>
+      <c r="EL2" s="45"/>
+      <c r="EM2" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="U3" s="11">
+        <v>50</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>1989</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="BF3" s="12">
+        <v>12</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="BH3" s="12">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="BN3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="BS3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT3" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BU3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV3" s="12">
+        <v>12345678</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>545</v>
+      </c>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ3" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="CA3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB3" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="CC3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE3" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="CI3" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="41"/>
+      <c r="CL3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM3" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="CN3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="CP3" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CR3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CS3" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11"/>
+      <c r="CV3" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="CW3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX3" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="CY3" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="CZ3" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="DA3" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK3" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="DL3" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="DM3" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="DN3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DO3" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="DP3" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="DQ3" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="DR3" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="DS3" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="DT3" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU3" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="DV3" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="DW3" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX3" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY3" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="DZ3" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="EA3" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="EB3" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="EC3" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="ED3" s="45"/>
+      <c r="EE3" s="45"/>
+      <c r="EF3" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="EG3" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="EH3" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI3" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJ3" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="EK3" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="EL3" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="EM3" s="44" t="s">
         <v>562</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5383,8 +6008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CU3" sqref="CU3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9118,10 +9743,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="BH1" sqref="BH1:BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9162,9 +9787,12 @@
     <col min="53" max="53" width="21.85546875" customWidth="1"/>
     <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15.85546875" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9330,8 +9958,20 @@
       <c r="BC1" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>447</v>
       </c>
@@ -9491,8 +10131,12 @@
         <v>460</v>
       </c>
       <c r="BC2" s="9"/>
-    </row>
-    <row r="3" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+    </row>
+    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>449</v>
       </c>
@@ -9650,8 +10294,12 @@
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
-    </row>
-    <row r="4" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+    </row>
+    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>462</v>
       </c>
@@ -9809,8 +10457,12 @@
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
-    </row>
-    <row r="5" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+    </row>
+    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>450</v>
       </c>
@@ -9970,8 +10622,12 @@
         <v>482</v>
       </c>
       <c r="BC5" s="9"/>
-    </row>
-    <row r="6" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+    </row>
+    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>461</v>
       </c>
@@ -10131,8 +10787,12 @@
         <v>460</v>
       </c>
       <c r="BC6" s="9"/>
-    </row>
-    <row r="7" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+    </row>
+    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>463</v>
       </c>
@@ -10292,8 +10952,12 @@
         <v>460</v>
       </c>
       <c r="BC7" s="9"/>
-    </row>
-    <row r="8" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+    </row>
+    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>464</v>
       </c>
@@ -10453,8 +11117,12 @@
         <v>460</v>
       </c>
       <c r="BC8" s="9"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>465</v>
       </c>
@@ -10612,8 +11280,12 @@
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
-    </row>
-    <row r="10" spans="1:55" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+    </row>
+    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>466</v>
       </c>
@@ -10771,8 +11443,12 @@
       </c>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>471</v>
       </c>
@@ -10932,6 +11608,183 @@
         <v>460</v>
       </c>
       <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+    </row>
+    <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>16</v>
+      </c>
+      <c r="R12" s="9">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA12" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>121212</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10955,8 +11808,10 @@
     <hyperlink ref="AD10" r:id="rId18"/>
     <hyperlink ref="X11" r:id="rId19"/>
     <hyperlink ref="AD11" r:id="rId20"/>
+    <hyperlink ref="X12" r:id="rId21"/>
+    <hyperlink ref="AD12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="LoyaltyPlan" sheetId="17" r:id="rId15"/>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId16"/>
     <sheet name="AuditReport" sheetId="18" r:id="rId17"/>
+    <sheet name="CardHolder" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="703">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1788,6 +1789,357 @@
   </si>
   <si>
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login</t>
+  </si>
+  <si>
+    <t>TranSactionType</t>
+  </si>
+  <si>
+    <t>TransactionAmount</t>
+  </si>
+  <si>
+    <t>TransactionCurrency</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>TransferAmount</t>
+  </si>
+  <si>
+    <t>CurrencyName</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>TransfererName</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>TransactionPassword</t>
+  </si>
+  <si>
+    <t>TransactionRemarks</t>
+  </si>
+  <si>
+    <t>AmountToTransferWalletToWallet</t>
+  </si>
+  <si>
+    <t>WalletTransferCurrecny</t>
+  </si>
+  <si>
+    <t>WalletNumberFromTransferMoney</t>
+  </si>
+  <si>
+    <t>WalletToAmountTransfer</t>
+  </si>
+  <si>
+    <t>WalletToWalletTransferSucessMsg</t>
+  </si>
+  <si>
+    <t>NoOfTransactionsCount</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>ReplacementResone</t>
+  </si>
+  <si>
+    <t>ReplaceConfirmMessage</t>
+  </si>
+  <si>
+    <t>BlockCardRemark</t>
+  </si>
+  <si>
+    <t>BlockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>UnblockCardRemark</t>
+  </si>
+  <si>
+    <t>UnblockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>WalletActivationRemark</t>
+  </si>
+  <si>
+    <t>WalletDeactivateRemark</t>
+  </si>
+  <si>
+    <t>WalletActivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>WalletDeactivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>eComActivationConfirmMsg</t>
+  </si>
+  <si>
+    <t>beneficiaryID</t>
+  </si>
+  <si>
+    <t>beneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>beneficiaryMiddleName</t>
+  </si>
+  <si>
+    <t>beneficiaryLastName</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine1</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine2</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine3</t>
+  </si>
+  <si>
+    <t>beneficiaryCountryName</t>
+  </si>
+  <si>
+    <t>beneficiaryStateName</t>
+  </si>
+  <si>
+    <t>beneficiaryCityName</t>
+  </si>
+  <si>
+    <t>beneficiaryZIPCode</t>
+  </si>
+  <si>
+    <t>beneficiaryEmailAddress</t>
+  </si>
+  <si>
+    <t>beneficiaryMobileNumber</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceAamount</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceCurrency</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>CardHolderTransPassword</t>
+  </si>
+  <si>
+    <t>FirstSequrityQuestion</t>
+  </si>
+  <si>
+    <t>FirstSequrityAnswer</t>
+  </si>
+  <si>
+    <t>SecondSequrityQuestion</t>
+  </si>
+  <si>
+    <t>SecondSequrityAnswer</t>
+  </si>
+  <si>
+    <t>TC_walletToWalletTransfer</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-129-105.mastercard.int:25003/integratedIssuing-cardholderPortal/WebPages/Login.jsp</t>
+  </si>
+  <si>
+    <t>12121218044000192</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0.016000</t>
+  </si>
+  <si>
+    <t>5887659200346112</t>
+  </si>
+  <si>
+    <t>aBcd1234*</t>
+  </si>
+  <si>
+    <t>Wallet to wallet fund transfer</t>
+  </si>
+  <si>
+    <t>1802131212120070068</t>
+  </si>
+  <si>
+    <t>1802131212120070067</t>
+  </si>
+  <si>
+    <t>Your transaction is successful</t>
+  </si>
+  <si>
+    <t>TC_LoginCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForFundTransfer</t>
+  </si>
+  <si>
+    <t>12121218036000463</t>
+  </si>
+  <si>
+    <t>TC_masterCardMoneyTransfer</t>
+  </si>
+  <si>
+    <t>10000117311000005</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>CMKO-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454564Done </t>
+  </si>
+  <si>
+    <t>TC_checkInterbankTransfer</t>
+  </si>
+  <si>
+    <t>TC_viewTransactionHistoryForWallet</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t>TC_deviceReplaceService</t>
+  </si>
+  <si>
+    <t>Emergency Replacement</t>
+  </si>
+  <si>
+    <t>Request is forwarded to institution</t>
+  </si>
+  <si>
+    <t>TC_deviceBlockFromCardHolder</t>
+  </si>
+  <si>
+    <t>Card need to block as it is stolne</t>
+  </si>
+  <si>
+    <t>Device Blocked Call Reference Number</t>
+  </si>
+  <si>
+    <t>Block my card</t>
+  </si>
+  <si>
+    <t>Unblock Device process successful</t>
+  </si>
+  <si>
+    <t>TC_deviceUnblockFromCardholder</t>
+  </si>
+  <si>
+    <t>TC_walletActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate Wallet </t>
+  </si>
+  <si>
+    <t>Request has been processed successfully with reference number</t>
+  </si>
+  <si>
+    <t>TC_walletDeActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t>Deactivate Wallet</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForLifeLong</t>
+  </si>
+  <si>
+    <t>DEVICE is already activated for life long use</t>
+  </si>
+  <si>
+    <t>TC_activationEcomForDuration</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForNHours</t>
+  </si>
+  <si>
+    <t>TC_cashRemittanceBookting</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>MAHARASTHRA</t>
+  </si>
+  <si>
+    <t>mastercard@mastercard.com</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>TC_signUpCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_activationForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationNHoursForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationLifeLongForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletToWalletDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletClosure</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForVisaMoneyTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForIntraBnkWalletToWalletTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForMasterCardMoneySend</t>
+  </si>
+  <si>
+    <t>TC_RequestVirtualPrepaidCard</t>
+  </si>
+  <si>
+    <t>TC_createPinSetRquest</t>
+  </si>
+  <si>
+    <t>TC_visaMoneyTransfer</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +2149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,8 +2173,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,8 +2195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1931,12 +2303,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2024,8 +2406,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5431,8 +5832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,6 +5925,2644 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" customWidth="1"/>
+    <col min="19" max="20" width="30.42578125" customWidth="1"/>
+    <col min="21" max="21" width="31.85546875" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="31.5703125" customWidth="1"/>
+    <col min="27" max="27" width="33.5703125" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" customWidth="1"/>
+    <col min="29" max="29" width="28" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" customWidth="1"/>
+    <col min="31" max="31" width="24.7109375" customWidth="1"/>
+    <col min="32" max="32" width="22.85546875" customWidth="1"/>
+    <col min="33" max="33" width="45.28515625" customWidth="1"/>
+    <col min="34" max="34" width="56.7109375" customWidth="1"/>
+    <col min="35" max="35" width="41.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.7109375" customWidth="1"/>
+    <col min="38" max="38" width="22.85546875" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" customWidth="1"/>
+    <col min="40" max="41" width="22.28515625" customWidth="1"/>
+    <col min="42" max="43" width="22.5703125" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" customWidth="1"/>
+    <col min="45" max="45" width="20.140625" customWidth="1"/>
+    <col min="46" max="46" width="19.140625" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" customWidth="1"/>
+    <col min="48" max="48" width="23.5703125" customWidth="1"/>
+    <col min="49" max="49" width="29.7109375" customWidth="1"/>
+    <col min="50" max="50" width="28.85546875" customWidth="1"/>
+    <col min="51" max="56" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA1" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK1" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="F2" s="53">
+        <v>10</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53">
+        <v>9021723007</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>5</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>642</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>648</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L5" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2">
+        <v>10</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z8" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>10</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z9" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA9" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB9" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z10" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA10" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB10" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2">
+        <v>10</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z11" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA11" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB11" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>10</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z12" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA12" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB12" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
+        <v>10</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z13" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA13" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB13" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI13" s="62" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>10</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z14" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA14" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB14" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI14" s="62" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z15" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA15" s="62" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB15" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI15" s="62" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU16" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+    </row>
+    <row r="17" spans="1:56" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>691</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="F17" s="53">
+        <v>5</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>643</v>
+      </c>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK17" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL17" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM17" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN17" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO17" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="AP17" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ17" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR17" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS17" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT17" s="53">
+        <v>411033</v>
+      </c>
+      <c r="AU17" s="63" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV17" s="53">
+        <v>7896543215</v>
+      </c>
+      <c r="AW17" s="53">
+        <v>5000</v>
+      </c>
+      <c r="AX17" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY17" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="AZ17" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU18" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU19" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU20" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L28" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AU16" r:id="rId1"/>
+    <hyperlink ref="AU17" r:id="rId2"/>
+    <hyperlink ref="AU18" r:id="rId3"/>
+    <hyperlink ref="AU19" r:id="rId4"/>
+    <hyperlink ref="AU20" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B3:B28" r:id="rId7" display="http://ech-10-168-129-105.mastercard.int:25003/integratedIssuing-cardholderPortal/WebPages/Login.jsp"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="564">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1708,19 +1708,19 @@
     <t>HDFCVendor01 [VEN52]</t>
   </si>
   <si>
+    <t>TC264306_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264315_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>TC264318_Embossing File Generation_VISA</t>
+  </si>
+  <si>
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>455854</t>
-  </si>
-  <si>
-    <t>TC264306_Embossing File Generation_VISA</t>
-  </si>
-  <si>
-    <t>TC264315_Embossing File Generation_VISA</t>
-  </si>
-  <si>
-    <t>TC264318_Embossing File Generation_VISA</t>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5753,10 +5753,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>371</v>
@@ -5971,7 +5971,7 @@
         <v>175</v>
       </c>
       <c r="CB2" s="9" t="s">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="CC2" s="9" t="s">
         <v>48</v>
@@ -6085,13 +6085,13 @@
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>371</v>
@@ -6306,7 +6306,7 @@
         <v>175</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="CC3" s="9" t="s">
         <v>48</v>
@@ -6423,10 +6423,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>371</v>
@@ -6641,7 +6641,7 @@
         <v>175</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -6727,13 +6727,13 @@
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>559</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>371</v>
@@ -6948,7 +6948,7 @@
         <v>175</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -7037,10 +7037,10 @@
         <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>371</v>
@@ -7255,7 +7255,7 @@
         <v>175</v>
       </c>
       <c r="CB6" s="9" t="s">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="CC6" s="9" t="s">
         <v>48</v>
@@ -7341,13 +7341,13 @@
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>371</v>
@@ -7562,7 +7562,7 @@
         <v>175</v>
       </c>
       <c r="CB7" s="9" t="s">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="CC7" s="9" t="s">
         <v>48</v>
@@ -7651,10 +7651,10 @@
         <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>371</v>
@@ -7869,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>329</v>
+        <v>563</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -7958,10 +7958,10 @@
         <v>531</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>371</v>
@@ -8175,8 +8175,8 @@
       <c r="CA9" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="CB9" s="31">
-        <v>2</v>
+      <c r="CB9" s="31" t="s">
+        <v>563</v>
       </c>
       <c r="CC9" s="31" t="s">
         <v>48</v>
@@ -8265,10 +8265,10 @@
         <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>371</v>
@@ -8570,10 +8570,10 @@
         <v>532</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>371</v>
@@ -9368,10 +9368,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+    <hyperlink ref="B3:B11" r:id="rId3" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10201,7 +10202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView topLeftCell="AT1" workbookViewId="0">
       <selection activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -1717,10 +1717,10 @@
     <t>TC264318_Embossing File Generation_VISA</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
-  </si>
-  <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -5371,7 +5371,7 @@
   <dimension ref="A1:DO177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="B4" activeCellId="1" sqref="B2:B11 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5753,7 +5753,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>491</v>
@@ -6088,7 +6088,7 @@
         <v>559</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>491</v>
@@ -6423,7 +6423,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>491</v>
@@ -6641,7 +6641,7 @@
         <v>175</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -6730,7 +6730,7 @@
         <v>560</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>491</v>
@@ -6948,7 +6948,7 @@
         <v>175</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -7037,7 +7037,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>491</v>
@@ -7344,7 +7344,7 @@
         <v>561</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>491</v>
@@ -7651,7 +7651,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>491</v>
@@ -7869,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -7958,7 +7958,7 @@
         <v>531</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>491</v>
@@ -8176,7 +8176,7 @@
         <v>175</v>
       </c>
       <c r="CB9" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="CC9" s="31" t="s">
         <v>48</v>
@@ -8265,7 +8265,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>491</v>
@@ -8570,7 +8570,7 @@
         <v>532</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>491</v>
@@ -9368,11 +9368,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
-    <hyperlink ref="B3:B11" r:id="rId3" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -1696,18 +1696,9 @@
     <t>HDFCVendor</t>
   </si>
   <si>
-    <t>EMBF52</t>
-  </si>
-  <si>
     <t>INAUTOEmboss</t>
   </si>
   <si>
-    <t>VEN52</t>
-  </si>
-  <si>
-    <t>HDFCVendor01 [VEN52]</t>
-  </si>
-  <si>
     <t>TC264306_Embossing File Generation_VISA</t>
   </si>
   <si>
@@ -1720,7 +1711,16 @@
     <t>200</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+  </si>
+  <si>
+    <t>EMBF5211</t>
+  </si>
+  <si>
+    <t>VEN5211</t>
+  </si>
+  <si>
+    <t>HDFCVendor01 [VEN5211]</t>
   </si>
 </sst>
 </file>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" activeCellId="1" sqref="B2:B11 B4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3:AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5753,7 +5753,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>491</v>
@@ -5839,10 +5839,10 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG2" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>10</v>
@@ -5878,13 +5878,13 @@
         <v>329</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT2" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>29</v>
@@ -6085,10 +6085,10 @@
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>491</v>
@@ -6174,10 +6174,10 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG3" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG3" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH3" s="28" t="s">
         <v>10</v>
@@ -6213,13 +6213,13 @@
         <v>329</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT3" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU3" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
@@ -6423,7 +6423,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>491</v>
@@ -6509,10 +6509,10 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG4" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG4" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>10</v>
@@ -6548,13 +6548,13 @@
         <v>329</v>
       </c>
       <c r="AS4" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT4" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
@@ -6641,7 +6641,7 @@
         <v>175</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>563</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>491</v>
@@ -6816,10 +6816,10 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG5" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>10</v>
@@ -6855,13 +6855,13 @@
         <v>329</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT5" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
@@ -6948,7 +6948,7 @@
         <v>175</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -7037,7 +7037,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>491</v>
@@ -7123,10 +7123,10 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG6" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG6" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH6" s="28" t="s">
         <v>10</v>
@@ -7162,13 +7162,13 @@
         <v>329</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT6" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
@@ -7341,10 +7341,10 @@
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>491</v>
@@ -7430,10 +7430,10 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG7" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG7" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>10</v>
@@ -7469,13 +7469,13 @@
         <v>329</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT7" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
@@ -7651,7 +7651,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>491</v>
@@ -7737,10 +7737,10 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG8" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG8" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH8" s="28" t="s">
         <v>10</v>
@@ -7776,13 +7776,13 @@
         <v>329</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT8" s="28" t="s">
         <v>554</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
@@ -7869,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -7953,12 +7953,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>531</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>491</v>
@@ -8044,10 +8044,10 @@
         <v>36</v>
       </c>
       <c r="AF9" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG9" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG9" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>10</v>
@@ -8083,13 +8083,13 @@
         <v>2</v>
       </c>
       <c r="AS9" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT9" s="31" t="s">
         <v>554</v>
       </c>
       <c r="AU9" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV9" s="31" t="s">
         <v>29</v>
@@ -8176,7 +8176,7 @@
         <v>175</v>
       </c>
       <c r="CB9" s="31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="CC9" s="31" t="s">
         <v>48</v>
@@ -8260,12 +8260,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>491</v>
@@ -8351,10 +8351,10 @@
         <v>36</v>
       </c>
       <c r="AF10" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG10" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG10" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH10" s="31" t="s">
         <v>10</v>
@@ -8390,13 +8390,13 @@
         <v>2</v>
       </c>
       <c r="AS10" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT10" s="31" t="s">
         <v>554</v>
       </c>
       <c r="AU10" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>29</v>
@@ -8565,12 +8565,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:119" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>532</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>491</v>
@@ -8656,10 +8656,10 @@
         <v>36</v>
       </c>
       <c r="AF11" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG11" s="28" t="s">
         <v>555</v>
-      </c>
-      <c r="AG11" s="28" t="s">
-        <v>556</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>10</v>
@@ -8695,13 +8695,13 @@
         <v>2</v>
       </c>
       <c r="AS11" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AT11" s="31" t="s">
         <v>554</v>
       </c>
       <c r="AU11" s="28" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AV11" s="31" t="s">
         <v>29</v>
@@ -9368,9 +9368,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3:B11" r:id="rId3" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -1612,9 +1612,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>588765</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -1711,9 +1708,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
-  </si>
-  <si>
     <t>EMBF5211</t>
   </si>
   <si>
@@ -1721,6 +1715,12 @@
   </si>
   <si>
     <t>HDFCVendor01 [VEN5211]</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+  </si>
+  <si>
+    <t>587765</t>
   </si>
 </sst>
 </file>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3:AU11"/>
+    <sheetView tabSelected="1" topLeftCell="BX5" workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5742,10 +5742,10 @@
         <v>396</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="DO1" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -5753,7 +5753,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>491</v>
@@ -5839,10 +5839,10 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG2" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>10</v>
@@ -5878,13 +5878,13 @@
         <v>329</v>
       </c>
       <c r="AS2" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU2" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>29</v>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
@@ -6056,39 +6056,39 @@
         <v>399</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DH2" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="DI2" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DJ2" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="DJ2" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="DK2" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DL2" s="9" t="s">
         <v>401</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DN2" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO2" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>491</v>
@@ -6174,10 +6174,10 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG3" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH3" s="28" t="s">
         <v>10</v>
@@ -6213,13 +6213,13 @@
         <v>329</v>
       </c>
       <c r="AS3" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT3" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU3" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
@@ -6412,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO3" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -6423,7 +6423,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>491</v>
@@ -6509,10 +6509,10 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>10</v>
@@ -6548,13 +6548,13 @@
         <v>329</v>
       </c>
       <c r="AS4" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
@@ -6641,7 +6641,7 @@
         <v>175</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -6655,7 +6655,7 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
@@ -6719,18 +6719,18 @@
       <c r="DL4" s="9"/>
       <c r="DM4" s="9"/>
       <c r="DN4" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO4" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>491</v>
@@ -6816,10 +6816,10 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>10</v>
@@ -6855,13 +6855,13 @@
         <v>329</v>
       </c>
       <c r="AS5" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT5" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU5" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
@@ -6948,7 +6948,7 @@
         <v>175</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -6962,7 +6962,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
@@ -7026,10 +7026,10 @@
       <c r="DL5" s="9"/>
       <c r="DM5" s="9"/>
       <c r="DN5" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO5" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>491</v>
@@ -7123,10 +7123,10 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH6" s="28" t="s">
         <v>10</v>
@@ -7162,13 +7162,13 @@
         <v>329</v>
       </c>
       <c r="AS6" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU6" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
@@ -7269,7 +7269,7 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
@@ -7333,18 +7333,18 @@
       <c r="DL6" s="9"/>
       <c r="DM6" s="9"/>
       <c r="DN6" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO6" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:119" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>491</v>
@@ -7430,10 +7430,10 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>10</v>
@@ -7469,13 +7469,13 @@
         <v>329</v>
       </c>
       <c r="AS7" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT7" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU7" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
@@ -7576,7 +7576,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
@@ -7640,10 +7640,10 @@
       <c r="DL7" s="9"/>
       <c r="DM7" s="9"/>
       <c r="DN7" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO7" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:119" ht="86.4" x14ac:dyDescent="0.3">
@@ -7651,7 +7651,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>491</v>
@@ -7737,10 +7737,10 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG8" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH8" s="28" t="s">
         <v>10</v>
@@ -7776,13 +7776,13 @@
         <v>329</v>
       </c>
       <c r="AS8" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT8" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU8" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
@@ -7869,7 +7869,7 @@
         <v>175</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -7883,7 +7883,7 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
@@ -7947,18 +7947,18 @@
       <c r="DL8" s="9"/>
       <c r="DM8" s="9"/>
       <c r="DN8" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO8" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>491</v>
@@ -8044,10 +8044,10 @@
         <v>36</v>
       </c>
       <c r="AF9" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG9" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH9" s="31" t="s">
         <v>10</v>
@@ -8083,13 +8083,13 @@
         <v>2</v>
       </c>
       <c r="AS9" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT9" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU9" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV9" s="31" t="s">
         <v>29</v>
@@ -8176,7 +8176,7 @@
         <v>175</v>
       </c>
       <c r="CB9" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="CC9" s="31" t="s">
         <v>48</v>
@@ -8254,10 +8254,10 @@
       <c r="DL9" s="9"/>
       <c r="DM9" s="9"/>
       <c r="DN9" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="DO9" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
@@ -8265,7 +8265,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>491</v>
@@ -8351,10 +8351,10 @@
         <v>36</v>
       </c>
       <c r="AF10" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG10" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH10" s="31" t="s">
         <v>10</v>
@@ -8390,13 +8390,13 @@
         <v>2</v>
       </c>
       <c r="AS10" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT10" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU10" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV10" s="31" t="s">
         <v>29</v>
@@ -8562,15 +8562,15 @@
       <c r="DM10" s="9"/>
       <c r="DN10" s="3"/>
       <c r="DO10" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:119" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>491</v>
@@ -8656,10 +8656,10 @@
         <v>36</v>
       </c>
       <c r="AF11" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG11" s="28" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AH11" s="31" t="s">
         <v>10</v>
@@ -8695,13 +8695,13 @@
         <v>2</v>
       </c>
       <c r="AS11" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU11" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV11" s="31" t="s">
         <v>29</v>
@@ -9369,7 +9369,7 @@
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://10.168.128.112:25003/integratedIssuing-customerPortal/mpts/app/Login"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3:B11" r:id="rId3" display="http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
+    <hyperlink ref="B3:B11" r:id="rId3" display="http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -10413,16 +10413,16 @@
         <v>413</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -10475,10 +10475,10 @@
         <v>210</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>408</v>
@@ -10493,13 +10493,13 @@
         <v>210</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>213</v>
@@ -10508,10 +10508,10 @@
         <v>34</v>
       </c>
       <c r="AB2" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD2" s="32" t="s">
         <v>214</v>
@@ -10538,7 +10538,7 @@
         <v>377</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>414</v>
@@ -10561,7 +10561,7 @@
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV2" s="9" t="s">
         <v>350</v>
@@ -10570,7 +10570,7 @@
         <v>351</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>352</v>
@@ -10640,10 +10640,10 @@
         <v>210</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>408</v>
@@ -10658,13 +10658,13 @@
         <v>210</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>213</v>
@@ -10673,10 +10673,10 @@
         <v>34</v>
       </c>
       <c r="AB3" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>214</v>
@@ -10703,7 +10703,7 @@
         <v>377</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM3" s="9" t="s">
         <v>414</v>
@@ -10726,7 +10726,7 @@
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV3" s="9" t="s">
         <v>350</v>
@@ -10735,7 +10735,7 @@
         <v>351</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY3" s="9" t="s">
         <v>352</v>
@@ -10803,10 +10803,10 @@
         <v>210</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>408</v>
@@ -10821,13 +10821,13 @@
         <v>210</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>213</v>
@@ -10836,10 +10836,10 @@
         <v>34</v>
       </c>
       <c r="AB4" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD4" s="32" t="s">
         <v>214</v>
@@ -10866,7 +10866,7 @@
         <v>377</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>414</v>
@@ -10889,7 +10889,7 @@
         <v>34</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV4" s="9" t="s">
         <v>350</v>
@@ -10898,7 +10898,7 @@
         <v>351</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY4" s="9" t="s">
         <v>352</v>
@@ -10966,10 +10966,10 @@
         <v>210</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>408</v>
@@ -10984,13 +10984,13 @@
         <v>210</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>213</v>
@@ -10999,10 +10999,10 @@
         <v>34</v>
       </c>
       <c r="AB5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC5" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD5" s="32" t="s">
         <v>214</v>
@@ -11029,7 +11029,7 @@
         <v>377</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>414</v>
@@ -11052,7 +11052,7 @@
         <v>34</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV5" s="9" t="s">
         <v>350</v>
@@ -11061,7 +11061,7 @@
         <v>351</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY5" s="9" t="s">
         <v>352</v>
@@ -11131,10 +11131,10 @@
         <v>210</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>408</v>
@@ -11149,13 +11149,13 @@
         <v>210</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>213</v>
@@ -11164,10 +11164,10 @@
         <v>34</v>
       </c>
       <c r="AB6" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD6" s="32" t="s">
         <v>214</v>
@@ -11194,7 +11194,7 @@
         <v>377</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>414</v>
@@ -11217,7 +11217,7 @@
         <v>34</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV6" s="9" t="s">
         <v>350</v>
@@ -11226,7 +11226,7 @@
         <v>351</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY6" s="9" t="s">
         <v>352</v>
@@ -11296,10 +11296,10 @@
         <v>210</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>408</v>
@@ -11314,13 +11314,13 @@
         <v>210</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>213</v>
@@ -11329,10 +11329,10 @@
         <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC7" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD7" s="32" t="s">
         <v>214</v>
@@ -11359,7 +11359,7 @@
         <v>377</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM7" s="9" t="s">
         <v>414</v>
@@ -11382,7 +11382,7 @@
         <v>34</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV7" s="9" t="s">
         <v>350</v>
@@ -11391,7 +11391,7 @@
         <v>351</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY7" s="9" t="s">
         <v>352</v>
@@ -11461,10 +11461,10 @@
         <v>210</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>408</v>
@@ -11479,13 +11479,13 @@
         <v>210</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>213</v>
@@ -11494,10 +11494,10 @@
         <v>34</v>
       </c>
       <c r="AB8" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC8" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC8" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD8" s="32" t="s">
         <v>214</v>
@@ -11524,7 +11524,7 @@
         <v>377</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM8" s="9" t="s">
         <v>414</v>
@@ -11547,7 +11547,7 @@
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV8" s="9" t="s">
         <v>350</v>
@@ -11556,7 +11556,7 @@
         <v>351</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>352</v>
@@ -11626,10 +11626,10 @@
         <v>210</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>408</v>
@@ -11644,13 +11644,13 @@
         <v>210</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X9" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>213</v>
@@ -11659,10 +11659,10 @@
         <v>34</v>
       </c>
       <c r="AB9" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC9" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD9" s="32" t="s">
         <v>214</v>
@@ -11689,7 +11689,7 @@
         <v>377</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM9" s="9" t="s">
         <v>414</v>
@@ -11712,7 +11712,7 @@
         <v>34</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV9" s="9" t="s">
         <v>350</v>
@@ -11721,7 +11721,7 @@
         <v>351</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY9" s="9" t="s">
         <v>352</v>
@@ -11789,10 +11789,10 @@
         <v>210</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R10" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S10" s="48" t="s">
         <v>408</v>
@@ -11807,13 +11807,13 @@
         <v>210</v>
       </c>
       <c r="W10" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X10" s="48" t="s">
         <v>212</v>
       </c>
       <c r="Y10" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z10" s="48" t="s">
         <v>213</v>
@@ -11822,10 +11822,10 @@
         <v>34</v>
       </c>
       <c r="AB10" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC10" s="48" t="s">
         <v>543</v>
-      </c>
-      <c r="AC10" s="48" t="s">
-        <v>544</v>
       </c>
       <c r="AD10" s="50" t="s">
         <v>214</v>
@@ -11852,7 +11852,7 @@
         <v>377</v>
       </c>
       <c r="AL10" s="48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM10" s="48" t="s">
         <v>414</v>
@@ -11875,7 +11875,7 @@
         <v>34</v>
       </c>
       <c r="AU10" s="48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV10" s="48" t="s">
         <v>350</v>
@@ -11884,7 +11884,7 @@
         <v>351</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY10" s="48" t="s">
         <v>352</v>
@@ -11952,10 +11952,10 @@
         <v>210</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>408</v>
@@ -11970,13 +11970,13 @@
         <v>210</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>212</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>213</v>
@@ -11985,10 +11985,10 @@
         <v>34</v>
       </c>
       <c r="AB11" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC11" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="AD11" s="32" t="s">
         <v>214</v>
@@ -12015,7 +12015,7 @@
         <v>377</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM11" s="9" t="s">
         <v>414</v>
@@ -12038,7 +12038,7 @@
         <v>34</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV11" s="9" t="s">
         <v>350</v>
@@ -12047,7 +12047,7 @@
         <v>351</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AY11" s="9" t="s">
         <v>352</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>436</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>210</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
-    <sheet name="S205014" sheetId="2" r:id="rId2"/>
+    <sheet name="S205014" sheetId="20" r:id="rId2"/>
     <sheet name="S205000" sheetId="3" r:id="rId3"/>
     <sheet name="S205009" sheetId="6" r:id="rId4"/>
     <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="778">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1338,18 +1338,6 @@
     <t>Length4</t>
   </si>
   <si>
-    <t>Field5</t>
-  </si>
-  <si>
-    <t>Length5</t>
-  </si>
-  <si>
-    <t>Field6</t>
-  </si>
-  <si>
-    <t>Length6</t>
-  </si>
-  <si>
     <t>iPKExpiryDate</t>
   </si>
   <si>
@@ -1368,9 +1356,6 @@
     <t>Product Currency</t>
   </si>
   <si>
-    <t>Sequence Number</t>
-  </si>
-  <si>
     <t>March/10/2050</t>
   </si>
   <si>
@@ -2182,6 +2167,204 @@
   </si>
   <si>
     <t>Payment [1]</t>
+  </si>
+  <si>
+    <t>Active [0]</t>
+  </si>
+  <si>
+    <t>MDK Key [00]</t>
+  </si>
+  <si>
+    <t>9855B6</t>
+  </si>
+  <si>
+    <t>6B9D441DA33CF04F687C085A0CD9D8F8</t>
+  </si>
+  <si>
+    <t>55AF3C</t>
+  </si>
+  <si>
+    <t>3B84D3C46E096114BF1A505A548A88AE</t>
+  </si>
+  <si>
+    <t>2BC1FE</t>
+  </si>
+  <si>
+    <t>E60699F5B9ADE145FF6B0281D6FF7A71</t>
+  </si>
+  <si>
+    <t>2A7944</t>
+  </si>
+  <si>
+    <t>80F5706D510BF6F7D54D6DA3053CAB8A</t>
+  </si>
+  <si>
+    <t>ZMK [6]</t>
+  </si>
+  <si>
+    <t>MasterCard(CIS) [03]</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>7B634E89DB88BBD9BB33C702FD1C9151</t>
+  </si>
+  <si>
+    <t>985BDD</t>
+  </si>
+  <si>
+    <t>B4638CBCEC1E6E52</t>
+  </si>
+  <si>
+    <t>0EBBE7</t>
+  </si>
+  <si>
+    <t>4A43436017024880</t>
+  </si>
+  <si>
+    <t>1-Single Component [1]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>829DD2</t>
+  </si>
+  <si>
+    <t>181CFD03C3F7385FCA36BF63DDD4BD01</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>IBM Method [3]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
+  </si>
+  <si>
+    <t>BlackEyeCreDE [034062]</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
+  </si>
+  <si>
+    <t>AmextInstituionSetup</t>
+  </si>
+  <si>
+    <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>MDKInterchangeType</t>
+  </si>
+  <si>
+    <t>MDKKeyType</t>
+  </si>
+  <si>
+    <t>SMCKeyCheckvalue</t>
+  </si>
+  <si>
+    <t>SMCEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMIKeyCheckvalues</t>
+  </si>
+  <si>
+    <t>SMIEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>MDKKeyCheckValue</t>
+  </si>
+  <si>
+    <t>MDKEncryptedUnderLMK</t>
+  </si>
+  <si>
+    <t>NetworkCryptogramCheckValue</t>
+  </si>
+  <si>
+    <t>NetworkCryptogram</t>
+  </si>
+  <si>
+    <t>KeyType</t>
+  </si>
+  <si>
+    <t>NetworkInterface</t>
+  </si>
+  <si>
+    <t>CVC3OffsetOnTrack</t>
+  </si>
+  <si>
+    <t>UNOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>ATCOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>CVV3KeyCheckvalue</t>
+  </si>
+  <si>
+    <t>CVV3Cryptogram</t>
+  </si>
+  <si>
+    <t>CVKBKeyCheck</t>
+  </si>
+  <si>
+    <t>CVKBCryptogram</t>
+  </si>
+  <si>
+    <t>CVKAKeyCheck</t>
+  </si>
+  <si>
+    <t>CVKACryptogram</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>CVVOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>PINVerificationKeyCheck</t>
+  </si>
+  <si>
+    <t>PINVerificationKey</t>
+  </si>
+  <si>
+    <t>PINValidationData</t>
+  </si>
+  <si>
+    <t>PVKOffset</t>
+  </si>
+  <si>
+    <t>PVVOffset</t>
+  </si>
+  <si>
+    <t>PINlength</t>
+  </si>
+  <si>
+    <t>GeneralisationMethod</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2543,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2427,7 +2610,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2467,6 +2649,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -4294,49 +4478,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -4447,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4486,7 +4670,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4522,7 +4706,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4627,129 +4811,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="DR1" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="DS1" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="DT1" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="DP1" s="37" t="s">
+      <c r="DU1" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="DQ1" s="37" t="s">
+      <c r="DV1" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="DR1" s="37" t="s">
+      <c r="DW1" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="DS1" s="37" t="s">
+      <c r="DX1" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="DT1" s="37" t="s">
+      <c r="DY1" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="DU1" s="37" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="DV1" s="37" t="s">
+      <c r="EA1" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="DW1" s="37" t="s">
+      <c r="EB1" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="DX1" s="37" t="s">
+      <c r="EC1" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="DY1" s="37" t="s">
+      <c r="ED1" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="DZ1" s="37" t="s">
+      <c r="EE1" s="36" t="s">
         <v>514</v>
-      </c>
-      <c r="EA1" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="EB1" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="EC1" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="ED1" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>522</v>
+        <v>516</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>517</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="P2" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="T2" s="39" t="s">
         <v>531</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>536</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4769,24 +4953,24 @@
       <c r="Z2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4807,7 +4991,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -4844,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -4856,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -4874,7 +5058,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -4888,7 +5072,7 @@
       <c r="BQ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BR2" s="41" t="s">
         <v>406</v>
       </c>
       <c r="BS2" s="12" t="s">
@@ -4904,20 +5088,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>545</v>
-      </c>
-      <c r="BX2" s="43"/>
+        <v>540</v>
+      </c>
+      <c r="BX2" s="42"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -4932,27 +5116,27 @@
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
-      <c r="CH2" s="43" t="s">
+      <c r="CH2" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="CI2" s="43" t="s">
+      <c r="CI2" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
       <c r="CL2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="43" t="s">
-        <v>547</v>
+      <c r="CM2" s="42" t="s">
+        <v>542</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="CP2" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="CP2" s="40" t="s">
         <v>355</v>
       </c>
       <c r="CQ2" s="11" t="s">
@@ -4966,22 +5150,22 @@
       </c>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
-      <c r="CV2" s="41" t="s">
-        <v>532</v>
+      <c r="CV2" s="40" t="s">
+        <v>527</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="41" t="s">
+      <c r="CX2" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="CY2" s="41" t="s">
+      <c r="CY2" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="CZ2" s="41" t="s">
+      <c r="CZ2" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="DA2" s="41" t="s">
+      <c r="DA2" s="40" t="s">
         <v>411</v>
       </c>
       <c r="DB2" s="12" t="s">
@@ -5004,67 +5188,67 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="DP2" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ2" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="DR2" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="DS2" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="DT2" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU2" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DV2" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DW2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY2" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DZ2" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="DS2" s="45" t="s">
+      <c r="EA2" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB2" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="EC2" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="DT2" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="DU2" s="45" t="s">
+      <c r="ED2" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="DV2" s="44" t="s">
+      <c r="EE2" s="43" t="s">
         <v>557</v>
-      </c>
-      <c r="DW2" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX2" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="DY2" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="DZ2" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EA2" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EC2" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="ED2" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="EE2" s="44" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5076,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5098,49 +5282,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -5251,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -5290,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -5326,7 +5510,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -5431,153 +5615,153 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="DR1" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="DS1" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="DT1" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="DP1" s="37" t="s">
+      <c r="DU1" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="DQ1" s="37" t="s">
+      <c r="DV1" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="DR1" s="37" t="s">
+      <c r="DW1" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="DS1" s="37" t="s">
+      <c r="DX1" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="DT1" s="37" t="s">
+      <c r="DY1" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="DU1" s="37" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="DV1" s="37" t="s">
+      <c r="EA1" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="DW1" s="37" t="s">
+      <c r="EB1" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="DX1" s="37" t="s">
+      <c r="EC1" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="DY1" s="37" t="s">
+      <c r="ED1" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="EE1" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="EF1" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="DZ1" s="37" t="s">
+      <c r="EG1" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="EH1" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="EI1" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="EJ1" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="EK1" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="EL1" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="EM1" s="36" t="s">
         <v>514</v>
-      </c>
-      <c r="EA1" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="EB1" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="EC1" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="ED1" s="37" t="s">
-        <v>702</v>
-      </c>
-      <c r="EE1" s="37" t="s">
-        <v>703</v>
-      </c>
-      <c r="EF1" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="EG1" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="EH1" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="EI1" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="EJ1" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="EK1" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="EL1" s="37" t="s">
-        <v>709</v>
-      </c>
-      <c r="EM1" s="37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="P2" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="S2" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="T2" s="39" t="s">
         <v>531</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>536</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5597,24 +5781,24 @@
       <c r="Z2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5635,7 +5819,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5672,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5684,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5702,7 +5886,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -5716,7 +5900,7 @@
       <c r="BQ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="42" t="s">
+      <c r="BR2" s="41" t="s">
         <v>406</v>
       </c>
       <c r="BS2" s="12" t="s">
@@ -5732,20 +5916,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>545</v>
-      </c>
-      <c r="BX2" s="43"/>
+        <v>540</v>
+      </c>
+      <c r="BX2" s="42"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5760,27 +5944,27 @@
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
-      <c r="CH2" s="43" t="s">
+      <c r="CH2" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="CI2" s="43" t="s">
+      <c r="CI2" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
       <c r="CL2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="43" t="s">
-        <v>547</v>
+      <c r="CM2" s="42" t="s">
+        <v>542</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="CP2" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="CP2" s="40" t="s">
         <v>355</v>
       </c>
       <c r="CQ2" s="11" t="s">
@@ -5794,22 +5978,22 @@
       </c>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
-      <c r="CV2" s="41" t="s">
-        <v>532</v>
+      <c r="CV2" s="40" t="s">
+        <v>527</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="41" t="s">
+      <c r="CX2" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="CY2" s="41" t="s">
+      <c r="CY2" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="CZ2" s="41" t="s">
+      <c r="CZ2" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="DA2" s="41" t="s">
+      <c r="DA2" s="40" t="s">
         <v>411</v>
       </c>
       <c r="DB2" s="12" t="s">
@@ -5832,143 +6016,143 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="DP2" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ2" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="DR2" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="DS2" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="DT2" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU2" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="DP2" s="44" t="s">
+      <c r="DV2" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="DQ2" s="44" t="s">
+      <c r="DW2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY2" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DR2" s="44" t="s">
+      <c r="DZ2" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="DS2" s="45" t="s">
+      <c r="EA2" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB2" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="EC2" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="DT2" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="DU2" s="45" t="s">
+      <c r="ED2" s="44"/>
+      <c r="EE2" s="44"/>
+      <c r="EF2" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="DV2" s="44" t="s">
+      <c r="EG2" s="44"/>
+      <c r="EH2" s="44"/>
+      <c r="EI2" s="44"/>
+      <c r="EJ2" s="44"/>
+      <c r="EK2" s="44"/>
+      <c r="EL2" s="44"/>
+      <c r="EM2" s="43" t="s">
         <v>557</v>
-      </c>
-      <c r="DW2" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX2" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="DY2" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="DZ2" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EA2" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="EB2" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EC2" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="ED2" s="45"/>
-      <c r="EE2" s="45"/>
-      <c r="EF2" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="EG2" s="45"/>
-      <c r="EH2" s="45"/>
-      <c r="EI2" s="45"/>
-      <c r="EJ2" s="45"/>
-      <c r="EK2" s="45"/>
-      <c r="EL2" s="45"/>
-      <c r="EM2" s="44" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>712</v>
+      <c r="D3" s="37" t="s">
+        <v>707</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="N3" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="O3" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="P3" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="R3" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="M3" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="N3" s="40" t="s">
+      <c r="S3" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>531</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>536</v>
       </c>
       <c r="U3" s="11">
         <v>50</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>128</v>
@@ -5982,24 +6166,24 @@
       <c r="Z3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AJ3" s="12" t="s">
         <v>36</v>
@@ -6020,7 +6204,7 @@
         <v>121</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AQ3" s="12" t="s">
         <v>120</v>
@@ -6057,19 +6241,19 @@
         <v>1</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="BD3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BF3" s="12">
         <v>12</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="BH3" s="12">
         <v>2</v>
@@ -6087,7 +6271,7 @@
         <v>29</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="BN3" s="12" t="s">
         <v>199</v>
@@ -6101,7 +6285,7 @@
       <c r="BQ3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR3" s="42" t="s">
+      <c r="BR3" s="41" t="s">
         <v>406</v>
       </c>
       <c r="BS3" s="12" t="s">
@@ -6117,20 +6301,20 @@
         <v>12345678</v>
       </c>
       <c r="BW3" t="s">
-        <v>545</v>
-      </c>
-      <c r="BX3" s="43"/>
+        <v>540</v>
+      </c>
+      <c r="BX3" s="42"/>
       <c r="BY3" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="CA3" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="CC3" s="12" t="s">
         <v>67</v>
@@ -6145,27 +6329,27 @@
         <v>71</v>
       </c>
       <c r="CG3" s="12"/>
-      <c r="CH3" s="43" t="s">
+      <c r="CH3" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="CI3" s="43" t="s">
+      <c r="CI3" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="CJ3" s="41"/>
-      <c r="CK3" s="41"/>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
       <c r="CL3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM3" s="43" t="s">
-        <v>547</v>
+      <c r="CM3" s="42" t="s">
+        <v>542</v>
       </c>
       <c r="CN3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO3" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="CP3" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="CP3" s="40" t="s">
         <v>355</v>
       </c>
       <c r="CQ3" s="11" t="s">
@@ -6174,27 +6358,27 @@
       <c r="CR3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="CS3" s="65" t="s">
-        <v>714</v>
+      <c r="CS3" s="64" t="s">
+        <v>709</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
-      <c r="CV3" s="41" t="s">
-        <v>532</v>
+      <c r="CV3" s="40" t="s">
+        <v>527</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX3" s="41" t="s">
+      <c r="CX3" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="CY3" s="41" t="s">
+      <c r="CY3" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="CZ3" s="41" t="s">
+      <c r="CZ3" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="DA3" s="41" t="s">
+      <c r="DA3" s="40" t="s">
         <v>411</v>
       </c>
       <c r="DB3" s="12" t="s">
@@ -6217,87 +6401,87 @@
         <v>53</v>
       </c>
       <c r="DK3" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="DL3" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="DM3" s="12" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="DN3" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO3" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="DP3" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="DQ3" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="DR3" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="DS3" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="DT3" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="DU3" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="DP3" s="44" t="s">
+      <c r="DV3" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="DQ3" s="44" t="s">
+      <c r="DW3" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX3" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="DY3" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DR3" s="44" t="s">
+      <c r="DZ3" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="DS3" s="45" t="s">
+      <c r="EA3" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="EB3" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="EC3" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="DT3" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="DU3" s="45" t="s">
+      <c r="ED3" s="44"/>
+      <c r="EE3" s="44"/>
+      <c r="EF3" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="DV3" s="44" t="s">
+      <c r="EG3" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="EH3" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI3" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="EJ3" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="EK3" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="EL3" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="EM3" s="43" t="s">
         <v>557</v>
-      </c>
-      <c r="DW3" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX3" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="DY3" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="DZ3" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EA3" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="EB3" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="EC3" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="ED3" s="45"/>
-      <c r="EE3" s="45"/>
-      <c r="EF3" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="EG3" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="EH3" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="EI3" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="EJ3" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="EK3" s="45" t="s">
-        <v>716</v>
-      </c>
-      <c r="EL3" s="45" t="s">
-        <v>716</v>
-      </c>
-      <c r="EM3" s="44" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6331,25 +6515,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>307</v>
@@ -6360,37 +6544,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>584</v>
+        <v>571</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>579</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>398</v>
@@ -6417,7 +6601,7 @@
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="63" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
@@ -6465,293 +6649,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="K1" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="L1" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="S1" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="T1" s="49" t="s">
         <v>595</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="U1" s="50" t="s">
         <v>596</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="V1" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="W1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="X1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="Y1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="Z1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AF1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AP1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
         <v>632</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="B2" s="53" t="s">
         <v>633</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="C2" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="D2" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>635</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="F2" s="52">
+        <v>10</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="H2" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="I2" s="56" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="J2" s="55" t="s">
+        <v>553</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52">
+        <v>9021723007</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>639</v>
-      </c>
-      <c r="E2" s="53" t="s">
+      <c r="P2" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="F2" s="53">
-        <v>10</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="Q2" s="58">
+        <v>5</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="S2" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="T2" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="U2" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="J2" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53">
-        <v>9021723007</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="58" t="s">
-        <v>644</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q2" s="59">
-        <v>5</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>646</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>647</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>648</v>
-      </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>639</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>639</v>
+        <v>644</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>634</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -6804,28 +6988,28 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>651</v>
+        <v>645</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -6878,52 +7062,52 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>651</v>
+        <v>647</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>410</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L5" s="2">
         <v>955689456</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>644</v>
+        <v>650</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>639</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -6968,28 +7152,28 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -7042,28 +7226,28 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>651</v>
+        <v>653</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7082,10 +7266,10 @@
         <v>10</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -7122,28 +7306,28 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>651</v>
+        <v>656</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -7162,16 +7346,16 @@
         <v>10</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="Z8" s="62" t="s">
-        <v>663</v>
+        <v>657</v>
+      </c>
+      <c r="Z8" s="61" t="s">
+        <v>658</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -7206,28 +7390,28 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>651</v>
+        <v>659</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -7246,28 +7430,28 @@
         <v>10</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X9" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z9" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA9" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="AB9" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z9" s="62" t="s">
+      <c r="AD9" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA9" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB9" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -7298,28 +7482,28 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>651</v>
+        <v>664</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -7338,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X10" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z10" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA10" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AB10" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z10" s="62" t="s">
+      <c r="AD10" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA10" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB10" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -7390,28 +7574,28 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>651</v>
+        <v>665</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -7430,38 +7614,38 @@
         <v>10</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X11" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z11" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA11" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="AB11" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z11" s="62" t="s">
+      <c r="AD11" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="AA11" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB11" s="62" t="s">
+      <c r="AE11" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -7488,28 +7672,28 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>651</v>
+        <v>668</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -7528,38 +7712,38 @@
         <v>10</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z12" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA12" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="AB12" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z12" s="62" t="s">
+      <c r="AD12" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA12" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB12" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -7586,28 +7770,28 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>651</v>
+        <v>670</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -7626,41 +7810,41 @@
         <v>10</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z13" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA13" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="AB13" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z13" s="62" t="s">
+      <c r="AD13" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA13" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB13" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AI13" s="62" t="s">
-        <v>676</v>
+        <v>667</v>
+      </c>
+      <c r="AI13" s="61" t="s">
+        <v>671</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -7686,28 +7870,28 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>651</v>
+        <v>672</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -7726,41 +7910,41 @@
         <v>10</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z14" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA14" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="AB14" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z14" s="62" t="s">
+      <c r="AD14" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA14" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB14" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AI14" s="62" t="s">
-        <v>676</v>
+        <v>667</v>
+      </c>
+      <c r="AI14" s="61" t="s">
+        <v>671</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -7786,28 +7970,28 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>651</v>
+        <v>673</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -7826,41 +8010,41 @@
         <v>10</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z15" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA15" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="AB15" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Z15" s="62" t="s">
+      <c r="AD15" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="AA15" s="62" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB15" s="62" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AI15" s="62" t="s">
-        <v>676</v>
+        <v>667</v>
+      </c>
+      <c r="AI15" s="61" t="s">
+        <v>671</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -7886,28 +8070,28 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>651</v>
+        <v>674</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -7937,31 +8121,31 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AR16" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>30</v>
@@ -7969,8 +8153,8 @@
       <c r="AT16" s="2">
         <v>411033</v>
       </c>
-      <c r="AU16" s="46" t="s">
-        <v>688</v>
+      <c r="AU16" s="45" t="s">
+        <v>683</v>
       </c>
       <c r="AV16" s="2">
         <v>7896543215</v>
@@ -7979,7 +8163,7 @@
         <v>5000</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -7988,138 +8172,138 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
     </row>
-    <row r="17" spans="1:56" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>690</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>640</v>
-      </c>
-      <c r="F17" s="53">
+    <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="52">
         <v>5</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>641</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>642</v>
-      </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53" t="s">
+      <c r="G17" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK17" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL17" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="AM17" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN17" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO17" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP17" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="AK17" s="53" t="s">
+      <c r="AQ17" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="AL17" s="53" t="s">
+      <c r="AR17" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="AM17" s="53" t="s">
+      <c r="AS17" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT17" s="52">
+        <v>411033</v>
+      </c>
+      <c r="AU17" s="62" t="s">
         <v>683</v>
       </c>
-      <c r="AN17" s="53" t="s">
+      <c r="AV17" s="52">
+        <v>7896543215</v>
+      </c>
+      <c r="AW17" s="52">
+        <v>5000</v>
+      </c>
+      <c r="AX17" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="AO17" s="53" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP17" s="53" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ17" s="53" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR17" s="53" t="s">
-        <v>687</v>
-      </c>
-      <c r="AS17" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT17" s="53">
-        <v>411033</v>
-      </c>
-      <c r="AU17" s="63" t="s">
-        <v>688</v>
-      </c>
-      <c r="AV17" s="53">
-        <v>7896543215</v>
-      </c>
-      <c r="AW17" s="53">
-        <v>5000</v>
-      </c>
-      <c r="AX17" s="53" t="s">
-        <v>689</v>
-      </c>
-      <c r="AY17" s="53" t="s">
-        <v>644</v>
-      </c>
-      <c r="AZ17" s="53" t="s">
-        <v>644</v>
-      </c>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
+      <c r="AY17" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="AZ17" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>651</v>
+        <v>686</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F18" s="2">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -8149,31 +8333,31 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP18" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AR18" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>30</v>
@@ -8181,8 +8365,8 @@
       <c r="AT18" s="2">
         <v>411033</v>
       </c>
-      <c r="AU18" s="46" t="s">
-        <v>688</v>
+      <c r="AU18" s="45" t="s">
+        <v>683</v>
       </c>
       <c r="AV18" s="2">
         <v>7896543215</v>
@@ -8191,13 +8375,13 @@
         <v>5000</v>
       </c>
       <c r="AX18" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -8206,28 +8390,28 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>651</v>
+        <v>687</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -8257,31 +8441,31 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP19" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AR19" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>30</v>
@@ -8289,8 +8473,8 @@
       <c r="AT19" s="2">
         <v>411033</v>
       </c>
-      <c r="AU19" s="46" t="s">
-        <v>688</v>
+      <c r="AU19" s="45" t="s">
+        <v>683</v>
       </c>
       <c r="AV19" s="2">
         <v>7896543215</v>
@@ -8299,13 +8483,13 @@
         <v>5000</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -8314,28 +8498,28 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>651</v>
+        <v>688</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -8365,31 +8549,31 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AP20" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AQ20" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AR20" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="AM20" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="AN20" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>30</v>
@@ -8397,8 +8581,8 @@
       <c r="AT20" s="2">
         <v>411033</v>
       </c>
-      <c r="AU20" s="46" t="s">
-        <v>688</v>
+      <c r="AU20" s="45" t="s">
+        <v>683</v>
       </c>
       <c r="AV20" s="2">
         <v>7896543215</v>
@@ -8407,13 +8591,13 @@
         <v>5000</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AZ20" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
@@ -8422,28 +8606,28 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>651</v>
+        <v>689</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -8496,28 +8680,28 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>651</v>
+        <v>690</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8570,28 +8754,28 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>651</v>
+        <v>691</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F23" s="2">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8644,28 +8828,28 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>651</v>
+        <v>692</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F24" s="2">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -8718,28 +8902,28 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>651</v>
+        <v>693</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F25" s="2">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -8792,28 +8976,28 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>651</v>
+        <v>694</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F26" s="2">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -8866,28 +9050,28 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>651</v>
+        <v>695</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -8940,52 +9124,52 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>701</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>651</v>
+        <v>696</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>646</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>410</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L28" s="2">
         <v>955689456</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>644</v>
+        <v>650</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>639</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -9045,10 +9229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:EN177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="EM2" sqref="EM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9064,9 +9248,10 @@
     <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17.5703125" customWidth="1"/>
     <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="143" max="143" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9407,34 +9592,114 @@
         <v>435</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>436</v>
+        <v>777</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>437</v>
+        <v>776</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>438</v>
+        <v>775</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="DN1" s="4"/>
-    </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>356</v>
+      <c r="B2" s="37" t="s">
+        <v>745</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>397</v>
+        <v>744</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>399</v>
+        <v>743</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>400</v>
@@ -9690,14 +9955,14 @@
       <c r="CS2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CT2" s="35" t="s">
+      <c r="CT2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="CU2" s="9">
         <v>100</v>
       </c>
-      <c r="CV2" s="36" t="s">
-        <v>440</v>
+      <c r="CV2" s="9" t="s">
+        <v>436</v>
       </c>
       <c r="CW2" s="9">
         <v>5</v>
@@ -9709,45 +9974,130 @@
         <v>71</v>
       </c>
       <c r="CZ2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="DA2" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB2" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="DD2" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="DE2" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="DF2" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="DG2" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DH2" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="DI2" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="DA2" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="DB2" s="9">
-        <v>6</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="DD2" s="9">
-        <v>2</v>
-      </c>
-      <c r="DE2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="DF2" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="DH2" s="9">
-        <v>3</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="DJ2" s="9">
-        <v>3</v>
-      </c>
-      <c r="DK2" s="9"/>
-      <c r="DL2" s="9"/>
-      <c r="DM2" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DJ2" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="DK2" s="66" t="s">
+        <v>736</v>
+      </c>
+      <c r="DL2" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="DM2" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="DN2" s="65" t="s">
+        <v>734</v>
+      </c>
+      <c r="DO2" s="65" t="s">
+        <v>733</v>
+      </c>
+      <c r="DP2" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="DQ2" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="DR2" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="DS2" s="65" t="s">
+        <v>729</v>
+      </c>
+      <c r="DT2" s="65" t="s">
+        <v>728</v>
+      </c>
+      <c r="DU2" s="65" t="s">
+        <v>727</v>
+      </c>
+      <c r="DV2" s="65" t="s">
+        <v>726</v>
+      </c>
+      <c r="DW2" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="DX2" s="65" t="s">
+        <v>724</v>
+      </c>
+      <c r="DY2" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="DZ2" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="EA2" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="ED2" s="37" t="s">
+        <v>721</v>
+      </c>
+      <c r="EE2" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="EF2" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="EG2" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="EH2" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="EI2" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="EJ2" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="EK2" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="EL2" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="EM2" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="EN2" s="61" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -10019,14 +10369,75 @@
       <c r="CS3" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CT3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="2">
+      <c r="CU3" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB3" s="31">
+        <v>6</v>
+      </c>
+      <c r="DC3" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="DD3" s="31">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="DF3" s="31">
+        <v>1</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DH3" s="9">
+        <v>3</v>
+      </c>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
+      <c r="DM3" s="9"/>
+      <c r="DN3" s="9"/>
+      <c r="DO3" s="9"/>
+      <c r="DP3" s="9"/>
+      <c r="DQ3" s="9"/>
+      <c r="DR3" s="9"/>
+      <c r="DS3" s="9"/>
+      <c r="DT3" s="9"/>
+      <c r="DU3" s="9"/>
+      <c r="DV3" s="9"/>
+      <c r="DW3" s="9"/>
+      <c r="DX3" s="9"/>
+      <c r="DY3" s="9"/>
+      <c r="DZ3" s="9"/>
+      <c r="EA3" s="9"/>
+      <c r="EB3" s="2"/>
+      <c r="EC3" s="2"/>
+      <c r="ED3" s="2"/>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3" s="2"/>
+      <c r="EI3" s="2"/>
+      <c r="EJ3" s="2"/>
+      <c r="EK3" s="2"/>
+      <c r="EL3" s="2"/>
+      <c r="EM3" s="2"/>
+      <c r="EN3" s="2"/>
+    </row>
+    <row r="4" spans="1:144" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -10298,14 +10709,59 @@
       <c r="CS4" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT4" t="s">
+      <c r="CT4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CU4" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="9"/>
+      <c r="DE4" s="9"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
+      <c r="DM4" s="9"/>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
+      <c r="DP4" s="9"/>
+      <c r="DQ4" s="9"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
+      <c r="DT4" s="9"/>
+      <c r="DU4" s="9"/>
+      <c r="DV4" s="9"/>
+      <c r="DW4" s="9"/>
+      <c r="DX4" s="9"/>
+      <c r="DY4" s="9"/>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+    </row>
+    <row r="5" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -10577,14 +11033,59 @@
       <c r="CS5" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT5" t="s">
+      <c r="CT5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CU5" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="CV5" s="9"/>
+      <c r="CW5" s="9"/>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="9"/>
+      <c r="DN5" s="9"/>
+      <c r="DO5" s="9"/>
+      <c r="DP5" s="9"/>
+      <c r="DQ5" s="9"/>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="9"/>
+      <c r="DT5" s="9"/>
+      <c r="DU5" s="9"/>
+      <c r="DV5" s="9"/>
+      <c r="DW5" s="9"/>
+      <c r="DX5" s="9"/>
+      <c r="DY5" s="9"/>
+      <c r="DZ5" s="9"/>
+      <c r="EA5" s="9"/>
+      <c r="EB5" s="2"/>
+      <c r="EC5" s="2"/>
+      <c r="ED5" s="2"/>
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="2"/>
+      <c r="EG5" s="2"/>
+      <c r="EH5" s="2"/>
+      <c r="EI5" s="2"/>
+      <c r="EJ5" s="2"/>
+      <c r="EK5" s="2"/>
+      <c r="EL5" s="2"/>
+      <c r="EM5" s="2"/>
+      <c r="EN5" s="2"/>
+    </row>
+    <row r="6" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -10856,14 +11357,59 @@
       <c r="CS6" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT6" t="s">
+      <c r="CT6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU6" s="2">
+      <c r="CU6" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="CV6" s="9"/>
+      <c r="CW6" s="9"/>
+      <c r="CX6" s="9"/>
+      <c r="CY6" s="9"/>
+      <c r="CZ6" s="9"/>
+      <c r="DA6" s="9"/>
+      <c r="DB6" s="9"/>
+      <c r="DC6" s="9"/>
+      <c r="DD6" s="9"/>
+      <c r="DE6" s="9"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="9"/>
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9"/>
+      <c r="DK6" s="9"/>
+      <c r="DL6" s="9"/>
+      <c r="DM6" s="9"/>
+      <c r="DN6" s="9"/>
+      <c r="DO6" s="9"/>
+      <c r="DP6" s="9"/>
+      <c r="DQ6" s="9"/>
+      <c r="DR6" s="9"/>
+      <c r="DS6" s="9"/>
+      <c r="DT6" s="9"/>
+      <c r="DU6" s="9"/>
+      <c r="DV6" s="9"/>
+      <c r="DW6" s="9"/>
+      <c r="DX6" s="9"/>
+      <c r="DY6" s="9"/>
+      <c r="DZ6" s="9"/>
+      <c r="EA6" s="9"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EI6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6" s="2"/>
+      <c r="EL6" s="2"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6" s="2"/>
+    </row>
+    <row r="7" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -11137,14 +11683,59 @@
       <c r="CS7" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT7" t="s">
+      <c r="CT7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU7" s="2">
+      <c r="CU7" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="CV7" s="9"/>
+      <c r="CW7" s="9"/>
+      <c r="CX7" s="9"/>
+      <c r="CY7" s="9"/>
+      <c r="CZ7" s="9"/>
+      <c r="DA7" s="9"/>
+      <c r="DB7" s="9"/>
+      <c r="DC7" s="9"/>
+      <c r="DD7" s="9"/>
+      <c r="DE7" s="9"/>
+      <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="9"/>
+      <c r="DI7" s="9"/>
+      <c r="DJ7" s="9"/>
+      <c r="DK7" s="9"/>
+      <c r="DL7" s="9"/>
+      <c r="DM7" s="9"/>
+      <c r="DN7" s="9"/>
+      <c r="DO7" s="9"/>
+      <c r="DP7" s="9"/>
+      <c r="DQ7" s="9"/>
+      <c r="DR7" s="9"/>
+      <c r="DS7" s="9"/>
+      <c r="DT7" s="9"/>
+      <c r="DU7" s="9"/>
+      <c r="DV7" s="9"/>
+      <c r="DW7" s="9"/>
+      <c r="DX7" s="9"/>
+      <c r="DY7" s="9"/>
+      <c r="DZ7" s="9"/>
+      <c r="EA7" s="9"/>
+      <c r="EB7" s="2"/>
+      <c r="EC7" s="2"/>
+      <c r="ED7" s="2"/>
+      <c r="EE7" s="2"/>
+      <c r="EF7" s="2"/>
+      <c r="EG7" s="2"/>
+      <c r="EH7" s="2"/>
+      <c r="EI7" s="2"/>
+      <c r="EJ7" s="2"/>
+      <c r="EK7" s="2"/>
+      <c r="EL7" s="2"/>
+      <c r="EM7" s="2"/>
+      <c r="EN7" s="2"/>
+    </row>
+    <row r="8" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -11418,23 +12009,471 @@
       <c r="CS8" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="CT8" t="s">
+      <c r="CT8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU8" s="2">
+      <c r="CU8" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="CS9"/>
-      <c r="CT9" t="s">
+      <c r="CV8" s="9"/>
+      <c r="CW8" s="9"/>
+      <c r="CX8" s="9"/>
+      <c r="CY8" s="9"/>
+      <c r="CZ8" s="9"/>
+      <c r="DA8" s="9"/>
+      <c r="DB8" s="9"/>
+      <c r="DC8" s="9"/>
+      <c r="DD8" s="9"/>
+      <c r="DE8" s="9"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="9"/>
+      <c r="DI8" s="9"/>
+      <c r="DJ8" s="9"/>
+      <c r="DK8" s="9"/>
+      <c r="DL8" s="9"/>
+      <c r="DM8" s="9"/>
+      <c r="DN8" s="9"/>
+      <c r="DO8" s="9"/>
+      <c r="DP8" s="9"/>
+      <c r="DQ8" s="9"/>
+      <c r="DR8" s="9"/>
+      <c r="DS8" s="9"/>
+      <c r="DT8" s="9"/>
+      <c r="DU8" s="9"/>
+      <c r="DV8" s="9"/>
+      <c r="DW8" s="9"/>
+      <c r="DX8" s="9"/>
+      <c r="DY8" s="9"/>
+      <c r="DZ8" s="9"/>
+      <c r="EA8" s="9"/>
+      <c r="EB8" s="2"/>
+      <c r="EC8" s="2"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8" s="2"/>
+      <c r="EF8" s="2"/>
+      <c r="EG8" s="2"/>
+      <c r="EH8" s="2"/>
+      <c r="EI8" s="2"/>
+      <c r="EJ8" s="2"/>
+      <c r="EK8" s="2"/>
+      <c r="EL8" s="2"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8" s="2"/>
+    </row>
+    <row r="9" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP9" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="AQ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR9" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="AS9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB9" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="BC9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD9" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="BE9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="BG9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="BZ9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC9" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH9" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="CI9" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="CJ9" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="CK9" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="CL9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CN9" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="CO9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="CP9" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="CQ9" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="CR9" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="CS9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CU9">
+      <c r="CT9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU9" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="CV9" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="CW9" s="9">
+        <v>5</v>
+      </c>
+      <c r="CX9" s="9">
+        <v>12</v>
+      </c>
+      <c r="CY9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="CZ9" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="DA9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="DB9" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="DC9" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="DD9" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="DE9" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="DF9" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="DG9" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="DH9" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="DI9" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="DJ9" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="DK9" s="66" t="s">
+        <v>736</v>
+      </c>
+      <c r="DL9" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="DM9" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="DN9" s="65" t="s">
+        <v>734</v>
+      </c>
+      <c r="DO9" s="65" t="s">
+        <v>733</v>
+      </c>
+      <c r="DP9" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="DQ9" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="DR9" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="DS9" s="65" t="s">
+        <v>729</v>
+      </c>
+      <c r="DT9" s="65" t="s">
+        <v>728</v>
+      </c>
+      <c r="DU9" s="65" t="s">
+        <v>727</v>
+      </c>
+      <c r="DV9" s="65" t="s">
+        <v>726</v>
+      </c>
+      <c r="DW9" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="DX9" s="65" t="s">
+        <v>724</v>
+      </c>
+      <c r="DY9" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="DZ9" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="EA9" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="EB9" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="EC9" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="ED9" s="37" t="s">
+        <v>721</v>
+      </c>
+      <c r="EE9" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="EF9" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="EG9" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="EH9" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="EI9" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="EJ9" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="EK9" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="EL9" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="EM9" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="EN9" s="61" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -11443,7 +12482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -11452,19 +12491,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.25">
@@ -12860,7 +13899,7 @@
         <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>210</v>
@@ -12869,7 +13908,7 @@
         <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>212</v>
@@ -12890,13 +13929,13 @@
         <v>217</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>218</v>
@@ -12986,42 +14025,42 @@
         <v>372</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>230</v>
@@ -13033,7 +14072,7 @@
         <v>230</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>230</v>
@@ -13066,7 +14105,7 @@
         <v>16</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>230</v>
@@ -13126,7 +14165,7 @@
         <v>124421</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN2" s="9" t="s">
         <v>379</v>
@@ -13161,13 +14200,13 @@
         <v>378</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="9"/>
@@ -13177,28 +14216,28 @@
     </row>
     <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>230</v>
@@ -13231,7 +14270,7 @@
         <v>16</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>230</v>
@@ -13291,7 +14330,7 @@
         <v>124421</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>379</v>
@@ -13326,10 +14365,10 @@
         <v>378</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA3" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -13340,31 +14379,31 @@
     </row>
     <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>230</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>134</v>
@@ -13394,7 +14433,7 @@
         <v>16</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>230</v>
@@ -13454,7 +14493,7 @@
         <v>124421</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN4" s="9" t="s">
         <v>379</v>
@@ -13489,10 +14528,10 @@
         <v>378</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -13503,16 +14542,16 @@
     </row>
     <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>230</v>
@@ -13524,7 +14563,7 @@
         <v>230</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>230</v>
@@ -13557,7 +14596,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>230</v>
@@ -13617,7 +14656,7 @@
         <v>124421</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN5" s="9" t="s">
         <v>379</v>
@@ -13652,13 +14691,13 @@
         <v>378</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -13668,13 +14707,13 @@
     </row>
     <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>230</v>
@@ -13722,7 +14761,7 @@
         <v>16</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>230</v>
@@ -13782,7 +14821,7 @@
         <v>124421</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN6" s="9" t="s">
         <v>379</v>
@@ -13817,13 +14856,13 @@
         <v>378</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9"/>
@@ -13833,10 +14872,10 @@
     </row>
     <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>230</v>
@@ -13845,13 +14884,13 @@
         <v>230</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>230</v>
@@ -13887,7 +14926,7 @@
         <v>16</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>230</v>
@@ -13947,7 +14986,7 @@
         <v>124421</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN7" s="9" t="s">
         <v>379</v>
@@ -13982,13 +15021,13 @@
         <v>378</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB7" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -13998,10 +15037,10 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>230</v>
@@ -14052,7 +15091,7 @@
         <v>16</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>230</v>
@@ -14112,7 +15151,7 @@
         <v>124421</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN8" s="9" t="s">
         <v>379</v>
@@ -14147,13 +15186,13 @@
         <v>378</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -14163,28 +15202,28 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>230</v>
@@ -14217,7 +15256,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>230</v>
@@ -14277,7 +15316,7 @@
         <v>124421</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN9" s="9" t="s">
         <v>379</v>
@@ -14312,10 +15351,10 @@
         <v>378</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -14326,28 +15365,28 @@
     </row>
     <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>230</v>
@@ -14380,7 +15419,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>230</v>
@@ -14440,7 +15479,7 @@
         <v>124421</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN10" s="9" t="s">
         <v>379</v>
@@ -14475,10 +15514,10 @@
         <v>378</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA10" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
@@ -14489,10 +15528,10 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>230</v>
@@ -14507,10 +15546,10 @@
         <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>230</v>
@@ -14543,7 +15582,7 @@
         <v>16</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>230</v>
@@ -14603,7 +15642,7 @@
         <v>124421</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN11" s="9" t="s">
         <v>379</v>
@@ -14638,13 +15677,13 @@
         <v>378</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
@@ -14654,10 +15693,10 @@
     </row>
     <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>230</v>
@@ -14672,10 +15711,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>230</v>
@@ -14708,7 +15747,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>230</v>
@@ -14768,7 +15807,7 @@
         <v>124421</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN12" s="9" t="s">
         <v>379</v>
@@ -14803,17 +15842,17 @@
         <v>378</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="BA12" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="BB12" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="BC12" s="9"/>
       <c r="BD12" s="9" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="BE12" s="9" t="s">
         <v>230</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="779">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2365,6 +2365,9 @@
   </si>
   <si>
     <t>GeneralisationMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yerwada Pune </t>
   </si>
 </sst>
 </file>
@@ -9231,8 +9234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
-      <selection activeCell="EM2" sqref="EM2"/>
+    <sheetView tabSelected="1" topLeftCell="AI6" workbookViewId="0">
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12207,7 +12210,7 @@
         <v>199</v>
       </c>
       <c r="AY9" s="28" t="s">
-        <v>30</v>
+        <v>778</v>
       </c>
       <c r="AZ9" s="28" t="s">
         <v>30</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -2271,9 +2271,6 @@
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
   </si>
   <si>
-    <t>AmextInstituionSetup</t>
-  </si>
-  <si>
     <t>MDKStatus</t>
   </si>
   <si>
@@ -2368,6 +2365,9 @@
   </si>
   <si>
     <t xml:space="preserve">yerwada Pune </t>
+  </si>
+  <si>
+    <t>AmexInstituionSetup</t>
   </si>
 </sst>
 </file>
@@ -9234,8 +9234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI6" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9595,97 +9595,97 @@
         <v>435</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="DP1" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="DQ1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="DR1" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DS1" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="DT1" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="DU1" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="DV1" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DY1" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="DZ1" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="EA1" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="EB1" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="EC1" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="ED1" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="EE1" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="EF1" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="EG1" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="EH1" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="EI1" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="EK1" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="EL1" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="EM1" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="EN1" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:144" ht="90" x14ac:dyDescent="0.25">
@@ -12066,7 +12066,7 @@
     </row>
     <row r="9" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>745</v>
@@ -12210,7 +12210,7 @@
         <v>199</v>
       </c>
       <c r="AY9" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ9" s="28" t="s">
         <v>30</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -8981,8 +8981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="757">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -9166,10 +9166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN177"/>
+  <dimension ref="A1:EP177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AV8"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CM2" sqref="CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9184,11 +9184,11 @@
     <col min="49" max="49" width="7.44140625" customWidth="1"/>
     <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
-    <col min="143" max="143" width="8.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="4" customWidth="1"/>
+    <col min="145" max="145" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9460,169 +9460,175 @@
         <v>89</v>
       </c>
       <c r="CM1" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="CO1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -9871,170 +9877,172 @@
       <c r="CL2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM2" s="9" t="s">
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CN2" s="28" t="s">
+      <c r="CP2" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO2" s="9" t="s">
+      <c r="CQ2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="CP2" s="9" t="s">
+      <c r="CR2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="CQ2" s="28" t="s">
+      <c r="CS2" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR2" s="28" t="s">
+      <c r="CT2" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="CS2" s="9" t="s">
+      <c r="CU2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="CT2" s="9" t="s">
+      <c r="CV2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU2" s="9">
+      <c r="CW2" s="9">
         <v>100</v>
       </c>
-      <c r="CV2" s="9" t="s">
+      <c r="CX2" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="CW2" s="9">
+      <c r="CY2" s="9">
         <v>5</v>
       </c>
-      <c r="CX2" s="9">
+      <c r="CZ2" s="9">
         <v>12</v>
       </c>
-      <c r="CY2" s="9" t="s">
+      <c r="DA2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="CZ2" s="9" t="s">
+      <c r="DB2" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="DA2" s="9" t="s">
+      <c r="DC2" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="DB2" s="9" t="s">
+      <c r="DD2" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="DC2" s="9" t="s">
+      <c r="DE2" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="DD2" s="9" t="s">
+      <c r="DF2" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="DE2" s="9" t="s">
+      <c r="DG2" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="DF2" s="35" t="s">
+      <c r="DH2" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DI2" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="DH2" s="9" t="s">
+      <c r="DJ2" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DK2" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="DJ2" s="9" t="s">
+      <c r="DL2" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="DK2" s="66" t="s">
+      <c r="DM2" s="66" t="s">
         <v>709</v>
       </c>
-      <c r="DL2" s="66" t="s">
+      <c r="DN2" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="DM2" s="66" t="s">
+      <c r="DO2" s="66" t="s">
         <v>708</v>
       </c>
-      <c r="DN2" s="65" t="s">
+      <c r="DP2" s="65" t="s">
         <v>707</v>
       </c>
-      <c r="DO2" s="65" t="s">
+      <c r="DQ2" s="65" t="s">
         <v>706</v>
       </c>
-      <c r="DP2" s="65" t="s">
+      <c r="DR2" s="65" t="s">
         <v>705</v>
       </c>
-      <c r="DQ2" s="65" t="s">
+      <c r="DS2" s="65" t="s">
         <v>704</v>
       </c>
-      <c r="DR2" s="65" t="s">
+      <c r="DT2" s="65" t="s">
         <v>703</v>
       </c>
-      <c r="DS2" s="65" t="s">
+      <c r="DU2" s="65" t="s">
         <v>702</v>
       </c>
-      <c r="DT2" s="65" t="s">
+      <c r="DV2" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="DU2" s="65" t="s">
+      <c r="DW2" s="65" t="s">
         <v>700</v>
       </c>
-      <c r="DV2" s="65" t="s">
+      <c r="DX2" s="65" t="s">
         <v>699</v>
       </c>
-      <c r="DW2" s="65" t="s">
+      <c r="DY2" s="65" t="s">
         <v>698</v>
       </c>
-      <c r="DX2" s="65" t="s">
+      <c r="DZ2" s="65" t="s">
         <v>697</v>
-      </c>
-      <c r="DY2" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="DZ2" s="65" t="s">
-        <v>384</v>
       </c>
       <c r="EA2" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EB2" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="EC2" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="ED2" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="ED2" s="37" t="s">
+      <c r="EF2" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="EE2" s="37" t="s">
+      <c r="EG2" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="EF2" s="37" t="s">
+      <c r="EH2" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="EG2" s="37" t="s">
+      <c r="EI2" s="37" t="s">
         <v>691</v>
       </c>
-      <c r="EH2" s="37" t="s">
+      <c r="EJ2" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="EI2" s="37" t="s">
+      <c r="EK2" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="EJ2" s="37" t="s">
+      <c r="EL2" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="EK2" s="37" t="s">
+      <c r="EM2" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="EL2" s="61" t="s">
+      <c r="EN2" s="61" t="s">
         <v>686</v>
       </c>
-      <c r="EM2" s="61" t="s">
+      <c r="EO2" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="EN2" s="61" t="s">
+      <c r="EP2" s="61" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -10285,64 +10293,64 @@
       <c r="CL3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="28" t="s">
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="28"/>
+      <c r="CO3" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN3" s="28" t="s">
+      <c r="CP3" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO3" s="28" t="s">
+      <c r="CQ3" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP3" s="28" t="s">
+      <c r="CR3" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ3" s="28" t="s">
+      <c r="CS3" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR3" s="29" t="s">
+      <c r="CT3" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS3" s="28" t="s">
+      <c r="CU3" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="CV3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="9">
+      <c r="CW3" s="9">
         <v>100</v>
       </c>
-      <c r="CV3" s="9"/>
-      <c r="CW3" s="9"/>
       <c r="CX3" s="9"/>
       <c r="CY3" s="9"/>
       <c r="CZ3" s="9"/>
-      <c r="DA3" s="31" t="s">
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="DB3" s="31">
+      <c r="DD3" s="31">
         <v>6</v>
       </c>
-      <c r="DC3" s="31" t="s">
+      <c r="DE3" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="DD3" s="31">
+      <c r="DF3" s="31">
         <v>2</v>
       </c>
-      <c r="DE3" s="31" t="s">
+      <c r="DG3" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="DF3" s="31">
+      <c r="DH3" s="31">
         <v>1</v>
       </c>
-      <c r="DG3" s="9" t="s">
+      <c r="DI3" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="DH3" s="9">
+      <c r="DJ3" s="9">
         <v>3</v>
       </c>
-      <c r="DI3" s="9"/>
-      <c r="DJ3" s="9"/>
       <c r="DK3" s="9"/>
       <c r="DL3" s="9"/>
       <c r="DM3" s="9"/>
@@ -10360,8 +10368,8 @@
       <c r="DY3" s="9"/>
       <c r="DZ3" s="9"/>
       <c r="EA3" s="9"/>
-      <c r="EB3" s="2"/>
-      <c r="EC3" s="2"/>
+      <c r="EB3" s="9"/>
+      <c r="EC3" s="9"/>
       <c r="ED3" s="2"/>
       <c r="EE3" s="2"/>
       <c r="EF3" s="2"/>
@@ -10373,8 +10381,10 @@
       <c r="EL3" s="2"/>
       <c r="EM3" s="2"/>
       <c r="EN3" s="2"/>
-    </row>
-    <row r="4" spans="1:144" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="EO3" s="2"/>
+      <c r="EP3" s="2"/>
+    </row>
+    <row r="4" spans="1:146" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>148</v>
       </c>
@@ -10625,35 +10635,35 @@
       <c r="CL4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM4" s="28" t="s">
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CO4" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CP4" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO4" s="28" t="s">
+      <c r="CQ4" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP4" s="28" t="s">
+      <c r="CR4" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ4" s="28" t="s">
+      <c r="CS4" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR4" s="29" t="s">
+      <c r="CT4" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS4" s="28" t="s">
+      <c r="CU4" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT4" s="9" t="s">
+      <c r="CV4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU4" s="9">
+      <c r="CW4" s="9">
         <v>100</v>
       </c>
-      <c r="CV4" s="9"/>
-      <c r="CW4" s="9"/>
       <c r="CX4" s="9"/>
       <c r="CY4" s="9"/>
       <c r="CZ4" s="9"/>
@@ -10684,8 +10694,8 @@
       <c r="DY4" s="9"/>
       <c r="DZ4" s="9"/>
       <c r="EA4" s="9"/>
-      <c r="EB4" s="2"/>
-      <c r="EC4" s="2"/>
+      <c r="EB4" s="9"/>
+      <c r="EC4" s="9"/>
       <c r="ED4" s="2"/>
       <c r="EE4" s="2"/>
       <c r="EF4" s="2"/>
@@ -10697,8 +10707,10 @@
       <c r="EL4" s="2"/>
       <c r="EM4" s="2"/>
       <c r="EN4" s="2"/>
-    </row>
-    <row r="5" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+    </row>
+    <row r="5" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>152</v>
       </c>
@@ -10949,35 +10961,35 @@
       <c r="CL5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM5" s="28" t="s">
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN5" s="28" t="s">
+      <c r="CP5" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO5" s="28" t="s">
+      <c r="CQ5" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP5" s="28" t="s">
+      <c r="CR5" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ5" s="28" t="s">
+      <c r="CS5" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR5" s="29" t="s">
+      <c r="CT5" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS5" s="28" t="s">
+      <c r="CU5" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT5" s="9" t="s">
+      <c r="CV5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU5" s="9">
+      <c r="CW5" s="9">
         <v>100</v>
       </c>
-      <c r="CV5" s="9"/>
-      <c r="CW5" s="9"/>
       <c r="CX5" s="9"/>
       <c r="CY5" s="9"/>
       <c r="CZ5" s="9"/>
@@ -11008,8 +11020,8 @@
       <c r="DY5" s="9"/>
       <c r="DZ5" s="9"/>
       <c r="EA5" s="9"/>
-      <c r="EB5" s="2"/>
-      <c r="EC5" s="2"/>
+      <c r="EB5" s="9"/>
+      <c r="EC5" s="9"/>
       <c r="ED5" s="2"/>
       <c r="EE5" s="2"/>
       <c r="EF5" s="2"/>
@@ -11021,8 +11033,10 @@
       <c r="EL5" s="2"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
-    </row>
-    <row r="6" spans="1:144" ht="72" x14ac:dyDescent="0.3">
+      <c r="EO5" s="2"/>
+      <c r="EP5" s="2"/>
+    </row>
+    <row r="6" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>157</v>
       </c>
@@ -11273,35 +11287,35 @@
       <c r="CL6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM6" s="28" t="s">
+      <c r="CM6" s="28"/>
+      <c r="CN6" s="28"/>
+      <c r="CO6" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN6" s="28" t="s">
+      <c r="CP6" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO6" s="28" t="s">
+      <c r="CQ6" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP6" s="28" t="s">
+      <c r="CR6" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ6" s="28" t="s">
+      <c r="CS6" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR6" s="29" t="s">
+      <c r="CT6" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS6" s="28" t="s">
+      <c r="CU6" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT6" s="9" t="s">
+      <c r="CV6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU6" s="9">
+      <c r="CW6" s="9">
         <v>100</v>
       </c>
-      <c r="CV6" s="9"/>
-      <c r="CW6" s="9"/>
       <c r="CX6" s="9"/>
       <c r="CY6" s="9"/>
       <c r="CZ6" s="9"/>
@@ -11332,8 +11346,8 @@
       <c r="DY6" s="9"/>
       <c r="DZ6" s="9"/>
       <c r="EA6" s="9"/>
-      <c r="EB6" s="2"/>
-      <c r="EC6" s="2"/>
+      <c r="EB6" s="9"/>
+      <c r="EC6" s="9"/>
       <c r="ED6" s="2"/>
       <c r="EE6" s="2"/>
       <c r="EF6" s="2"/>
@@ -11345,8 +11359,10 @@
       <c r="EL6" s="2"/>
       <c r="EM6" s="2"/>
       <c r="EN6" s="2"/>
-    </row>
-    <row r="7" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="2"/>
+    </row>
+    <row r="7" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>161</v>
       </c>
@@ -11599,35 +11615,35 @@
       <c r="CL7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM7" s="28" t="s">
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN7" s="28" t="s">
+      <c r="CP7" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO7" s="28" t="s">
+      <c r="CQ7" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP7" s="28" t="s">
+      <c r="CR7" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ7" s="28" t="s">
+      <c r="CS7" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR7" s="29" t="s">
+      <c r="CT7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS7" s="28" t="s">
+      <c r="CU7" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT7" s="9" t="s">
+      <c r="CV7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU7" s="9">
+      <c r="CW7" s="9">
         <v>100</v>
       </c>
-      <c r="CV7" s="9"/>
-      <c r="CW7" s="9"/>
       <c r="CX7" s="9"/>
       <c r="CY7" s="9"/>
       <c r="CZ7" s="9"/>
@@ -11658,8 +11674,8 @@
       <c r="DY7" s="9"/>
       <c r="DZ7" s="9"/>
       <c r="EA7" s="9"/>
-      <c r="EB7" s="2"/>
-      <c r="EC7" s="2"/>
+      <c r="EB7" s="9"/>
+      <c r="EC7" s="9"/>
       <c r="ED7" s="2"/>
       <c r="EE7" s="2"/>
       <c r="EF7" s="2"/>
@@ -11671,8 +11687,10 @@
       <c r="EL7" s="2"/>
       <c r="EM7" s="2"/>
       <c r="EN7" s="2"/>
-    </row>
-    <row r="8" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="EO7" s="2"/>
+      <c r="EP7" s="2"/>
+    </row>
+    <row r="8" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>165</v>
       </c>
@@ -11925,35 +11943,35 @@
       <c r="CL8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM8" s="28" t="s">
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN8" s="28" t="s">
+      <c r="CP8" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO8" s="28" t="s">
+      <c r="CQ8" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="CP8" s="28" t="s">
+      <c r="CR8" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="CQ8" s="28" t="s">
+      <c r="CS8" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR8" s="29" t="s">
+      <c r="CT8" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="CS8" s="28" t="s">
+      <c r="CU8" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="CT8" s="9" t="s">
+      <c r="CV8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU8" s="9">
+      <c r="CW8" s="9">
         <v>100</v>
       </c>
-      <c r="CV8" s="9"/>
-      <c r="CW8" s="9"/>
       <c r="CX8" s="9"/>
       <c r="CY8" s="9"/>
       <c r="CZ8" s="9"/>
@@ -11984,8 +12002,8 @@
       <c r="DY8" s="9"/>
       <c r="DZ8" s="9"/>
       <c r="EA8" s="9"/>
-      <c r="EB8" s="2"/>
-      <c r="EC8" s="2"/>
+      <c r="EB8" s="9"/>
+      <c r="EC8" s="9"/>
       <c r="ED8" s="2"/>
       <c r="EE8" s="2"/>
       <c r="EF8" s="2"/>
@@ -11997,8 +12015,10 @@
       <c r="EL8" s="2"/>
       <c r="EM8" s="2"/>
       <c r="EN8" s="2"/>
-    </row>
-    <row r="9" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO8" s="2"/>
+      <c r="EP8" s="2"/>
+    </row>
+    <row r="9" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>751</v>
       </c>
@@ -12247,684 +12267,686 @@
       <c r="CL9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM9" s="9" t="s">
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CN9" s="28" t="s">
+      <c r="CP9" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="CO9" s="9" t="s">
+      <c r="CQ9" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="CP9" s="9" t="s">
+      <c r="CR9" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="CQ9" s="28" t="s">
+      <c r="CS9" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="CR9" s="28" t="s">
+      <c r="CT9" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="CS9" s="9" t="s">
+      <c r="CU9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="CT9" s="9" t="s">
+      <c r="CV9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU9" s="9">
+      <c r="CW9" s="9">
         <v>100</v>
       </c>
-      <c r="CV9" s="9" t="s">
+      <c r="CX9" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="CW9" s="9">
+      <c r="CY9" s="9">
         <v>5</v>
       </c>
-      <c r="CX9" s="9">
+      <c r="CZ9" s="9">
         <v>12</v>
       </c>
-      <c r="CY9" s="9" t="s">
+      <c r="DA9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="CZ9" s="9" t="s">
+      <c r="DB9" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="DA9" s="9" t="s">
+      <c r="DC9" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="DB9" s="9" t="s">
+      <c r="DD9" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="DC9" s="9" t="s">
+      <c r="DE9" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="DD9" s="9" t="s">
+      <c r="DF9" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="DE9" s="9" t="s">
+      <c r="DG9" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="DF9" s="35" t="s">
+      <c r="DH9" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="DG9" s="9" t="s">
+      <c r="DI9" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="DH9" s="9" t="s">
+      <c r="DJ9" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="DI9" s="9" t="s">
+      <c r="DK9" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="DJ9" s="9" t="s">
+      <c r="DL9" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="DK9" s="66" t="s">
+      <c r="DM9" s="66" t="s">
         <v>709</v>
       </c>
-      <c r="DL9" s="66" t="s">
+      <c r="DN9" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="DM9" s="66" t="s">
+      <c r="DO9" s="66" t="s">
         <v>708</v>
       </c>
-      <c r="DN9" s="65" t="s">
+      <c r="DP9" s="65" t="s">
         <v>707</v>
       </c>
-      <c r="DO9" s="65" t="s">
+      <c r="DQ9" s="65" t="s">
         <v>706</v>
       </c>
-      <c r="DP9" s="65" t="s">
+      <c r="DR9" s="65" t="s">
         <v>705</v>
       </c>
-      <c r="DQ9" s="65" t="s">
+      <c r="DS9" s="65" t="s">
         <v>704</v>
       </c>
-      <c r="DR9" s="65" t="s">
+      <c r="DT9" s="65" t="s">
         <v>703</v>
       </c>
-      <c r="DS9" s="65" t="s">
+      <c r="DU9" s="65" t="s">
         <v>702</v>
       </c>
-      <c r="DT9" s="65" t="s">
+      <c r="DV9" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="DU9" s="65" t="s">
+      <c r="DW9" s="65" t="s">
         <v>700</v>
       </c>
-      <c r="DV9" s="65" t="s">
+      <c r="DX9" s="65" t="s">
         <v>699</v>
       </c>
-      <c r="DW9" s="65" t="s">
+      <c r="DY9" s="65" t="s">
         <v>698</v>
       </c>
-      <c r="DX9" s="65" t="s">
+      <c r="DZ9" s="65" t="s">
         <v>697</v>
-      </c>
-      <c r="DY9" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="DZ9" s="65" t="s">
-        <v>384</v>
       </c>
       <c r="EA9" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="EB9" s="2" t="s">
+      <c r="EB9" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="EC9" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="ED9" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="EC9" s="2" t="s">
+      <c r="EE9" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="ED9" s="37" t="s">
+      <c r="EF9" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="EE9" s="37" t="s">
+      <c r="EG9" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="EF9" s="37" t="s">
+      <c r="EH9" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="EG9" s="37" t="s">
+      <c r="EI9" s="37" t="s">
         <v>691</v>
       </c>
-      <c r="EH9" s="37" t="s">
+      <c r="EJ9" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="EI9" s="37" t="s">
+      <c r="EK9" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="EJ9" s="37" t="s">
+      <c r="EL9" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="EK9" s="37" t="s">
+      <c r="EM9" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="EL9" s="61" t="s">
+      <c r="EN9" s="61" t="s">
         <v>686</v>
       </c>
-      <c r="EM9" s="61" t="s">
+      <c r="EO9" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="EN9" s="61" t="s">
+      <c r="EP9" s="61" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS10"/>
-      <c r="CT10" t="s">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU10"/>
+      <c r="CV10" t="s">
         <v>156</v>
       </c>
-      <c r="CU10">
+      <c r="CW10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS11"/>
-      <c r="CT11" t="s">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU11"/>
+      <c r="CV11" t="s">
         <v>156</v>
       </c>
-      <c r="CU11">
+      <c r="CW11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS12"/>
-    </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS13"/>
-    </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS14"/>
-    </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS15"/>
-    </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="CS16"/>
-    </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS17"/>
-    </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS18"/>
-    </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS19"/>
-    </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS20"/>
-    </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS21"/>
-    </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS22"/>
-    </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS23"/>
-    </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS24"/>
-    </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS25"/>
-    </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS26"/>
-    </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS27"/>
-    </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS28"/>
-    </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS29"/>
-    </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS30"/>
-    </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS31"/>
-    </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS32"/>
-    </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS33"/>
-    </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS34"/>
-    </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS35"/>
-    </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS36"/>
-    </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS37"/>
-    </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS38"/>
-    </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS39"/>
-    </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS40"/>
-    </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS41"/>
-    </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS42"/>
-    </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS43"/>
-    </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS44"/>
-    </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS45"/>
-    </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS46"/>
-    </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS47"/>
-    </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS48"/>
-    </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS49"/>
-    </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS50"/>
-    </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS51"/>
-    </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS52"/>
-    </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS53"/>
-    </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS54"/>
-    </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS55"/>
-    </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS56"/>
-    </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS57"/>
-    </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS58"/>
-    </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS59"/>
-    </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS60"/>
-    </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS61"/>
-    </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS62"/>
-    </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS63"/>
-    </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS64"/>
-    </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS65"/>
-    </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS66"/>
-    </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS67"/>
-    </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS68"/>
-    </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS69"/>
-    </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS70"/>
-    </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS71"/>
-    </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS72"/>
-    </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS73"/>
-    </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS74"/>
-    </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS75"/>
-    </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS76"/>
-    </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS77"/>
-    </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS78"/>
-    </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS79"/>
-    </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS80"/>
-    </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS81"/>
-    </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS82"/>
-    </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS83"/>
-    </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS84"/>
-    </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS85"/>
-    </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS86"/>
-    </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS87"/>
-    </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS88"/>
-    </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS89"/>
-    </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS90"/>
-    </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS91"/>
-    </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS92"/>
-    </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS93"/>
-    </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS94"/>
-    </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS95"/>
-    </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS96"/>
-    </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS97"/>
-    </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS98"/>
-    </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS99"/>
-    </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS100"/>
-    </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS101"/>
-    </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS102"/>
-    </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS103"/>
-    </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS104"/>
-    </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS105"/>
-    </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS106"/>
-    </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS107"/>
-    </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS108"/>
-    </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS109"/>
-    </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS110"/>
-    </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS111"/>
-    </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS112"/>
-    </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS113"/>
-    </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS114"/>
-    </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS115"/>
-    </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS116"/>
-    </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS117"/>
-    </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS118"/>
-    </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS119"/>
-    </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS120"/>
-    </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS121"/>
-    </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS122"/>
-    </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS123"/>
-    </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS124"/>
-    </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS125"/>
-    </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS126"/>
-    </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS127"/>
-    </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS128"/>
-    </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS129"/>
-    </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS130"/>
-    </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS131"/>
-    </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS132"/>
-    </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS133"/>
-    </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS134"/>
-    </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS135"/>
-    </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS136"/>
-    </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS137"/>
-    </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS138"/>
-    </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS139"/>
-    </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS140"/>
-    </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS141"/>
-    </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS142"/>
-    </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS143"/>
-    </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS144"/>
-    </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS145"/>
-    </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS146"/>
-    </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS147"/>
-    </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS148"/>
-    </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS149"/>
-    </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS150"/>
-    </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS151"/>
-    </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS152"/>
-    </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS153"/>
-    </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS154"/>
-    </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS155"/>
-    </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS156"/>
-    </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS157"/>
-    </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS158"/>
-    </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS159"/>
-    </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS160"/>
-    </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS161"/>
-    </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS162"/>
-    </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS163"/>
-    </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS164"/>
-    </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS165"/>
-    </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS166"/>
-    </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS167"/>
-    </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS168"/>
-    </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS169"/>
-    </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS170"/>
-    </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS171"/>
-    </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS172"/>
-    </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS173"/>
-    </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS174"/>
-    </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS175"/>
-    </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS176"/>
-    </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
-      <c r="CS177"/>
+    <row r="12" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU12"/>
+    </row>
+    <row r="13" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU13"/>
+    </row>
+    <row r="14" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU14"/>
+    </row>
+    <row r="15" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU15"/>
+    </row>
+    <row r="16" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="CU16"/>
+    </row>
+    <row r="17" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU17"/>
+    </row>
+    <row r="18" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU18"/>
+    </row>
+    <row r="19" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU19"/>
+    </row>
+    <row r="20" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU20"/>
+    </row>
+    <row r="21" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU21"/>
+    </row>
+    <row r="22" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU22"/>
+    </row>
+    <row r="23" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU23"/>
+    </row>
+    <row r="24" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU24"/>
+    </row>
+    <row r="25" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU25"/>
+    </row>
+    <row r="26" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU26"/>
+    </row>
+    <row r="27" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU27"/>
+    </row>
+    <row r="28" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU28"/>
+    </row>
+    <row r="29" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU29"/>
+    </row>
+    <row r="30" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU30"/>
+    </row>
+    <row r="31" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU31"/>
+    </row>
+    <row r="32" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU32"/>
+    </row>
+    <row r="33" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU33"/>
+    </row>
+    <row r="34" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU34"/>
+    </row>
+    <row r="35" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU35"/>
+    </row>
+    <row r="36" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU36"/>
+    </row>
+    <row r="37" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU37"/>
+    </row>
+    <row r="38" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU38"/>
+    </row>
+    <row r="39" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU39"/>
+    </row>
+    <row r="40" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU40"/>
+    </row>
+    <row r="41" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU41"/>
+    </row>
+    <row r="42" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU42"/>
+    </row>
+    <row r="43" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU43"/>
+    </row>
+    <row r="44" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU44"/>
+    </row>
+    <row r="45" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU45"/>
+    </row>
+    <row r="46" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU46"/>
+    </row>
+    <row r="47" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU47"/>
+    </row>
+    <row r="48" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU48"/>
+    </row>
+    <row r="49" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU49"/>
+    </row>
+    <row r="50" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU50"/>
+    </row>
+    <row r="51" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU51"/>
+    </row>
+    <row r="52" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU52"/>
+    </row>
+    <row r="53" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU53"/>
+    </row>
+    <row r="54" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU54"/>
+    </row>
+    <row r="55" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU55"/>
+    </row>
+    <row r="56" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU56"/>
+    </row>
+    <row r="57" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU57"/>
+    </row>
+    <row r="58" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU58"/>
+    </row>
+    <row r="59" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU59"/>
+    </row>
+    <row r="60" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU60"/>
+    </row>
+    <row r="61" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU61"/>
+    </row>
+    <row r="62" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU62"/>
+    </row>
+    <row r="63" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU63"/>
+    </row>
+    <row r="64" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU64"/>
+    </row>
+    <row r="65" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU65"/>
+    </row>
+    <row r="66" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU66"/>
+    </row>
+    <row r="67" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU67"/>
+    </row>
+    <row r="68" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU68"/>
+    </row>
+    <row r="69" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU69"/>
+    </row>
+    <row r="70" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU70"/>
+    </row>
+    <row r="71" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU71"/>
+    </row>
+    <row r="72" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU72"/>
+    </row>
+    <row r="73" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU73"/>
+    </row>
+    <row r="74" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU74"/>
+    </row>
+    <row r="75" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU75"/>
+    </row>
+    <row r="76" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU76"/>
+    </row>
+    <row r="77" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU77"/>
+    </row>
+    <row r="78" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU78"/>
+    </row>
+    <row r="79" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU79"/>
+    </row>
+    <row r="80" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU80"/>
+    </row>
+    <row r="81" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU81"/>
+    </row>
+    <row r="82" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU82"/>
+    </row>
+    <row r="83" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU83"/>
+    </row>
+    <row r="84" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU84"/>
+    </row>
+    <row r="85" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU85"/>
+    </row>
+    <row r="86" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU86"/>
+    </row>
+    <row r="87" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU87"/>
+    </row>
+    <row r="88" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU88"/>
+    </row>
+    <row r="89" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU89"/>
+    </row>
+    <row r="90" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU90"/>
+    </row>
+    <row r="91" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU91"/>
+    </row>
+    <row r="92" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU92"/>
+    </row>
+    <row r="93" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU93"/>
+    </row>
+    <row r="94" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU94"/>
+    </row>
+    <row r="95" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU95"/>
+    </row>
+    <row r="96" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU96"/>
+    </row>
+    <row r="97" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU97"/>
+    </row>
+    <row r="98" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU98"/>
+    </row>
+    <row r="99" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU99"/>
+    </row>
+    <row r="100" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU100"/>
+    </row>
+    <row r="101" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU101"/>
+    </row>
+    <row r="102" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU102"/>
+    </row>
+    <row r="103" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU103"/>
+    </row>
+    <row r="104" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU104"/>
+    </row>
+    <row r="105" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU105"/>
+    </row>
+    <row r="106" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU106"/>
+    </row>
+    <row r="107" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU107"/>
+    </row>
+    <row r="108" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU108"/>
+    </row>
+    <row r="109" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU109"/>
+    </row>
+    <row r="110" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU110"/>
+    </row>
+    <row r="111" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU111"/>
+    </row>
+    <row r="112" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU112"/>
+    </row>
+    <row r="113" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU113"/>
+    </row>
+    <row r="114" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU114"/>
+    </row>
+    <row r="115" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU115"/>
+    </row>
+    <row r="116" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU116"/>
+    </row>
+    <row r="117" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU117"/>
+    </row>
+    <row r="118" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU118"/>
+    </row>
+    <row r="119" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU119"/>
+    </row>
+    <row r="120" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU120"/>
+    </row>
+    <row r="121" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU121"/>
+    </row>
+    <row r="122" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU122"/>
+    </row>
+    <row r="123" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU123"/>
+    </row>
+    <row r="124" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU124"/>
+    </row>
+    <row r="125" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU125"/>
+    </row>
+    <row r="126" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU126"/>
+    </row>
+    <row r="127" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU127"/>
+    </row>
+    <row r="128" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU128"/>
+    </row>
+    <row r="129" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU129"/>
+    </row>
+    <row r="130" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU130"/>
+    </row>
+    <row r="131" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU131"/>
+    </row>
+    <row r="132" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU132"/>
+    </row>
+    <row r="133" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU133"/>
+    </row>
+    <row r="134" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU134"/>
+    </row>
+    <row r="135" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU135"/>
+    </row>
+    <row r="136" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU136"/>
+    </row>
+    <row r="137" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU137"/>
+    </row>
+    <row r="138" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU138"/>
+    </row>
+    <row r="139" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU139"/>
+    </row>
+    <row r="140" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU140"/>
+    </row>
+    <row r="141" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU141"/>
+    </row>
+    <row r="142" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU142"/>
+    </row>
+    <row r="143" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU143"/>
+    </row>
+    <row r="144" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU144"/>
+    </row>
+    <row r="145" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU145"/>
+    </row>
+    <row r="146" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU146"/>
+    </row>
+    <row r="147" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU147"/>
+    </row>
+    <row r="148" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU148"/>
+    </row>
+    <row r="149" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU149"/>
+    </row>
+    <row r="150" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU150"/>
+    </row>
+    <row r="151" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU151"/>
+    </row>
+    <row r="152" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU152"/>
+    </row>
+    <row r="153" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU153"/>
+    </row>
+    <row r="154" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU154"/>
+    </row>
+    <row r="155" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU155"/>
+    </row>
+    <row r="156" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU156"/>
+    </row>
+    <row r="157" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU157"/>
+    </row>
+    <row r="158" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU158"/>
+    </row>
+    <row r="159" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU159"/>
+    </row>
+    <row r="160" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU160"/>
+    </row>
+    <row r="161" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU161"/>
+    </row>
+    <row r="162" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU162"/>
+    </row>
+    <row r="163" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU163"/>
+    </row>
+    <row r="164" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU164"/>
+    </row>
+    <row r="165" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU165"/>
+    </row>
+    <row r="166" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU166"/>
+    </row>
+    <row r="167" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU167"/>
+    </row>
+    <row r="168" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU168"/>
+    </row>
+    <row r="169" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU169"/>
+    </row>
+    <row r="170" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU170"/>
+    </row>
+    <row r="171" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU171"/>
+    </row>
+    <row r="172" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU172"/>
+    </row>
+    <row r="173" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU173"/>
+    </row>
+    <row r="174" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU174"/>
+    </row>
+    <row r="175" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU175"/>
+    </row>
+    <row r="176" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU176"/>
+    </row>
+    <row r="177" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="755">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2293,6 +2293,9 @@
   </si>
   <si>
     <t>TC264318_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>adaptiveAuth_debit</t>
   </si>
 </sst>
 </file>
@@ -9157,10 +9160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP177"/>
+  <dimension ref="A1:EP178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CW8"/>
+    <sheetView tabSelected="1" topLeftCell="BN7" workbookViewId="0">
+      <selection activeCell="CH9" sqref="CH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11999,25 +12002,25 @@
     </row>
     <row r="9" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>704</v>
+        <v>754</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>746</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>703</v>
+        <v>489</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>702</v>
+        <v>475</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>368</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>128</v>
@@ -12088,10 +12091,10 @@
         <v>36</v>
       </c>
       <c r="AF9" s="28" t="s">
-        <v>371</v>
+        <v>738</v>
       </c>
       <c r="AG9" s="28" t="s">
-        <v>9</v>
+        <v>739</v>
       </c>
       <c r="AH9" s="28" t="s">
         <v>10</v>
@@ -12127,13 +12130,13 @@
         <v>325</v>
       </c>
       <c r="AS9" s="28" t="s">
-        <v>146</v>
+        <v>740</v>
       </c>
       <c r="AT9" s="28" t="s">
-        <v>79</v>
+        <v>741</v>
       </c>
       <c r="AU9" s="28" t="s">
-        <v>147</v>
+        <v>742</v>
       </c>
       <c r="AV9" s="28" t="s">
         <v>29</v>
@@ -12143,7 +12146,7 @@
         <v>175</v>
       </c>
       <c r="AY9" s="28" t="s">
-        <v>736</v>
+        <v>30</v>
       </c>
       <c r="AZ9" s="28" t="s">
         <v>30</v>
@@ -12192,88 +12195,90 @@
         <v>71</v>
       </c>
       <c r="BP9" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="BQ9" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="BQ9" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="BR9" s="28"/>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
-      <c r="BU9" s="9" t="s">
+      <c r="BR9" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="BS9" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="BT9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BV9" s="9"/>
-      <c r="BW9" s="9" t="s">
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BX9" s="9" t="s">
+      <c r="CA9" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="BY9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="BZ9" s="9" t="s">
+      <c r="CB9" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="CC9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="CA9" s="28" t="s">
+      <c r="CD9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="CB9" s="9" t="s">
+      <c r="CE9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="CC9" s="9" t="s">
+      <c r="CF9" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CD9" s="9"/>
-      <c r="CE9" s="9"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="9" t="s">
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="28">
+        <v>587765</v>
+      </c>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="CH9" s="28" t="s">
+      <c r="CK9" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CI9" s="28" t="s">
+      <c r="CL9" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CJ9" s="28" t="s">
+      <c r="CM9" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="CK9" s="28" t="s">
+      <c r="CN9" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="CL9" s="28" t="s">
+      <c r="CO9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CM9" s="28"/>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="9" t="s">
+      <c r="CP9" s="28"/>
+      <c r="CQ9" s="9"/>
+      <c r="CR9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CP9" s="28" t="s">
+      <c r="CS9" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CQ9" s="9" t="s">
+      <c r="CT9" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="CR9" s="9" t="s">
+      <c r="CU9" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="CS9" s="28" t="s">
+      <c r="CV9" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="CT9" s="28" t="s">
+      <c r="CW9" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="CU9" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="CV9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="CW9" s="9">
-        <v>100</v>
       </c>
       <c r="CX9" s="9" t="s">
         <v>395</v>
@@ -12411,13 +12416,418 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.3">
-      <c r="CU10"/>
-      <c r="CV10" t="s">
+    <row r="10" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF10" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP10" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ10" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR10" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS10" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU10" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY10" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="AZ10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA10" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB10" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="BC10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD10" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF10" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="BG10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ10" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK10" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP10" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ10" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BY10" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="BZ10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CA10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC10" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="28"/>
+      <c r="CG10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH10" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="CI10" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="CJ10" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="CK10" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="CL10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM10" s="28"/>
+      <c r="CN10" s="28"/>
+      <c r="CO10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CP10" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="CQ10" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CR10" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="CS10" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="CT10" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="CU10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="CW10">
+      <c r="CV10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="CW10" s="9">
         <v>100</v>
+      </c>
+      <c r="CX10" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="CY10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CZ10" s="9">
+        <v>12</v>
+      </c>
+      <c r="DA10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="DB10" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="DC10" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="DD10" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="DE10" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="DF10" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="DG10" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="DH10" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="DI10" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="DJ10" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="DK10" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="DL10" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="DM10" s="66" t="s">
+        <v>695</v>
+      </c>
+      <c r="DN10" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="DO10" s="66" t="s">
+        <v>694</v>
+      </c>
+      <c r="DP10" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="DQ10" s="65" t="s">
+        <v>692</v>
+      </c>
+      <c r="DR10" s="65" t="s">
+        <v>691</v>
+      </c>
+      <c r="DS10" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="DT10" s="65" t="s">
+        <v>689</v>
+      </c>
+      <c r="DU10" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="DV10" s="65" t="s">
+        <v>687</v>
+      </c>
+      <c r="DW10" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="DX10" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY10" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="DZ10" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="EA10" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="EB10" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="EC10" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="ED10" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="EE10" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="EF10" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="EG10" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="EH10" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="EI10" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="EJ10" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="EK10" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="EL10" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="EM10" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="EN10" s="61" t="s">
+        <v>672</v>
+      </c>
+      <c r="EO10" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="EP10" s="61" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:146" x14ac:dyDescent="0.3">
@@ -12431,6 +12841,12 @@
     </row>
     <row r="12" spans="1:146" x14ac:dyDescent="0.3">
       <c r="CU12"/>
+      <c r="CV12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW12">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:146" x14ac:dyDescent="0.3">
       <c r="CU13"/>
@@ -12926,6 +13342,9 @@
     </row>
     <row r="177" spans="99:99" x14ac:dyDescent="0.3">
       <c r="CU177"/>
+    </row>
+    <row r="178" spans="99:99" x14ac:dyDescent="0.3">
+      <c r="CU178"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="786">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1449,12 +1449,6 @@
     <t>PRECRE</t>
   </si>
   <si>
-    <t>DEBCRE</t>
-  </si>
-  <si>
-    <t>ALLISS</t>
-  </si>
-  <si>
     <t>PREWOAGNT</t>
   </si>
   <si>
@@ -2262,9 +2256,6 @@
     <t>Sequence number</t>
   </si>
   <si>
-    <t>BlackEyeCreDE [034062]</t>
-  </si>
-  <si>
     <t>Swap</t>
   </si>
   <si>
@@ -2368,6 +2359,36 @@
   </si>
   <si>
     <t>AmexInstituionSetup</t>
+  </si>
+  <si>
+    <t>OMR [512]</t>
+  </si>
+  <si>
+    <t>91111111111</t>
+  </si>
+  <si>
+    <t>5431267812</t>
+  </si>
+  <si>
+    <t>July/2/2020</t>
+  </si>
+  <si>
+    <t>BLACKEYE</t>
+  </si>
+  <si>
+    <t>AMEXCREDIT</t>
+  </si>
+  <si>
+    <t>BLACKEYEFD [576771]</t>
+  </si>
+  <si>
+    <t>Amex Credit</t>
+  </si>
+  <si>
+    <t>AMEXBLACKE</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -4481,49 +4502,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -4634,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -4673,7 +4694,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -4709,7 +4730,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -4814,129 +4835,129 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="DM1" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="DP1" s="36" t="s">
+      <c r="DR1" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="DQ1" s="36" t="s">
+      <c r="DS1" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="DR1" s="36" t="s">
+      <c r="DT1" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="DS1" s="36" t="s">
+      <c r="DU1" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="DT1" s="36" t="s">
+      <c r="DV1" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="DU1" s="36" t="s">
+      <c r="DW1" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="DV1" s="36" t="s">
+      <c r="DX1" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="DW1" s="36" t="s">
+      <c r="DY1" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="DX1" s="36" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="DY1" s="36" t="s">
+      <c r="EA1" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="DZ1" s="36" t="s">
+      <c r="EB1" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="EA1" s="36" t="s">
+      <c r="EC1" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="EB1" s="36" t="s">
+      <c r="ED1" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="EC1" s="36" t="s">
+      <c r="EE1" s="36" t="s">
         <v>512</v>
-      </c>
-      <c r="ED1" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="EE1" s="36" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="O2" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="P2" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>529</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>531</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -4964,16 +4985,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH2" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>535</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -4994,7 +5015,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5031,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5043,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5061,7 +5082,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -5091,20 +5112,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BX2" s="42"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5131,13 +5152,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CP2" s="40" t="s">
         <v>355</v>
@@ -5154,7 +5175,7 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="40" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
@@ -5191,40 +5212,40 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="DM2" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="DP2" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="DQ2" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="DP2" s="43" t="s">
+      <c r="DR2" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="DQ2" s="43" t="s">
+      <c r="DS2" s="44" t="s">
         <v>548</v>
-      </c>
-      <c r="DR2" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="DS2" s="44" t="s">
-        <v>550</v>
       </c>
       <c r="DT2" s="44" t="s">
         <v>405</v>
       </c>
       <c r="DU2" s="44" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="DV2" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="DW2" s="43" t="s">
         <v>134</v>
@@ -5233,25 +5254,25 @@
         <v>404</v>
       </c>
       <c r="DY2" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="DZ2" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EA2" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="EB2" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EC2" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="DZ2" s="44" t="s">
+      <c r="ED2" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="EA2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB2" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="EC2" s="44" t="s">
+      <c r="EE2" s="43" t="s">
         <v>555</v>
-      </c>
-      <c r="ED2" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="EE2" s="43" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5285,49 +5306,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>307</v>
@@ -5438,7 +5459,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -5477,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -5513,7 +5534,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -5618,153 +5639,153 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="DM1" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>196</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="DP1" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="DQ1" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="DP1" s="36" t="s">
+      <c r="DR1" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="DQ1" s="36" t="s">
+      <c r="DS1" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="DR1" s="36" t="s">
+      <c r="DT1" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="DS1" s="36" t="s">
+      <c r="DU1" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="DT1" s="36" t="s">
+      <c r="DV1" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="DU1" s="36" t="s">
+      <c r="DW1" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="DV1" s="36" t="s">
+      <c r="DX1" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="DW1" s="36" t="s">
+      <c r="DY1" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="DX1" s="36" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="DY1" s="36" t="s">
+      <c r="EA1" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="DZ1" s="36" t="s">
+      <c r="EB1" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="EA1" s="36" t="s">
+      <c r="EC1" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="EB1" s="36" t="s">
+      <c r="ED1" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="EE1" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="EF1" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="EC1" s="36" t="s">
+      <c r="EG1" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="EH1" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="EI1" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="EJ1" s="36" t="s">
+        <v>700</v>
+      </c>
+      <c r="EK1" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="EL1" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="EM1" s="36" t="s">
         <v>512</v>
-      </c>
-      <c r="ED1" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="EE1" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="EF1" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="EG1" s="36" t="s">
-        <v>699</v>
-      </c>
-      <c r="EH1" s="36" t="s">
-        <v>700</v>
-      </c>
-      <c r="EI1" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="EJ1" s="36" t="s">
-        <v>702</v>
-      </c>
-      <c r="EK1" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="EL1" s="36" t="s">
-        <v>704</v>
-      </c>
-      <c r="EM1" s="36" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="B2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="O2" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="P2" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P2" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="T2" s="39" t="s">
         <v>529</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>530</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>531</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -5792,16 +5813,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH2" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>535</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -5822,7 +5843,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -5859,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -5871,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -5889,7 +5910,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>199</v>
@@ -5919,20 +5940,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BX2" s="42"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -5959,13 +5980,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CP2" s="40" t="s">
         <v>355</v>
@@ -5982,7 +6003,7 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="40" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
@@ -6019,40 +6040,40 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="DM2" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="DP2" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="DQ2" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="DP2" s="43" t="s">
+      <c r="DR2" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="DQ2" s="43" t="s">
+      <c r="DS2" s="44" t="s">
         <v>548</v>
-      </c>
-      <c r="DR2" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="DS2" s="44" t="s">
-        <v>550</v>
       </c>
       <c r="DT2" s="44" t="s">
         <v>405</v>
       </c>
       <c r="DU2" s="44" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="DV2" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="DW2" s="43" t="s">
         <v>134</v>
@@ -6061,24 +6082,24 @@
         <v>404</v>
       </c>
       <c r="DY2" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="DZ2" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EA2" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="EB2" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EC2" s="44" t="s">
         <v>553</v>
-      </c>
-      <c r="DZ2" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="EA2" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB2" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="EC2" s="44" t="s">
-        <v>555</v>
       </c>
       <c r="ED2" s="44"/>
       <c r="EE2" s="44"/>
       <c r="EF2" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="EG2" s="44"/>
       <c r="EH2" s="44"/>
@@ -6087,75 +6108,75 @@
       <c r="EK2" s="44"/>
       <c r="EL2" s="44"/>
       <c r="EM2" s="43" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="M3" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="N3" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="O3" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="P3" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="R3" s="39" t="s">
         <v>527</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>529</v>
       </c>
       <c r="S3" s="39" t="s">
         <v>389</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U3" s="11">
         <v>50</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>128</v>
@@ -6177,16 +6198,16 @@
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>535</v>
       </c>
       <c r="AJ3" s="12" t="s">
         <v>36</v>
@@ -6207,7 +6228,7 @@
         <v>121</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AQ3" s="12" t="s">
         <v>120</v>
@@ -6244,19 +6265,19 @@
         <v>1</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BD3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="BF3" s="12">
         <v>12</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BH3" s="12">
         <v>2</v>
@@ -6274,7 +6295,7 @@
         <v>29</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BN3" s="12" t="s">
         <v>199</v>
@@ -6304,20 +6325,20 @@
         <v>12345678</v>
       </c>
       <c r="BW3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BX3" s="42"/>
       <c r="BY3" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CA3" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="CC3" s="12" t="s">
         <v>67</v>
@@ -6344,13 +6365,13 @@
         <v>40</v>
       </c>
       <c r="CM3" s="42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="CN3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO3" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CP3" s="40" t="s">
         <v>355</v>
@@ -6362,12 +6383,12 @@
         <v>51</v>
       </c>
       <c r="CS3" s="64" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
       <c r="CV3" s="40" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>133</v>
@@ -6404,40 +6425,40 @@
         <v>53</v>
       </c>
       <c r="DK3" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="DL3" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="DM3" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="DL3" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="DM3" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="DN3" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DO3" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="DP3" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="DQ3" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="DP3" s="43" t="s">
+      <c r="DR3" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="DQ3" s="43" t="s">
+      <c r="DS3" s="44" t="s">
         <v>548</v>
-      </c>
-      <c r="DR3" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="DS3" s="44" t="s">
-        <v>550</v>
       </c>
       <c r="DT3" s="44" t="s">
         <v>405</v>
       </c>
       <c r="DU3" s="44" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="DV3" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="DW3" s="43" t="s">
         <v>134</v>
@@ -6446,24 +6467,24 @@
         <v>404</v>
       </c>
       <c r="DY3" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="DZ3" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EA3" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="EB3" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="EC3" s="44" t="s">
         <v>553</v>
-      </c>
-      <c r="DZ3" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="EA3" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="EB3" s="44" t="s">
-        <v>554</v>
-      </c>
-      <c r="EC3" s="44" t="s">
-        <v>555</v>
       </c>
       <c r="ED3" s="44"/>
       <c r="EE3" s="44"/>
       <c r="EF3" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="EG3" s="44" t="s">
         <v>410</v>
@@ -6475,16 +6496,16 @@
         <v>51</v>
       </c>
       <c r="EJ3" s="44" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="EK3" s="44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="EL3" s="44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="EM3" s="43" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6518,25 +6539,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>307</v>
@@ -6547,37 +6568,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>398</v>
@@ -6665,192 +6686,192 @@
         <v>308</v>
       </c>
       <c r="E1" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>583</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="S1" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="T1" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="U1" s="50" t="s">
         <v>594</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="V1" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="W1" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AC1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AM1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="D2" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>633</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>635</v>
       </c>
       <c r="F2" s="52">
         <v>10</v>
       </c>
       <c r="G2" s="52" t="s">
+        <v>634</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>638</v>
-      </c>
       <c r="J2" s="55" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K2" s="52"/>
       <c r="L2" s="52">
@@ -6859,25 +6880,25 @@
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
       <c r="O2" s="57" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P2" s="52" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q2" s="58">
         <v>5</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S2" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="U2" s="52" t="s">
         <v>641</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>642</v>
-      </c>
-      <c r="U2" s="52" t="s">
-        <v>643</v>
       </c>
       <c r="V2" s="52"/>
       <c r="W2" s="55"/>
@@ -6917,28 +6938,28 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B3" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -6991,28 +7012,28 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -7065,52 +7086,52 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>410</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L5" s="2">
         <v>955689456</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -7155,28 +7176,28 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B6" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -7229,28 +7250,28 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -7269,10 +7290,10 @@
         <v>10</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -7309,28 +7330,28 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B8" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -7349,16 +7370,16 @@
         <v>10</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X8" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z8" s="61" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -7393,28 +7414,28 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B9" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -7433,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X9" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z9" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA9" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA9" s="61" t="s">
+      <c r="AB9" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB9" s="61" t="s">
+      <c r="AD9" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -7485,28 +7506,28 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B10" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -7525,28 +7546,28 @@
         <v>10</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X10" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z10" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA10" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA10" s="61" t="s">
+      <c r="AB10" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB10" s="61" t="s">
+      <c r="AD10" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -7577,28 +7598,28 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B11" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -7617,38 +7638,38 @@
         <v>10</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X11" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z11" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA11" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA11" s="61" t="s">
+      <c r="AB11" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB11" s="61" t="s">
+      <c r="AD11" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="AE11" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
@@ -7675,28 +7696,28 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B12" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -7715,38 +7736,38 @@
         <v>10</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z12" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA12" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA12" s="61" t="s">
+      <c r="AB12" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB12" s="61" t="s">
+      <c r="AD12" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -7773,28 +7794,28 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -7813,41 +7834,41 @@
         <v>10</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z13" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA13" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA13" s="61" t="s">
+      <c r="AB13" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB13" s="61" t="s">
+      <c r="AD13" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI13" s="61" t="s">
         <v>669</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AI13" s="61" t="s">
-        <v>671</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -7873,28 +7894,28 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B14" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -7913,41 +7934,41 @@
         <v>10</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z14" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA14" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA14" s="61" t="s">
+      <c r="AB14" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB14" s="61" t="s">
+      <c r="AD14" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI14" s="61" t="s">
         <v>669</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AI14" s="61" t="s">
-        <v>671</v>
       </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -7973,28 +7994,28 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B15" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -8013,41 +8034,41 @@
         <v>10</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X15" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="Z15" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA15" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AA15" s="61" t="s">
+      <c r="AB15" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AB15" s="61" t="s">
+      <c r="AD15" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AI15" s="61" t="s">
         <v>669</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AI15" s="61" t="s">
-        <v>671</v>
       </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -8073,28 +8094,28 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B16" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -8124,31 +8145,31 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AL16" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AO16" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AO16" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AR16" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>30</v>
@@ -8157,7 +8178,7 @@
         <v>411033</v>
       </c>
       <c r="AU16" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV16" s="2">
         <v>7896543215</v>
@@ -8166,7 +8187,7 @@
         <v>5000</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -8177,28 +8198,28 @@
     </row>
     <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B17" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>633</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>635</v>
       </c>
       <c r="F17" s="52">
         <v>5</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
@@ -8228,31 +8249,31 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="AK17" s="52" t="s">
+        <v>674</v>
+      </c>
+      <c r="AL17" s="52" t="s">
         <v>675</v>
       </c>
-      <c r="AK17" s="52" t="s">
+      <c r="AM17" s="52" t="s">
         <v>676</v>
       </c>
-      <c r="AL17" s="52" t="s">
+      <c r="AN17" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="AM17" s="52" t="s">
+      <c r="AO17" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP17" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="AN17" s="52" t="s">
+      <c r="AQ17" s="52" t="s">
         <v>679</v>
       </c>
-      <c r="AO17" s="52" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP17" s="52" t="s">
+      <c r="AR17" s="52" t="s">
         <v>680</v>
-      </c>
-      <c r="AQ17" s="52" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR17" s="52" t="s">
-        <v>682</v>
       </c>
       <c r="AS17" s="52" t="s">
         <v>30</v>
@@ -8261,7 +8282,7 @@
         <v>411033</v>
       </c>
       <c r="AU17" s="62" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV17" s="52">
         <v>7896543215</v>
@@ -8270,13 +8291,13 @@
         <v>5000</v>
       </c>
       <c r="AX17" s="52" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY17" s="52" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AZ17" s="52" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="BA17" s="52"/>
       <c r="BB17" s="52"/>
@@ -8285,28 +8306,28 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B18" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F18" s="2">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -8336,31 +8357,31 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AL18" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AM18" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AN18" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AO18" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP18" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AO18" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AR18" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>30</v>
@@ -8369,7 +8390,7 @@
         <v>411033</v>
       </c>
       <c r="AU18" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV18" s="2">
         <v>7896543215</v>
@@ -8378,13 +8399,13 @@
         <v>5000</v>
       </c>
       <c r="AX18" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -8393,28 +8414,28 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B19" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F19" s="2">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -8444,31 +8465,31 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AL19" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="AK19" s="2" t="s">
+      <c r="AM19" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AN19" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AM19" s="2" t="s">
+      <c r="AO19" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP19" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AO19" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP19" s="2" t="s">
+      <c r="AR19" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>30</v>
@@ -8477,7 +8498,7 @@
         <v>411033</v>
       </c>
       <c r="AU19" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV19" s="2">
         <v>7896543215</v>
@@ -8486,13 +8507,13 @@
         <v>5000</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -8501,28 +8522,28 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B20" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -8552,31 +8573,31 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AL20" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="AK20" s="2" t="s">
+      <c r="AM20" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="AL20" s="2" t="s">
+      <c r="AN20" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AO20" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP20" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AQ20" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="AO20" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AR20" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="AQ20" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR20" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>30</v>
@@ -8585,7 +8606,7 @@
         <v>411033</v>
       </c>
       <c r="AU20" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AV20" s="2">
         <v>7896543215</v>
@@ -8594,13 +8615,13 @@
         <v>5000</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AZ20" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
@@ -8609,28 +8630,28 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B21" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -8683,28 +8704,28 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B22" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -8757,28 +8778,28 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B23" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F23" s="2">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -8831,28 +8852,28 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B24" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F24" s="2">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -8905,28 +8926,28 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B25" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F25" s="2">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -8979,28 +9000,28 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B26" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F26" s="2">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -9053,28 +9074,28 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B27" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -9127,52 +9148,52 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B28" s="59" t="s">
+        <v>631</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>410</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L28" s="2">
         <v>955689456</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="O28" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -9234,8 +9255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9595,97 +9616,97 @@
         <v>435</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="DP1" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="DQ1" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="DR1" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="DS1" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="DT1" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="DU1" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="DV1" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="DY1" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="DZ1" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="EA1" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="EB1" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="EC1" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="ED1" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="EE1" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="EF1" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="EG1" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="EH1" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="EI1" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="EK1" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="EL1" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="EM1" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="EN1" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:144" ht="90" x14ac:dyDescent="0.25">
@@ -9693,16 +9714,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>743</v>
+        <v>514</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>400</v>
@@ -9983,73 +10004,73 @@
         <v>438</v>
       </c>
       <c r="DB2" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="DD2" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="DC2" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="DD2" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="DE2" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="DF2" s="35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="DG2" s="9" t="s">
         <v>440</v>
       </c>
       <c r="DH2" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="DI2" s="9" t="s">
         <v>441</v>
       </c>
       <c r="DJ2" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="DK2" s="66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="DL2" s="66" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="DM2" s="66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="DN2" s="65" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="DO2" s="65" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="DP2" s="65" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="DQ2" s="65" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="DR2" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="DS2" s="65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="DT2" s="65" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="DU2" s="65" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="DV2" s="65" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="DW2" s="65" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="DX2" s="65" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="DY2" s="65" t="s">
         <v>404</v>
@@ -10061,43 +10082,43 @@
         <v>404</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="ED2" s="37" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="EE2" s="37" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="EF2" s="37" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="EG2" s="37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="EH2" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="EI2" s="37" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="EJ2" s="37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="EK2" s="37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="EL2" s="61" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="EM2" s="61" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="EN2" s="61" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:144" ht="90" x14ac:dyDescent="0.25">
@@ -12066,19 +12087,19 @@
     </row>
     <row r="9" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>743</v>
+        <v>782</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>400</v>
@@ -12210,7 +12231,7 @@
         <v>199</v>
       </c>
       <c r="AY9" s="28" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AZ9" s="28" t="s">
         <v>30</v>
@@ -12332,7 +12353,7 @@
         <v>200</v>
       </c>
       <c r="CS9" s="9" t="s">
-        <v>162</v>
+        <v>783</v>
       </c>
       <c r="CT9" s="9" t="s">
         <v>53</v>
@@ -12359,73 +12380,73 @@
         <v>438</v>
       </c>
       <c r="DB9" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="DC9" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="DD9" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="DC9" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="DD9" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="DE9" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="DF9" s="35" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="DG9" s="9" t="s">
         <v>440</v>
       </c>
       <c r="DH9" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="DI9" s="9" t="s">
         <v>441</v>
       </c>
       <c r="DJ9" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="DK9" s="66" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="DL9" s="66" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="DM9" s="66" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="DN9" s="65" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="DO9" s="65" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="DP9" s="65" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="DQ9" s="65" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="DR9" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="DS9" s="65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="DT9" s="65" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="DU9" s="65" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="DV9" s="65" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="DW9" s="65" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="DX9" s="65" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="DY9" s="65" t="s">
         <v>404</v>
@@ -12437,43 +12458,43 @@
         <v>404</v>
       </c>
       <c r="EB9" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="EC9" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="ED9" s="37" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="EE9" s="37" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="EF9" s="37" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="EG9" s="37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="EH9" s="37" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="EI9" s="37" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="EJ9" s="37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="EK9" s="37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="EL9" s="61" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="EM9" s="61" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="EN9" s="61" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:144" x14ac:dyDescent="0.25">
@@ -13827,7 +13848,7 @@
   <dimension ref="A1:BG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BL2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14040,16 +14061,16 @@
         <v>453</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="BG1" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -14700,7 +14721,7 @@
         <v>465</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -14878,7 +14899,7 @@
         <v>458</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>472</v>
+        <v>781</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>230</v>
@@ -15043,7 +15064,7 @@
         <v>459</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>473</v>
+        <v>784</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>230</v>
@@ -15055,7 +15076,7 @@
         <v>230</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>134</v>
+        <v>776</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>230</v>
@@ -15066,8 +15087,8 @@
       <c r="I8" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>134</v>
+      <c r="J8" s="28" t="s">
+        <v>776</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>230</v>
@@ -15120,8 +15141,8 @@
       <c r="AA8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="9">
-        <v>1113332</v>
+      <c r="AB8" s="66" t="s">
+        <v>777</v>
       </c>
       <c r="AC8" s="9">
         <v>23564589</v>
@@ -15173,11 +15194,11 @@
       <c r="AT8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="9">
-        <v>5431267812</v>
+      <c r="AU8" s="9" t="s">
+        <v>778</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>376</v>
+        <v>779</v>
       </c>
       <c r="AW8" s="9" t="s">
         <v>377</v>
@@ -15195,7 +15216,7 @@
         <v>465</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>455</v>
+        <v>780</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -15208,7 +15229,7 @@
         <v>460</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>230</v>
@@ -15371,7 +15392,7 @@
         <v>461</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>443</v>
@@ -15534,7 +15555,7 @@
         <v>466</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>230</v>
@@ -15696,10 +15717,10 @@
     </row>
     <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>230</v>
@@ -15855,7 +15876,7 @@
       </c>
       <c r="BC12" s="9"/>
       <c r="BD12" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BE12" s="9" t="s">
         <v>230</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="754">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2145,9 +2145,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
-  </si>
-  <si>
     <t>MDKStatus</t>
   </si>
   <si>
@@ -2271,9 +2268,6 @@
     <t>LoadsAfterKYC</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -2296,6 +2290,9 @@
   </si>
   <si>
     <t>adaptiveAuth_debit</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>
@@ -9162,8 +9159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN7" workbookViewId="0">
-      <selection activeCell="CH9" sqref="CH9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9385,7 +9382,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -9394,10 +9391,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="BT1" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -9529,97 +9526,97 @@
         <v>394</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DP1" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DQ1" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="DR1" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DS1" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DT1" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="DU1" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="DV1" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="DY1" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="DZ1" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="EA1" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="EB1" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="EC1" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="ED1" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EE1" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EF1" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EG1" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="EH1" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="EI1" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="EK1" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="EL1" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="EM1" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="EN1" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="EO1" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="EP1" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
@@ -9627,7 +9624,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>489</v>
@@ -9713,10 +9710,10 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG2" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH2" s="28" t="s">
         <v>10</v>
@@ -9752,13 +9749,13 @@
         <v>325</v>
       </c>
       <c r="AS2" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT2" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT2" s="28" t="s">
+      <c r="AU2" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU2" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV2" s="28" t="s">
         <v>29</v>
@@ -9817,7 +9814,7 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ2" s="28" t="s">
         <v>373</v>
@@ -9861,7 +9858,7 @@
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="28" t="s">
@@ -10040,10 +10037,10 @@
     </row>
     <row r="3" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>489</v>
@@ -10129,10 +10126,10 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG3" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG3" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH3" s="28" t="s">
         <v>10</v>
@@ -10168,13 +10165,13 @@
         <v>325</v>
       </c>
       <c r="AS3" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT3" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT3" s="28" t="s">
+      <c r="AU3" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU3" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV3" s="28" t="s">
         <v>29</v>
@@ -10233,7 +10230,7 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ3" s="28" t="s">
         <v>373</v>
@@ -10277,7 +10274,7 @@
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
@@ -10385,7 +10382,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>489</v>
@@ -10471,10 +10468,10 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG4" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG4" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH4" s="28" t="s">
         <v>10</v>
@@ -10510,13 +10507,13 @@
         <v>325</v>
       </c>
       <c r="AS4" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT4" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT4" s="28" t="s">
+      <c r="AU4" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU4" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV4" s="28" t="s">
         <v>29</v>
@@ -10575,7 +10572,7 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ4" s="28" t="s">
         <v>373</v>
@@ -10603,7 +10600,7 @@
         <v>171</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -10617,7 +10614,7 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
@@ -10706,10 +10703,10 @@
     </row>
     <row r="5" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>489</v>
@@ -10795,10 +10792,10 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG5" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH5" s="28" t="s">
         <v>10</v>
@@ -10834,13 +10831,13 @@
         <v>325</v>
       </c>
       <c r="AS5" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT5" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT5" s="28" t="s">
+      <c r="AU5" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU5" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV5" s="28" t="s">
         <v>29</v>
@@ -10899,7 +10896,7 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ5" s="28" t="s">
         <v>373</v>
@@ -10927,7 +10924,7 @@
         <v>171</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -10941,7 +10938,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
@@ -11033,7 +11030,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>489</v>
@@ -11119,10 +11116,10 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG6" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG6" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH6" s="28" t="s">
         <v>10</v>
@@ -11158,13 +11155,13 @@
         <v>325</v>
       </c>
       <c r="AS6" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT6" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT6" s="28" t="s">
+      <c r="AU6" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU6" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV6" s="28" t="s">
         <v>29</v>
@@ -11223,7 +11220,7 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ6" s="28" t="s">
         <v>373</v>
@@ -11265,7 +11262,7 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
@@ -11354,10 +11351,10 @@
     </row>
     <row r="7" spans="1:146" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>753</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>746</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>489</v>
@@ -11443,10 +11440,10 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG7" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG7" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH7" s="28" t="s">
         <v>10</v>
@@ -11482,13 +11479,13 @@
         <v>325</v>
       </c>
       <c r="AS7" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT7" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT7" s="28" t="s">
+      <c r="AU7" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU7" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV7" s="28" t="s">
         <v>29</v>
@@ -11547,7 +11544,7 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ7" s="28" t="s">
         <v>373</v>
@@ -11589,7 +11586,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
@@ -11681,7 +11678,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>489</v>
@@ -11767,10 +11764,10 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG8" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG8" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH8" s="28" t="s">
         <v>10</v>
@@ -11806,13 +11803,13 @@
         <v>325</v>
       </c>
       <c r="AS8" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT8" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT8" s="28" t="s">
+      <c r="AU8" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU8" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV8" s="28" t="s">
         <v>29</v>
@@ -11871,7 +11868,7 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ8" s="28" t="s">
         <v>373</v>
@@ -11899,7 +11896,7 @@
         <v>171</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -11913,7 +11910,7 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
@@ -12002,10 +11999,10 @@
     </row>
     <row r="9" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>489</v>
@@ -12091,10 +12088,10 @@
         <v>36</v>
       </c>
       <c r="AF9" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="AG9" s="28" t="s">
         <v>738</v>
-      </c>
-      <c r="AG9" s="28" t="s">
-        <v>739</v>
       </c>
       <c r="AH9" s="28" t="s">
         <v>10</v>
@@ -12130,13 +12127,13 @@
         <v>325</v>
       </c>
       <c r="AS9" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="AT9" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="AT9" s="28" t="s">
+      <c r="AU9" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="AU9" s="28" t="s">
-        <v>742</v>
       </c>
       <c r="AV9" s="28" t="s">
         <v>29</v>
@@ -12195,7 +12192,7 @@
         <v>71</v>
       </c>
       <c r="BP9" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="BQ9" s="28" t="s">
         <v>373</v>
@@ -12418,10 +12415,10 @@
     </row>
     <row r="10" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>704</v>
+        <v>736</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>753</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>703</v>
@@ -12562,7 +12559,7 @@
         <v>175</v>
       </c>
       <c r="AY10" s="28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AZ10" s="28" t="s">
         <v>30</v>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -2292,7 +2292,7 @@
     <t>adaptiveAuth_debit</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="791">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2389,6 +2389,21 @@
   </si>
   <si>
     <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
+  </si>
+  <si>
+    <t>CustCareSTD</t>
+  </si>
+  <si>
+    <t>CustCareIntl</t>
+  </si>
+  <si>
+    <t>CustCareVIP</t>
+  </si>
+  <si>
+    <t>USA,CAN [+1]</t>
+  </si>
+  <si>
+    <t>232527</t>
   </si>
 </sst>
 </file>
@@ -2987,20 +3002,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3567,12 +3582,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3626,7 +3641,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3732,7 +3747,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3785,7 +3800,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3838,7 +3853,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3904,18 +3919,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>380</v>
       </c>
@@ -3955,7 +3970,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>381</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>388</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>382</v>
       </c>
@@ -4015,7 +4030,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>383</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>384</v>
       </c>
@@ -4055,7 +4070,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>385</v>
       </c>
@@ -4088,27 +4103,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +4170,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -4198,17 +4213,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -4226,24 +4241,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -4331,7 +4346,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -4385,20 +4400,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4433,7 +4448,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -4489,9 +4504,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>556</v>
       </c>
@@ -5288,14 +5303,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>513</v>
       </c>
@@ -6111,7 +6126,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>704</v>
       </c>
@@ -6521,14 +6536,14 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6566,7 +6581,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>569</v>
       </c>
@@ -6621,58 +6636,58 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="30.85546875" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" customWidth="1"/>
-    <col min="19" max="20" width="30.42578125" customWidth="1"/>
-    <col min="21" max="21" width="31.85546875" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="31" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" customWidth="1"/>
-    <col min="26" max="26" width="31.5703125" customWidth="1"/>
-    <col min="27" max="27" width="33.5703125" customWidth="1"/>
-    <col min="28" max="28" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="30.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="20" width="30.44140625" customWidth="1"/>
+    <col min="21" max="21" width="31.88671875" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="31" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
+    <col min="25" max="25" width="24.33203125" customWidth="1"/>
+    <col min="26" max="26" width="31.5546875" customWidth="1"/>
+    <col min="27" max="27" width="33.5546875" customWidth="1"/>
+    <col min="28" max="28" width="29.6640625" customWidth="1"/>
     <col min="29" max="29" width="28" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" customWidth="1"/>
-    <col min="31" max="31" width="24.7109375" customWidth="1"/>
-    <col min="32" max="32" width="22.85546875" customWidth="1"/>
-    <col min="33" max="33" width="45.28515625" customWidth="1"/>
-    <col min="34" max="34" width="56.7109375" customWidth="1"/>
-    <col min="35" max="35" width="41.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" customWidth="1"/>
-    <col min="37" max="37" width="19.7109375" customWidth="1"/>
-    <col min="38" max="38" width="22.85546875" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="40" max="41" width="22.28515625" customWidth="1"/>
-    <col min="42" max="43" width="22.5703125" customWidth="1"/>
-    <col min="44" max="44" width="24.42578125" customWidth="1"/>
-    <col min="45" max="45" width="20.140625" customWidth="1"/>
-    <col min="46" max="46" width="19.140625" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" customWidth="1"/>
-    <col min="48" max="48" width="23.5703125" customWidth="1"/>
-    <col min="49" max="49" width="29.7109375" customWidth="1"/>
-    <col min="50" max="50" width="28.85546875" customWidth="1"/>
-    <col min="51" max="56" width="24.28515625" customWidth="1"/>
+    <col min="30" max="30" width="30.5546875" customWidth="1"/>
+    <col min="31" max="31" width="24.6640625" customWidth="1"/>
+    <col min="32" max="32" width="22.88671875" customWidth="1"/>
+    <col min="33" max="33" width="45.33203125" customWidth="1"/>
+    <col min="34" max="34" width="56.6640625" customWidth="1"/>
+    <col min="35" max="35" width="41.109375" customWidth="1"/>
+    <col min="36" max="36" width="16.5546875" customWidth="1"/>
+    <col min="37" max="37" width="19.6640625" customWidth="1"/>
+    <col min="38" max="38" width="22.88671875" customWidth="1"/>
+    <col min="39" max="39" width="18.44140625" customWidth="1"/>
+    <col min="40" max="41" width="22.33203125" customWidth="1"/>
+    <col min="42" max="43" width="22.5546875" customWidth="1"/>
+    <col min="44" max="44" width="24.44140625" customWidth="1"/>
+    <col min="45" max="45" width="20.109375" customWidth="1"/>
+    <col min="46" max="46" width="19.109375" customWidth="1"/>
+    <col min="47" max="47" width="23.6640625" customWidth="1"/>
+    <col min="48" max="48" width="23.5546875" customWidth="1"/>
+    <col min="49" max="49" width="29.6640625" customWidth="1"/>
+    <col min="50" max="50" width="28.88671875" customWidth="1"/>
+    <col min="51" max="56" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6842,7 +6857,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>630</v>
       </c>
@@ -6936,7 +6951,7 @@
       <c r="BC2" s="52"/>
       <c r="BD2" s="52"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>642</v>
       </c>
@@ -7010,7 +7025,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>643</v>
       </c>
@@ -7084,7 +7099,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>645</v>
       </c>
@@ -7174,7 +7189,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>650</v>
       </c>
@@ -7248,7 +7263,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>651</v>
       </c>
@@ -7328,7 +7343,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>654</v>
       </c>
@@ -7412,7 +7427,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>657</v>
       </c>
@@ -7504,7 +7519,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>662</v>
       </c>
@@ -7596,7 +7611,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>663</v>
       </c>
@@ -7694,7 +7709,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>666</v>
       </c>
@@ -7792,7 +7807,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>668</v>
       </c>
@@ -7892,7 +7907,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>670</v>
       </c>
@@ -7992,7 +8007,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>671</v>
       </c>
@@ -8092,7 +8107,7 @@
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>672</v>
       </c>
@@ -8196,7 +8211,7 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
     </row>
-    <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>683</v>
       </c>
@@ -8304,7 +8319,7 @@
       <c r="BC17" s="52"/>
       <c r="BD17" s="52"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>684</v>
       </c>
@@ -8412,7 +8427,7 @@
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>685</v>
       </c>
@@ -8520,7 +8535,7 @@
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>686</v>
       </c>
@@ -8628,7 +8643,7 @@
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>687</v>
       </c>
@@ -8702,7 +8717,7 @@
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>688</v>
       </c>
@@ -8776,7 +8791,7 @@
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>689</v>
       </c>
@@ -8850,7 +8865,7 @@
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>690</v>
       </c>
@@ -8924,7 +8939,7 @@
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>691</v>
       </c>
@@ -8998,7 +9013,7 @@
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>692</v>
       </c>
@@ -9072,7 +9087,7 @@
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>693</v>
       </c>
@@ -9146,7 +9161,7 @@
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>694</v>
       </c>
@@ -9255,27 +9270,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
-    <col min="143" max="143" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="143" max="143" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9709,7 +9724,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="2" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -10121,7 +10136,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -10461,7 +10476,7 @@
       <c r="EM3" s="2"/>
       <c r="EN3" s="2"/>
     </row>
-    <row r="4" spans="1:144" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -10785,7 +10800,7 @@
       <c r="EM4" s="2"/>
       <c r="EN4" s="2"/>
     </row>
-    <row r="5" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -11109,7 +11124,7 @@
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
     </row>
-    <row r="6" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -11433,7 +11448,7 @@
       <c r="EM6" s="2"/>
       <c r="EN6" s="2"/>
     </row>
-    <row r="7" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -11759,7 +11774,7 @@
       <c r="EM7" s="2"/>
       <c r="EN7" s="2"/>
     </row>
-    <row r="8" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -12085,7 +12100,7 @@
       <c r="EM8" s="2"/>
       <c r="EN8" s="2"/>
     </row>
-    <row r="9" spans="1:144" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>775</v>
       </c>
@@ -12497,7 +12512,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -12506,7 +12521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -12515,502 +12530,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -13027,17 +13042,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13072,7 +13087,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -13099,7 +13114,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -13130,7 +13145,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -13151,7 +13166,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -13187,19 +13202,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13250,7 +13265,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -13301,7 +13316,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -13352,7 +13367,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -13403,7 +13418,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -13454,7 +13469,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -13516,13 +13531,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13542,7 +13557,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -13562,7 +13577,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -13593,12 +13608,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13627,7 +13642,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -13667,12 +13682,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13695,7 +13710,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -13718,7 +13733,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -13739,7 +13754,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -13771,14 +13786,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13798,7 +13813,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -13818,7 +13833,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -13845,56 +13860,56 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG12"/>
+  <dimension ref="A1:BJ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" customWidth="1"/>
-    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.85546875" customWidth="1"/>
-    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5546875" customWidth="1"/>
+    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" customWidth="1"/>
+    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.88671875" customWidth="1"/>
+    <col min="56" max="56" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14072,8 +14087,17 @@
       <c r="BG1" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>442</v>
       </c>
@@ -14237,8 +14261,17 @@
       <c r="BE2" s="9"/>
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
-    </row>
-    <row r="3" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH2" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>444</v>
       </c>
@@ -14400,8 +14433,17 @@
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
-    </row>
-    <row r="4" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH3" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>457</v>
       </c>
@@ -14563,8 +14605,17 @@
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
       <c r="BG4" s="9"/>
-    </row>
-    <row r="5" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH4" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>445</v>
       </c>
@@ -14728,8 +14779,17 @@
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
-    </row>
-    <row r="6" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH5" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>456</v>
       </c>
@@ -14893,8 +14953,17 @@
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
-    </row>
-    <row r="7" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH6" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>458</v>
       </c>
@@ -15058,8 +15127,17 @@
       <c r="BE7" s="9"/>
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
-    </row>
-    <row r="8" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH7" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>459</v>
       </c>
@@ -15223,8 +15301,17 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH8" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>460</v>
       </c>
@@ -15386,8 +15473,17 @@
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
-    </row>
-    <row r="10" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH9" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>461</v>
       </c>
@@ -15549,8 +15645,17 @@
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH10" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>466</v>
       </c>
@@ -15714,8 +15819,17 @@
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
-    </row>
-    <row r="12" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH11" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>562</v>
       </c>
@@ -15886,6 +16000,15 @@
       </c>
       <c r="BG12" s="9">
         <v>121212</v>
+      </c>
+      <c r="BH12" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="BJ12" s="9" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12948" windowHeight="6756" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="6750" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="792">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2148,9 +2148,6 @@
     <t>TC_Application_Upload_Credit</t>
   </si>
   <si>
-    <t>554466</t>
-  </si>
-  <si>
     <t>Credit[C}</t>
   </si>
   <si>
@@ -2404,6 +2401,12 @@
   </si>
   <si>
     <t>232527</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>10000000</t>
   </si>
 </sst>
 </file>
@@ -3002,20 +3005,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -3582,12 +3585,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3641,7 +3644,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3919,18 +3922,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>380</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>381</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>388</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>382</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>383</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>384</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>385</v>
       </c>
@@ -4103,27 +4106,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4170,7 +4173,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>317</v>
       </c>
@@ -4213,17 +4216,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -4241,24 +4244,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>334</v>
       </c>
@@ -4346,7 +4349,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>340</v>
       </c>
@@ -4400,20 +4403,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>345</v>
       </c>
@@ -4504,9 +4507,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:135" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:135" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>556</v>
       </c>
@@ -5299,18 +5302,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>513</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>704</v>
       </c>
@@ -6134,10 +6137,10 @@
         <v>703</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>514</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>705</v>
+        <v>515</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>516</v>
@@ -6182,7 +6185,7 @@
         <v>527</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="T3" s="39" t="s">
         <v>529</v>
@@ -6191,7 +6194,7 @@
         <v>50</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>128</v>
@@ -6286,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BF3" s="12">
         <v>12</v>
@@ -6398,7 +6401,7 @@
         <v>51</v>
       </c>
       <c r="CS3" s="64" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
@@ -6491,7 +6494,7 @@
         <v>523</v>
       </c>
       <c r="EB3" s="44" t="s">
-        <v>552</v>
+        <v>790</v>
       </c>
       <c r="EC3" s="44" t="s">
         <v>553</v>
@@ -6505,19 +6508,19 @@
         <v>410</v>
       </c>
       <c r="EH3" s="44" t="s">
-        <v>409</v>
+        <v>791</v>
       </c>
       <c r="EI3" s="44" t="s">
         <v>51</v>
       </c>
       <c r="EJ3" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="EK3" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="EK3" s="44" t="s">
-        <v>709</v>
-      </c>
       <c r="EL3" s="44" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="EM3" s="43" t="s">
         <v>555</v>
@@ -6536,14 +6539,14 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>569</v>
       </c>
@@ -6636,58 +6639,58 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="30.88671875" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" customWidth="1"/>
-    <col min="19" max="20" width="30.44140625" customWidth="1"/>
-    <col min="21" max="21" width="31.88671875" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="31" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" customWidth="1"/>
-    <col min="25" max="25" width="24.33203125" customWidth="1"/>
-    <col min="26" max="26" width="31.5546875" customWidth="1"/>
-    <col min="27" max="27" width="33.5546875" customWidth="1"/>
-    <col min="28" max="28" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" customWidth="1"/>
+    <col min="19" max="20" width="30.42578125" customWidth="1"/>
+    <col min="21" max="21" width="31.85546875" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="31.5703125" customWidth="1"/>
+    <col min="27" max="27" width="33.5703125" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" customWidth="1"/>
     <col min="29" max="29" width="28" customWidth="1"/>
-    <col min="30" max="30" width="30.5546875" customWidth="1"/>
-    <col min="31" max="31" width="24.6640625" customWidth="1"/>
-    <col min="32" max="32" width="22.88671875" customWidth="1"/>
-    <col min="33" max="33" width="45.33203125" customWidth="1"/>
-    <col min="34" max="34" width="56.6640625" customWidth="1"/>
-    <col min="35" max="35" width="41.109375" customWidth="1"/>
-    <col min="36" max="36" width="16.5546875" customWidth="1"/>
-    <col min="37" max="37" width="19.6640625" customWidth="1"/>
-    <col min="38" max="38" width="22.88671875" customWidth="1"/>
-    <col min="39" max="39" width="18.44140625" customWidth="1"/>
-    <col min="40" max="41" width="22.33203125" customWidth="1"/>
-    <col min="42" max="43" width="22.5546875" customWidth="1"/>
-    <col min="44" max="44" width="24.44140625" customWidth="1"/>
-    <col min="45" max="45" width="20.109375" customWidth="1"/>
-    <col min="46" max="46" width="19.109375" customWidth="1"/>
-    <col min="47" max="47" width="23.6640625" customWidth="1"/>
-    <col min="48" max="48" width="23.5546875" customWidth="1"/>
-    <col min="49" max="49" width="29.6640625" customWidth="1"/>
-    <col min="50" max="50" width="28.88671875" customWidth="1"/>
-    <col min="51" max="56" width="24.33203125" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" customWidth="1"/>
+    <col min="31" max="31" width="24.7109375" customWidth="1"/>
+    <col min="32" max="32" width="22.85546875" customWidth="1"/>
+    <col min="33" max="33" width="45.28515625" customWidth="1"/>
+    <col min="34" max="34" width="56.7109375" customWidth="1"/>
+    <col min="35" max="35" width="41.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="37" max="37" width="19.7109375" customWidth="1"/>
+    <col min="38" max="38" width="22.85546875" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" customWidth="1"/>
+    <col min="40" max="41" width="22.28515625" customWidth="1"/>
+    <col min="42" max="43" width="22.5703125" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" customWidth="1"/>
+    <col min="45" max="45" width="20.140625" customWidth="1"/>
+    <col min="46" max="46" width="19.140625" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" customWidth="1"/>
+    <col min="48" max="48" width="23.5703125" customWidth="1"/>
+    <col min="49" max="49" width="29.7109375" customWidth="1"/>
+    <col min="50" max="50" width="28.85546875" customWidth="1"/>
+    <col min="51" max="56" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>630</v>
       </c>
@@ -6951,7 +6954,7 @@
       <c r="BC2" s="52"/>
       <c r="BD2" s="52"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>642</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>643</v>
       </c>
@@ -7099,7 +7102,7 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>645</v>
       </c>
@@ -7189,7 +7192,7 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>650</v>
       </c>
@@ -7263,7 +7266,7 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>651</v>
       </c>
@@ -7343,7 +7346,7 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>654</v>
       </c>
@@ -7427,7 +7430,7 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>657</v>
       </c>
@@ -7519,7 +7522,7 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>662</v>
       </c>
@@ -7611,7 +7614,7 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>663</v>
       </c>
@@ -7709,7 +7712,7 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>666</v>
       </c>
@@ -7807,7 +7810,7 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>668</v>
       </c>
@@ -7907,7 +7910,7 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>670</v>
       </c>
@@ -8007,7 +8010,7 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>671</v>
       </c>
@@ -8107,7 +8110,7 @@
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>672</v>
       </c>
@@ -8211,7 +8214,7 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
     </row>
-    <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>683</v>
       </c>
@@ -8319,7 +8322,7 @@
       <c r="BC17" s="52"/>
       <c r="BD17" s="52"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>684</v>
       </c>
@@ -8427,7 +8430,7 @@
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>685</v>
       </c>
@@ -8535,7 +8538,7 @@
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>686</v>
       </c>
@@ -8643,7 +8646,7 @@
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>687</v>
       </c>
@@ -8717,7 +8720,7 @@
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>688</v>
       </c>
@@ -8791,7 +8794,7 @@
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>689</v>
       </c>
@@ -8865,7 +8868,7 @@
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>690</v>
       </c>
@@ -8939,7 +8942,7 @@
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>691</v>
       </c>
@@ -9013,7 +9016,7 @@
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>692</v>
       </c>
@@ -9087,7 +9090,7 @@
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>693</v>
       </c>
@@ -9161,7 +9164,7 @@
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>694</v>
       </c>
@@ -9274,23 +9277,23 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
-    <col min="143" max="143" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="143" max="143" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:144" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9631,108 +9634,108 @@
         <v>435</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="DO1" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="DP1" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="DQ1" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="DR1" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="DS1" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="DT1" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="DU1" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="DV1" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="DY1" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="DZ1" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="EA1" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="EB1" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="EC1" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="ED1" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="EE1" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="EF1" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="EG1" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="EH1" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="EI1" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="EJ1" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="EK1" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="EL1" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="EM1" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="EN1" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>398</v>
@@ -10019,73 +10022,73 @@
         <v>438</v>
       </c>
       <c r="DB2" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="DD2" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="DE2" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="DC2" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="DD2" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="DE2" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="DF2" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DG2" s="9" t="s">
         <v>440</v>
       </c>
       <c r="DH2" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="DI2" s="9" t="s">
         <v>441</v>
       </c>
       <c r="DJ2" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="DK2" s="66" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DL2" s="66" t="s">
         <v>527</v>
       </c>
       <c r="DM2" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="DN2" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DO2" s="65" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DP2" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="DQ2" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DR2" s="65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DS2" s="65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="DT2" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="DU2" s="65" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="DV2" s="65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="DW2" s="65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="DX2" s="65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="DY2" s="65" t="s">
         <v>404</v>
@@ -10097,46 +10100,46 @@
         <v>404</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="EC2" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="ED2" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="EE2" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="EF2" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EG2" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EH2" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EI2" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="EJ2" s="37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="EK2" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="EL2" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="EM2" s="61" t="s">
         <v>539</v>
       </c>
       <c r="EN2" s="61" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="3" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>140</v>
       </c>
@@ -10476,7 +10479,7 @@
       <c r="EM3" s="2"/>
       <c r="EN3" s="2"/>
     </row>
-    <row r="4" spans="1:144" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:144" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -10800,7 +10803,7 @@
       <c r="EM4" s="2"/>
       <c r="EN4" s="2"/>
     </row>
-    <row r="5" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -11124,7 +11127,7 @@
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
     </row>
-    <row r="6" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
@@ -11448,7 +11451,7 @@
       <c r="EM6" s="2"/>
       <c r="EN6" s="2"/>
     </row>
-    <row r="7" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -11774,7 +11777,7 @@
       <c r="EM7" s="2"/>
       <c r="EN7" s="2"/>
     </row>
-    <row r="8" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -12100,21 +12103,21 @@
       <c r="EM8" s="2"/>
       <c r="EN8" s="2"/>
     </row>
-    <row r="9" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:144" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>400</v>
@@ -12246,7 +12249,7 @@
         <v>199</v>
       </c>
       <c r="AY9" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AZ9" s="28" t="s">
         <v>30</v>
@@ -12368,7 +12371,7 @@
         <v>200</v>
       </c>
       <c r="CS9" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="CT9" s="9" t="s">
         <v>53</v>
@@ -12395,73 +12398,73 @@
         <v>438</v>
       </c>
       <c r="DB9" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="DC9" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="DD9" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="DE9" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="DC9" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="DD9" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="DE9" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="DF9" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="DG9" s="9" t="s">
         <v>440</v>
       </c>
       <c r="DH9" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="DI9" s="9" t="s">
         <v>441</v>
       </c>
       <c r="DJ9" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="DK9" s="66" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="DL9" s="66" t="s">
         <v>527</v>
       </c>
       <c r="DM9" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="DN9" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="DO9" s="65" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DP9" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="DQ9" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="DR9" s="65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DS9" s="65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="DT9" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="DU9" s="65" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="DV9" s="65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="DW9" s="65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="DX9" s="65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="DY9" s="65" t="s">
         <v>404</v>
@@ -12473,46 +12476,46 @@
         <v>404</v>
       </c>
       <c r="EB9" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="EC9" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="ED9" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="EE9" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="EF9" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="EG9" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="EH9" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="EI9" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="EJ9" s="37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="EK9" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="EL9" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="EM9" s="61" t="s">
         <v>539</v>
       </c>
       <c r="EN9" s="61" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS10"/>
       <c r="CT10" t="s">
         <v>162</v>
@@ -12521,7 +12524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS11"/>
       <c r="CT11" t="s">
         <v>162</v>
@@ -12530,502 +12533,502 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -13042,17 +13045,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -13114,7 +13117,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>190</v>
       </c>
@@ -13145,7 +13148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>191</v>
       </c>
@@ -13166,7 +13169,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
@@ -13202,19 +13205,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13265,7 +13268,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -13316,7 +13319,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>201</v>
       </c>
@@ -13367,7 +13370,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>201</v>
       </c>
@@ -13418,7 +13421,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>201</v>
       </c>
@@ -13469,7 +13472,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>201</v>
       </c>
@@ -13531,13 +13534,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13557,7 +13560,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>258</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -13608,12 +13611,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>264</v>
       </c>
@@ -13682,12 +13685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13710,7 +13713,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>272</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -13786,14 +13789,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13813,7 +13816,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>258</v>
       </c>
@@ -13833,7 +13836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
@@ -13862,54 +13865,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" customWidth="1"/>
-    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.88671875" customWidth="1"/>
-    <col min="56" max="56" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5703125" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.85546875" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14088,16 +14091,16 @@
         <v>563</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>442</v>
       </c>
@@ -14262,16 +14265,16 @@
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
       <c r="BH2" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI2" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI2" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ2" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>444</v>
       </c>
@@ -14434,16 +14437,16 @@
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
       <c r="BH3" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI3" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI3" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ3" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>457</v>
       </c>
@@ -14606,16 +14609,16 @@
       <c r="BF4" s="9"/>
       <c r="BG4" s="9"/>
       <c r="BH4" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI4" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI4" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ4" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>445</v>
       </c>
@@ -14780,16 +14783,16 @@
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI5" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI5" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ5" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>456</v>
       </c>
@@ -14954,21 +14957,21 @@
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI6" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI6" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ6" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>458</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>230</v>
@@ -15128,21 +15131,21 @@
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI7" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI7" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ7" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>459</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>230</v>
@@ -15154,7 +15157,7 @@
         <v>230</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>230</v>
@@ -15166,7 +15169,7 @@
         <v>230</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>230</v>
@@ -15220,7 +15223,7 @@
         <v>34</v>
       </c>
       <c r="AB8" s="66" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AC8" s="9">
         <v>23564589</v>
@@ -15273,10 +15276,10 @@
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="AV8" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="AV8" s="9" t="s">
-        <v>779</v>
       </c>
       <c r="AW8" s="9" t="s">
         <v>377</v>
@@ -15294,7 +15297,7 @@
         <v>465</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -15302,16 +15305,16 @@
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI8" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI8" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ8" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>460</v>
       </c>
@@ -15474,16 +15477,16 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI9" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI9" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ9" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>461</v>
       </c>
@@ -15646,16 +15649,16 @@
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI10" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI10" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ10" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>466</v>
       </c>
@@ -15820,16 +15823,16 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI11" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI11" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ11" s="9" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="12" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>562</v>
       </c>
@@ -16002,13 +16005,13 @@
         <v>121212</v>
       </c>
       <c r="BH12" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="BI12" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="BI12" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="BJ12" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/demo/TestData/TestData.xlsx
+++ b/src/main/resources/config/demo/TestData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3865" uniqueCount="796">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -9284,10 +9284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN183"/>
+  <dimension ref="A1:EP183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:EN17"/>
+    <sheetView tabSelected="1" topLeftCell="CF1" workbookViewId="0">
+      <selection activeCell="CN1" sqref="CN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9302,11 +9302,11 @@
     <col min="49" max="49" width="7.44140625" customWidth="1"/>
     <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
-    <col min="143" max="143" width="8.109375" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="4" customWidth="1"/>
+    <col min="145" max="145" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9578,169 +9578,175 @@
         <v>89</v>
       </c>
       <c r="CM1" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="CO1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -9997,166 +10003,168 @@
       <c r="CL2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="28"/>
+      <c r="CN2" s="28"/>
+      <c r="CO2" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN2" s="28" t="s">
+      <c r="CP2" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO2" s="9" t="s">
+      <c r="CQ2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP2" s="9" t="s">
+      <c r="CR2" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ2" s="9" t="s">
+      <c r="CS2" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR2" s="9" t="s">
+      <c r="CT2" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS2" s="28" t="s">
+      <c r="CU2" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT2" s="9" t="s">
+      <c r="CV2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU2" s="9" t="s">
+      <c r="CW2" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV2" s="9" t="s">
+      <c r="CX2" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="CW2" s="9" t="s">
+      <c r="CY2" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="CX2" s="9" t="s">
+      <c r="CZ2" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CY2" s="31" t="s">
+      <c r="DA2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="CZ2" s="31" t="s">
+      <c r="DB2" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="DA2" s="31" t="s">
+      <c r="DC2" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="DB2" s="31" t="s">
+      <c r="DD2" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="DC2" s="31" t="s">
+      <c r="DE2" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="DD2" s="31" t="s">
+      <c r="DF2" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="DE2" s="9" t="s">
+      <c r="DG2" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DH2" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DI2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="DH2" s="9" t="s">
+      <c r="DJ2" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="DI2" s="9" t="s">
+      <c r="DK2" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="DJ2" s="9" t="s">
+      <c r="DL2" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="DK2" s="9" t="s">
+      <c r="DM2" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="DL2" s="9" t="s">
+      <c r="DN2" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="DM2" s="9" t="s">
+      <c r="DO2" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="DN2" s="9" t="s">
+      <c r="DP2" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="DO2" s="9" t="s">
+      <c r="DQ2" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="DP2" s="9" t="s">
+      <c r="DR2" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="DQ2" s="9" t="s">
+      <c r="DS2" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="DR2" s="9" t="s">
+      <c r="DT2" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="DS2" s="9" t="s">
+      <c r="DU2" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="DT2" s="9" t="s">
+      <c r="DV2" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="DU2" s="9" t="s">
+      <c r="DW2" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="DV2" s="9" t="s">
+      <c r="DX2" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="DW2" s="9" t="s">
+      <c r="DY2" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="DX2" s="9" t="s">
+      <c r="DZ2" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="DY2" s="9" t="s">
+      <c r="EA2" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="DZ2" s="9">
+      <c r="EB2" s="9">
         <v>1</v>
       </c>
-      <c r="EA2" s="9">
+      <c r="EC2" s="9">
         <v>1</v>
       </c>
-      <c r="EB2" s="9" t="s">
+      <c r="ED2" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="EC2" s="9" t="s">
+      <c r="EE2" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="ED2" s="9" t="s">
+      <c r="EF2" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="EE2" s="9" t="s">
+      <c r="EG2" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="EF2" s="9" t="s">
+      <c r="EH2" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="EG2" s="9" t="s">
+      <c r="EI2" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="EH2" s="9" t="s">
+      <c r="EJ2" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="EI2" s="9" t="s">
+      <c r="EK2" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="EJ2" s="9" t="s">
+      <c r="EL2" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="EK2" s="9" t="s">
+      <c r="EM2" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="EL2" s="9" t="s">
+      <c r="EN2" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="EM2" s="9"/>
-      <c r="EN2" s="9"/>
-    </row>
-    <row r="3" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO2" s="9"/>
+      <c r="EP2" s="9"/>
+    </row>
+    <row r="3" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>753</v>
       </c>
@@ -10413,66 +10421,66 @@
       <c r="CL3" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="29" t="s">
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="28"/>
+      <c r="CO3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN3" s="28" t="s">
+      <c r="CP3" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO3" s="9" t="s">
+      <c r="CQ3" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP3" s="9" t="s">
+      <c r="CR3" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ3" s="9" t="s">
+      <c r="CS3" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR3" s="9" t="s">
+      <c r="CT3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS3" s="28" t="s">
+      <c r="CU3" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT3" s="9" t="s">
+      <c r="CV3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU3" s="9" t="s">
+      <c r="CW3" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="31"/>
       <c r="CX3" s="31"/>
-      <c r="CY3" s="9"/>
-      <c r="CZ3" s="9"/>
-      <c r="DA3" s="9" t="s">
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="DB3" s="9" t="s">
+      <c r="DD3" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="DC3" s="9" t="s">
+      <c r="DE3" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="DD3" s="9" t="s">
+      <c r="DF3" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="DE3" s="9" t="s">
+      <c r="DG3" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="DF3" s="9" t="s">
+      <c r="DH3" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="DG3" s="9" t="s">
+      <c r="DI3" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="DH3" s="9" t="s">
+      <c r="DJ3" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="DI3" s="31"/>
-      <c r="DJ3" s="31"/>
-      <c r="DK3" s="9"/>
-      <c r="DL3" s="9"/>
+      <c r="DK3" s="31"/>
+      <c r="DL3" s="31"/>
       <c r="DM3" s="9"/>
       <c r="DN3" s="9"/>
       <c r="DO3" s="9"/>
@@ -10501,8 +10509,10 @@
       <c r="EL3" s="9"/>
       <c r="EM3" s="9"/>
       <c r="EN3" s="9"/>
-    </row>
-    <row r="4" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO3" s="9"/>
+      <c r="EP3" s="9"/>
+    </row>
+    <row r="4" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -10757,38 +10767,38 @@
       <c r="CL4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM4" s="29" t="s">
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CO4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CP4" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO4" s="9" t="s">
+      <c r="CQ4" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP4" s="9" t="s">
+      <c r="CR4" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ4" s="9" t="s">
+      <c r="CS4" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR4" s="9" t="s">
+      <c r="CT4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS4" s="28" t="s">
+      <c r="CU4" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT4" s="9" t="s">
+      <c r="CV4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU4" s="9" t="s">
+      <c r="CW4" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
       <c r="CX4" s="31"/>
-      <c r="CY4" s="9"/>
-      <c r="CZ4" s="9"/>
+      <c r="CY4" s="31"/>
+      <c r="CZ4" s="31"/>
       <c r="DA4" s="9"/>
       <c r="DB4" s="9"/>
       <c r="DC4" s="9"/>
@@ -10829,8 +10839,10 @@
       <c r="EL4" s="9"/>
       <c r="EM4" s="9"/>
       <c r="EN4" s="9"/>
-    </row>
-    <row r="5" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO4" s="9"/>
+      <c r="EP4" s="9"/>
+    </row>
+    <row r="5" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>756</v>
       </c>
@@ -11085,38 +11097,38 @@
       <c r="CL5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM5" s="29" t="s">
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN5" s="28" t="s">
+      <c r="CP5" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO5" s="9" t="s">
+      <c r="CQ5" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP5" s="9" t="s">
+      <c r="CR5" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ5" s="9" t="s">
+      <c r="CS5" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR5" s="9" t="s">
+      <c r="CT5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS5" s="28" t="s">
+      <c r="CU5" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT5" s="9" t="s">
+      <c r="CV5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU5" s="9" t="s">
+      <c r="CW5" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
       <c r="CX5" s="31"/>
-      <c r="CY5" s="9"/>
-      <c r="CZ5" s="9"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
       <c r="DA5" s="9"/>
       <c r="DB5" s="9"/>
       <c r="DC5" s="9"/>
@@ -11157,8 +11169,10 @@
       <c r="EL5" s="9"/>
       <c r="EM5" s="9"/>
       <c r="EN5" s="9"/>
-    </row>
-    <row r="6" spans="1:144" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="EO5" s="9"/>
+      <c r="EP5" s="9"/>
+    </row>
+    <row r="6" spans="1:146" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>148</v>
       </c>
@@ -11413,38 +11427,38 @@
       <c r="CL6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM6" s="29" t="s">
+      <c r="CM6" s="28"/>
+      <c r="CN6" s="28"/>
+      <c r="CO6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN6" s="28" t="s">
+      <c r="CP6" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO6" s="9" t="s">
+      <c r="CQ6" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP6" s="9" t="s">
+      <c r="CR6" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ6" s="9" t="s">
+      <c r="CS6" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR6" s="9" t="s">
+      <c r="CT6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS6" s="28" t="s">
+      <c r="CU6" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT6" s="9" t="s">
+      <c r="CV6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU6" s="9" t="s">
+      <c r="CW6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="31"/>
       <c r="CX6" s="31"/>
-      <c r="CY6" s="9"/>
-      <c r="CZ6" s="9"/>
+      <c r="CY6" s="31"/>
+      <c r="CZ6" s="31"/>
       <c r="DA6" s="9"/>
       <c r="DB6" s="9"/>
       <c r="DC6" s="9"/>
@@ -11485,8 +11499,10 @@
       <c r="EL6" s="9"/>
       <c r="EM6" s="9"/>
       <c r="EN6" s="9"/>
-    </row>
-    <row r="7" spans="1:144" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="EO6" s="9"/>
+      <c r="EP6" s="9"/>
+    </row>
+    <row r="7" spans="1:146" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>757</v>
       </c>
@@ -11741,38 +11757,38 @@
       <c r="CL7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM7" s="29" t="s">
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="CN7" s="28" t="s">
+      <c r="CP7" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO7" s="9" t="s">
+      <c r="CQ7" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="CP7" s="9" t="s">
+      <c r="CR7" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="CQ7" s="9" t="s">
+      <c r="CS7" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="CR7" s="9" t="s">
+      <c r="CT7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="CS7" s="28" t="s">
+      <c r="CU7" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT7" s="9" t="s">
+      <c r="CV7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU7" s="9" t="s">
+      <c r="CW7" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV7" s="31"/>
-      <c r="CW7" s="31"/>
       <c r="CX7" s="31"/>
-      <c r="CY7" s="9"/>
-      <c r="CZ7" s="9"/>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="31"/>
       <c r="DA7" s="9"/>
       <c r="DB7" s="9"/>
       <c r="DC7" s="9"/>
@@ -11813,8 +11829,10 @@
       <c r="EL7" s="9"/>
       <c r="EM7" s="9"/>
       <c r="EN7" s="9"/>
-    </row>
-    <row r="8" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO7" s="9"/>
+      <c r="EP7" s="9"/>
+    </row>
+    <row r="8" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>758</v>
       </c>
@@ -12067,35 +12085,35 @@
       <c r="CL8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM8" s="28" t="s">
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN8" s="28" t="s">
+      <c r="CP8" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO8" s="28" t="s">
+      <c r="CQ8" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CP8" s="28" t="s">
+      <c r="CR8" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="CQ8" s="28" t="s">
+      <c r="CS8" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CR8" s="29" t="s">
+      <c r="CT8" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="CS8" s="28" t="s">
+      <c r="CU8" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT8" s="9" t="s">
+      <c r="CV8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU8" s="9" t="s">
+      <c r="CW8" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV8" s="9"/>
-      <c r="CW8" s="9"/>
       <c r="CX8" s="9"/>
       <c r="CY8" s="9"/>
       <c r="CZ8" s="9"/>
@@ -12104,9 +12122,9 @@
       <c r="DC8" s="9"/>
       <c r="DD8" s="9"/>
       <c r="DE8" s="9"/>
-      <c r="DF8" s="35"/>
+      <c r="DF8" s="9"/>
       <c r="DG8" s="9"/>
-      <c r="DH8" s="9"/>
+      <c r="DH8" s="35"/>
       <c r="DI8" s="9"/>
       <c r="DJ8" s="9"/>
       <c r="DK8" s="9"/>
@@ -12139,8 +12157,10 @@
       <c r="EL8" s="9"/>
       <c r="EM8" s="9"/>
       <c r="EN8" s="9"/>
-    </row>
-    <row r="9" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO8" s="9"/>
+      <c r="EP8" s="9"/>
+    </row>
+    <row r="9" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>791</v>
       </c>
@@ -12393,35 +12413,35 @@
       <c r="CL9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM9" s="28" t="s">
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN9" s="28" t="s">
+      <c r="CP9" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO9" s="28" t="s">
+      <c r="CQ9" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CP9" s="28" t="s">
+      <c r="CR9" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="CQ9" s="28" t="s">
+      <c r="CS9" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CR9" s="29" t="s">
+      <c r="CT9" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="CS9" s="28" t="s">
+      <c r="CU9" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT9" s="9" t="s">
+      <c r="CV9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU9" s="9" t="s">
+      <c r="CW9" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV9" s="9"/>
-      <c r="CW9" s="9"/>
       <c r="CX9" s="9"/>
       <c r="CY9" s="9"/>
       <c r="CZ9" s="9"/>
@@ -12430,9 +12450,9 @@
       <c r="DC9" s="9"/>
       <c r="DD9" s="9"/>
       <c r="DE9" s="9"/>
-      <c r="DF9" s="35"/>
+      <c r="DF9" s="9"/>
       <c r="DG9" s="9"/>
-      <c r="DH9" s="9"/>
+      <c r="DH9" s="35"/>
       <c r="DI9" s="9"/>
       <c r="DJ9" s="9"/>
       <c r="DK9" s="9"/>
@@ -12465,8 +12485,10 @@
       <c r="EL9" s="9"/>
       <c r="EM9" s="9"/>
       <c r="EN9" s="9"/>
-    </row>
-    <row r="10" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO9" s="9"/>
+      <c r="EP9" s="9"/>
+    </row>
+    <row r="10" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>767</v>
       </c>
@@ -12719,35 +12741,35 @@
       <c r="CL10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM10" s="28" t="s">
+      <c r="CM10" s="28"/>
+      <c r="CN10" s="28"/>
+      <c r="CO10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN10" s="28" t="s">
+      <c r="CP10" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO10" s="28" t="s">
+      <c r="CQ10" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CP10" s="28" t="s">
+      <c r="CR10" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="CQ10" s="28" t="s">
+      <c r="CS10" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CR10" s="29" t="s">
+      <c r="CT10" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="CS10" s="28" t="s">
+      <c r="CU10" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT10" s="9" t="s">
+      <c r="CV10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU10" s="9" t="s">
+      <c r="CW10" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV10" s="9"/>
-      <c r="CW10" s="9"/>
       <c r="CX10" s="9"/>
       <c r="CY10" s="9"/>
       <c r="CZ10" s="9"/>
@@ -12756,9 +12778,9 @@
       <c r="DC10" s="9"/>
       <c r="DD10" s="9"/>
       <c r="DE10" s="9"/>
-      <c r="DF10" s="35"/>
+      <c r="DF10" s="9"/>
       <c r="DG10" s="9"/>
-      <c r="DH10" s="9"/>
+      <c r="DH10" s="35"/>
       <c r="DI10" s="9"/>
       <c r="DJ10" s="9"/>
       <c r="DK10" s="9"/>
@@ -12791,8 +12813,10 @@
       <c r="EL10" s="9"/>
       <c r="EM10" s="9"/>
       <c r="EN10" s="9"/>
-    </row>
-    <row r="11" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO10" s="9"/>
+      <c r="EP10" s="9"/>
+    </row>
+    <row r="11" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>792</v>
       </c>
@@ -13045,35 +13069,35 @@
       <c r="CL11" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM11" s="28" t="s">
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN11" s="28" t="s">
+      <c r="CP11" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO11" s="28" t="s">
+      <c r="CQ11" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CP11" s="28" t="s">
+      <c r="CR11" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="CQ11" s="28" t="s">
+      <c r="CS11" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="CR11" s="29" t="s">
+      <c r="CT11" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="CS11" s="28" t="s">
+      <c r="CU11" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="CT11" s="9" t="s">
+      <c r="CV11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CU11" s="9" t="s">
+      <c r="CW11" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="CV11" s="9"/>
-      <c r="CW11" s="9"/>
       <c r="CX11" s="9"/>
       <c r="CY11" s="9"/>
       <c r="CZ11" s="9"/>
@@ -13082,9 +13106,9 @@
       <c r="DC11" s="9"/>
       <c r="DD11" s="9"/>
       <c r="DE11" s="9"/>
-      <c r="DF11" s="35"/>
+      <c r="DF11" s="9"/>
       <c r="DG11" s="9"/>
-      <c r="DH11" s="9"/>
+      <c r="DH11" s="35"/>
       <c r="DI11" s="9"/>
       <c r="DJ11" s="9"/>
       <c r="DK11" s="9"/>
@@ -13117,8 +13141,10 @@
       <c r="EL11" s="9"/>
       <c r="EM11" s="9"/>
       <c r="EN11" s="9"/>
-    </row>
-    <row r="12" spans="1:144" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="EO11" s="9"/>
+      <c r="EP11" s="9"/>
+    </row>
+    <row r="12" spans="1:146" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>775</v>
       </c>
@@ -13371,35 +13397,35 @@
       <c r="CL12" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CM12" s="28" t="s">
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="CN12" s="28" t="s">
+      <c r="CP12" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="CO12" s="28" t="s">
+      <c r="CQ12" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="CP12" s="28" t="s">
+      <c r="CR12" s="28" t="s